--- a/Karman Delta Arm/Rocket arming system.xlsx
+++ b/Karman Delta Arm/Rocket arming system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Karman Delta Arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\GitHub\AltiumGithub\Karman Delta Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C657F001-BF31-48EF-AC8C-69EBE25BD97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F633289E-9C5B-44CF-AFFB-96FF704E2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="25680" windowHeight="13800" tabRatio="745" activeTab="8" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
+    <workbookView xWindow="53115" yWindow="3615" windowWidth="21600" windowHeight="12645" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="New Parts" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="390">
   <si>
     <t>Failure Mode</t>
   </si>
@@ -180,9 +179,6 @@
     <t>Launch checklist</t>
   </si>
   <si>
-    <t>Extension connector</t>
-  </si>
-  <si>
     <t>Launch before top stage ready</t>
   </si>
   <si>
@@ -199,12 +195,6 @@
   </si>
   <si>
     <t>Back annotate</t>
-  </si>
-  <si>
-    <t>Add board version ident blob links</t>
-  </si>
-  <si>
-    <t>Add launch detect accelerometer optional</t>
   </si>
   <si>
     <t>Distance from rocket to control PC for safety</t>
@@ -845,9 +835,6 @@
   </si>
   <si>
     <t>Change 0.1% resistor symbol to rectangle</t>
-  </si>
-  <si>
-    <t>Add layer numbers</t>
   </si>
   <si>
     <t>Add PCB templates</t>
@@ -1206,6 +1193,60 @@
   </si>
   <si>
     <t>OUT_SENSE_1</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Add conformal coating layers</t>
+  </si>
+  <si>
+    <t>Sort RS485 driver to single pair version</t>
+  </si>
+  <si>
+    <t>Sort Outjobs</t>
+  </si>
+  <si>
+    <t>Redo board shape to allow for external switches &amp; debug headers</t>
+  </si>
+  <si>
+    <t>Sort problems with Tag Connect footprint - keepouts &amp; mech size</t>
+  </si>
+  <si>
+    <t>Finish tracking</t>
+  </si>
+  <si>
+    <t>Full rules check</t>
+  </si>
+  <si>
+    <t>Routing layer 2mm cutter tool path</t>
+  </si>
+  <si>
+    <t>Drawing notes</t>
+  </si>
+  <si>
+    <t>PCB Number - change from XXXXXX</t>
+  </si>
+  <si>
+    <t>Sort designators</t>
+  </si>
+  <si>
+    <t>Sort assembly layer designators</t>
+  </si>
+  <si>
+    <t>Get standard stackup from PCB manuf</t>
+  </si>
+  <si>
+    <t>Sort BomDoc</t>
+  </si>
+  <si>
+    <t>Sort BOM Excel template</t>
+  </si>
+  <si>
+    <t>Remove parts under compile mask</t>
+  </si>
+  <si>
+    <t>Setup rules re domain separation</t>
   </si>
 </sst>
 </file>
@@ -1597,121 +1638,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2911,19 +2952,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>282</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>286</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -2945,7 +2986,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D3" s="7">
         <v>3.7</v>
@@ -2954,21 +2995,21 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57">
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F4" s="7">
         <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2976,7 +3017,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2984,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2998,7 +3039,7 @@
         <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3006,10 +3047,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3017,18 +3058,18 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -3036,7 +3077,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -3044,7 +3085,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -3052,7 +3093,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
@@ -3060,33 +3101,33 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D14" s="7">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D15" s="7">
         <v>4000</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H15" s="45"/>
     </row>
@@ -3097,16 +3138,16 @@
     </row>
     <row r="18" spans="2:9" ht="42.75">
       <c r="B18" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.5">
@@ -3114,10 +3155,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.5">
@@ -3125,10 +3166,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="28.5">
@@ -3136,10 +3177,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -3154,189 +3195,189 @@
     </row>
     <row r="24" spans="2:9" ht="28.5">
       <c r="B24" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.5">
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="57">
       <c r="B26" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.5">
       <c r="B27" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.5">
       <c r="B28" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.5">
       <c r="B29" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.5">
       <c r="B30" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="71.25">
       <c r="B31" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.5">
       <c r="B32" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.5">
       <c r="B33" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="28.5">
       <c r="B35" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="28.5">
       <c r="B36" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="28.5">
       <c r="B37" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="28.5">
       <c r="B39" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15">
       <c r="B41" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="44" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="44" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="44" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="44" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -3353,7 +3394,7 @@
     </row>
     <row r="52" spans="2:3" ht="15">
       <c r="B52" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="28.5">
@@ -3361,7 +3402,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3389,36 +3430,36 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3444,82 +3485,82 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3529,12 +3570,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -3598,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -3615,13 +3656,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3634,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
@@ -3699,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -3776,7 +3817,7 @@
     </row>
     <row r="18" spans="4:5" ht="28.5">
       <c r="D18" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3799,7 +3840,7 @@
     </row>
     <row r="22" spans="4:5" ht="28.5">
       <c r="D22" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -3807,17 +3848,17 @@
     </row>
     <row r="25" spans="4:5">
       <c r="D25" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="D26" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3842,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E11162-B732-4DE9-8322-FD8094AB6283}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3906,7 +3947,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3916,117 +3957,195 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
+        <v>244</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="1" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="1" t="s">
-        <v>281</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>369</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4098,12 +4217,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
@@ -4114,7 +4233,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="9">
         <v>7.4</v>
@@ -4125,7 +4244,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9">
         <v>10</v>
@@ -4133,7 +4252,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="8">
         <f>(B4-B3)/(B5/1000)</f>
@@ -4142,7 +4261,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="8">
         <f>(B4-B3)*B5/1000</f>
@@ -4151,12 +4270,12 @@
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" s="9">
         <v>30</v>
@@ -4164,7 +4283,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13" s="9">
         <v>10</v>
@@ -4172,7 +4291,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14" s="9">
         <v>7.4</v>
@@ -4180,7 +4299,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="8">
         <f>B14*B13/(B12+B13)</f>
@@ -4196,7 +4315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3FBF9-418F-478C-B431-B3CE13D40659}">
   <dimension ref="B2:S127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
@@ -4208,110 +4327,110 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1"/>
     <row r="3" spans="2:16" ht="15" thickBot="1">
-      <c r="B3" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="B3" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="49"/>
+      <c r="M3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1">
       <c r="B4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="F4" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="G4" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="47"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickTop="1">
+      <c r="B5" s="62">
+        <v>2</v>
+      </c>
+      <c r="C5" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" s="62">
+        <v>2</v>
+      </c>
+      <c r="E5" s="62">
+        <v>2</v>
+      </c>
+      <c r="F5" s="63">
+        <v>2</v>
+      </c>
+      <c r="G5" s="62">
+        <v>2</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="J5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickTop="1">
-      <c r="B5" s="50">
-        <v>2</v>
-      </c>
-      <c r="C5" s="50">
-        <v>1</v>
-      </c>
-      <c r="D5" s="50">
-        <v>2</v>
-      </c>
-      <c r="E5" s="50">
-        <v>2</v>
-      </c>
-      <c r="F5" s="52">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50">
-        <v>2</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>88</v>
-      </c>
       <c r="P5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1">
@@ -4319,60 +4438,60 @@
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
-      <c r="F6" s="53"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="60">
+      <c r="B7" s="49">
         <v>3</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="49">
         <v>2</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="49">
         <v>3</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="49">
         <v>3</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="58">
         <v>3</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="49">
         <v>3</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>94</v>
-      </c>
       <c r="P7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.75" thickBot="1">
@@ -4380,17 +4499,17 @@
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="B9" s="17">
@@ -4412,25 +4531,25 @@
         <v>4</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L9" s="20">
         <v>-2</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1">
@@ -4453,142 +4572,142 @@
         <v>5</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="M10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="24">
+      <c r="B11" s="49">
+        <v>5</v>
+      </c>
+      <c r="C11" s="49">
+        <v>5</v>
+      </c>
+      <c r="D11" s="49">
+        <v>6</v>
+      </c>
+      <c r="E11" s="49">
+        <v>6</v>
+      </c>
+      <c r="F11" s="58">
+        <v>6</v>
+      </c>
+      <c r="G11" s="49">
+        <v>6</v>
+      </c>
+      <c r="H11" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="I11" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="20" t="s">
+      <c r="J11" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="24">
-      <c r="B11" s="60">
-        <v>5</v>
-      </c>
-      <c r="C11" s="60">
-        <v>5</v>
-      </c>
-      <c r="D11" s="60">
-        <v>6</v>
-      </c>
-      <c r="E11" s="60">
-        <v>6</v>
-      </c>
-      <c r="F11" s="61">
-        <v>6</v>
-      </c>
-      <c r="G11" s="60">
-        <v>6</v>
-      </c>
-      <c r="H11" s="62" t="s">
+      <c r="L11" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="N11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="24">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="62" t="s">
+      <c r="N12" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="24">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="29" t="s">
+      <c r="N13" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="36">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="P11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="24">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="14" t="s">
+    </row>
+    <row r="15" spans="2:16" ht="24">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="24">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="36">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="24">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="N15" s="22"/>
     </row>
@@ -4597,143 +4716,143 @@
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="53"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="51"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="24">
-      <c r="B17" s="60">
+      <c r="B17" s="49">
         <v>6</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="49">
         <v>6</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="49">
         <v>7</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="49">
         <v>7</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="58">
         <v>7</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="49">
         <v>7</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="24">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="N18" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="23" t="s">
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="2:16" ht="24">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="24">
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="23" t="s">
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="2:16" ht="24">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="14" t="s">
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="2:16" ht="24">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="2:16" ht="24">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="26"/>
-    </row>
-    <row r="21" spans="2:16" ht="24">
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="2:16" ht="24">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="N22" s="26"/>
     </row>
@@ -4742,343 +4861,343 @@
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="53"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="57"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="2:16" ht="36">
+      <c r="B24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="49">
+        <v>8</v>
+      </c>
+      <c r="E24" s="49">
+        <v>8</v>
+      </c>
+      <c r="F24" s="58">
+        <v>8</v>
+      </c>
+      <c r="G24" s="49">
+        <v>8</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="2:16" ht="36">
-      <c r="B24" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="60">
-        <v>8</v>
-      </c>
-      <c r="E24" s="60">
-        <v>8</v>
-      </c>
-      <c r="F24" s="61">
-        <v>8</v>
-      </c>
-      <c r="G24" s="60">
-        <v>8</v>
-      </c>
-      <c r="H24" s="62" t="s">
+      <c r="N24" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="24">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="68" t="s">
+      <c r="N25" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="24">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J24" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="24">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="P25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="24">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="N26" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="53"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N27" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="24">
+      <c r="B28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="49">
+        <v>9</v>
+      </c>
+      <c r="E28" s="49">
+        <v>9</v>
+      </c>
+      <c r="F28" s="58">
+        <v>9</v>
+      </c>
+      <c r="G28" s="49">
+        <v>9</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" ht="24">
-      <c r="B28" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="60">
-        <v>9</v>
-      </c>
-      <c r="E28" s="60">
-        <v>9</v>
-      </c>
-      <c r="F28" s="61">
-        <v>9</v>
-      </c>
-      <c r="G28" s="60">
-        <v>9</v>
-      </c>
-      <c r="H28" s="62" t="s">
+      <c r="N28" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="N29" s="35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="24">
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="70"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="53"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="57"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="2:16" ht="24">
+      <c r="B32" s="49">
+        <v>7</v>
+      </c>
+      <c r="C32" s="49">
+        <v>7</v>
+      </c>
+      <c r="D32" s="49">
+        <v>10</v>
+      </c>
+      <c r="E32" s="49">
+        <v>10</v>
+      </c>
+      <c r="F32" s="58">
+        <v>10</v>
+      </c>
+      <c r="G32" s="49">
+        <v>10</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="2:16" ht="24">
-      <c r="B32" s="60">
-        <v>7</v>
-      </c>
-      <c r="C32" s="60">
-        <v>7</v>
-      </c>
-      <c r="D32" s="60">
-        <v>10</v>
-      </c>
-      <c r="E32" s="60">
-        <v>10</v>
-      </c>
-      <c r="F32" s="61">
-        <v>10</v>
-      </c>
-      <c r="G32" s="60">
-        <v>10</v>
-      </c>
-      <c r="H32" s="62" t="s">
+      <c r="N32" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="24">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="36">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I32" s="68" t="s">
+      <c r="N34" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="24">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J32" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" s="14" t="s">
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="24">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="36">
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="N34" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="P34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="24">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="N35" s="22"/>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:16" ht="24">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="47"/>
       <c r="M37" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N37" s="22"/>
     </row>
@@ -5087,340 +5206,340 @@
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="53"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="51"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="51"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="48"/>
       <c r="M38" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N38" s="18"/>
     </row>
     <row r="39" spans="2:16" ht="24.75" thickTop="1">
-      <c r="B39" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="50">
+      <c r="B39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="62">
         <v>8</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="62">
         <v>11</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="62">
         <v>11</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="63">
         <v>11</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39" s="62">
         <v>11</v>
       </c>
-      <c r="H39" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="I39" s="56" t="s">
+      <c r="H39" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="24">
+      <c r="B40" s="47"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="47"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J39" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="L39" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="24">
-      <c r="B40" s="70"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="70"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N41" s="38" t="s">
-        <v>151</v>
-      </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="15" thickBot="1">
-      <c r="B42" s="57"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
-      <c r="F42" s="53"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="48"/>
       <c r="M42" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="49">
+        <v>9</v>
+      </c>
+      <c r="D43" s="49">
+        <v>12</v>
+      </c>
+      <c r="E43" s="49">
+        <v>12</v>
+      </c>
+      <c r="F43" s="58">
+        <v>12</v>
+      </c>
+      <c r="G43" s="49">
+        <v>12</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="60">
-        <v>9</v>
-      </c>
-      <c r="D43" s="60">
-        <v>12</v>
-      </c>
-      <c r="E43" s="60">
-        <v>12</v>
-      </c>
-      <c r="F43" s="61">
-        <v>12</v>
-      </c>
-      <c r="G43" s="60">
-        <v>12</v>
-      </c>
-      <c r="H43" s="62" t="s">
+      <c r="J43" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N43" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="P43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="24">
+      <c r="B44" s="47"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="N44" s="65"/>
+    </row>
+    <row r="45" spans="2:16" ht="24">
+      <c r="B45" s="47"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K43" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L43" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N43" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="P43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="24">
-      <c r="B44" s="70"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N44" s="75"/>
-    </row>
-    <row r="45" spans="2:16" ht="24">
-      <c r="B45" s="70"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="N45" s="75"/>
+      <c r="N45" s="65"/>
     </row>
     <row r="46" spans="2:16" ht="24">
-      <c r="B46" s="70"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="70"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="47"/>
       <c r="M46" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N46" s="75"/>
+        <v>115</v>
+      </c>
+      <c r="N46" s="65"/>
     </row>
     <row r="47" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B47" s="57"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
       <c r="E47" s="51"/>
-      <c r="F47" s="53"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="51"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="48"/>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="57"/>
+      <c r="L47" s="48"/>
       <c r="M47" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" s="76"/>
+        <v>108</v>
+      </c>
+      <c r="N47" s="66"/>
     </row>
     <row r="48" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B48" s="60">
+      <c r="B48" s="49">
         <v>8</v>
       </c>
-      <c r="C48" s="60">
+      <c r="C48" s="49">
         <v>10</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48" s="49">
         <v>13</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="49">
         <v>13</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="58">
         <v>13</v>
       </c>
-      <c r="G48" s="60">
+      <c r="G48" s="49">
         <v>13</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L48" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N48" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="24">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="68" t="s">
+      <c r="N49" s="47"/>
+    </row>
+    <row r="50" spans="2:16" ht="24">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J48" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K48" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L48" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N48" s="68" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="24">
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="N49" s="70"/>
-    </row>
-    <row r="50" spans="2:16" ht="24">
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="14" t="s">
-        <v>162</v>
-      </c>
       <c r="N50" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P50" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="24">
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="70"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="47"/>
       <c r="M51" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N51" s="26"/>
     </row>
     <row r="52" spans="2:16" ht="24">
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="70"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="47"/>
       <c r="M52" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N52" s="26"/>
     </row>
@@ -5429,285 +5548,285 @@
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="53"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="51"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="57"/>
+      <c r="L53" s="48"/>
       <c r="M53" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N53" s="24"/>
     </row>
     <row r="54" spans="2:16" ht="24">
-      <c r="B54" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="60">
+      <c r="B54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="49">
         <v>14</v>
       </c>
-      <c r="F54" s="61">
+      <c r="F54" s="58">
         <v>14</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="49">
         <v>14</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="I54" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N54" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="I54" s="74" t="s">
+      <c r="P54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N55" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="J54" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K54" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L54" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N54" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="P54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="70"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="47"/>
       <c r="M56" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N56" s="22"/>
     </row>
     <row r="57" spans="2:16" ht="24">
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="70"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="47"/>
       <c r="M57" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N57" s="22"/>
     </row>
     <row r="58" spans="2:16" ht="15" thickBot="1">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="51"/>
-      <c r="F58" s="53"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="51"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="76"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="66"/>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
-      <c r="L58" s="57"/>
+      <c r="L58" s="48"/>
       <c r="M58" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="N58" s="18"/>
+    </row>
+    <row r="59" spans="2:16" ht="24">
+      <c r="B59" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="49">
+        <v>11</v>
+      </c>
+      <c r="D59" s="49">
+        <v>14</v>
+      </c>
+      <c r="E59" s="49">
+        <v>15</v>
+      </c>
+      <c r="F59" s="58">
+        <v>15</v>
+      </c>
+      <c r="G59" s="49">
+        <v>15</v>
+      </c>
+      <c r="H59" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="2:16" ht="24">
-      <c r="B59" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="60">
-        <v>11</v>
-      </c>
-      <c r="D59" s="60">
-        <v>14</v>
-      </c>
-      <c r="E59" s="60">
-        <v>15</v>
-      </c>
-      <c r="F59" s="61">
-        <v>15</v>
-      </c>
-      <c r="G59" s="60">
-        <v>15</v>
-      </c>
-      <c r="H59" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="I59" s="74" t="s">
+      <c r="I59" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L59" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N59" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="J59" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K59" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L59" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M59" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N59" s="29" t="s">
-        <v>172</v>
-      </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="70"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="70"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="47"/>
       <c r="M60" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N60" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="24">
+      <c r="B61" s="47"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="62" spans="2:16" ht="24">
+      <c r="B62" s="47"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="2:16" ht="24">
-      <c r="B61" s="70"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N61" s="22"/>
-    </row>
-    <row r="62" spans="2:16" ht="24">
-      <c r="B62" s="70"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="N62" s="22"/>
     </row>
     <row r="63" spans="2:16" ht="15" thickBot="1">
-      <c r="B63" s="57"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
-      <c r="F63" s="53"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="51"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="76"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="51"/>
       <c r="K63" s="51"/>
-      <c r="L63" s="57"/>
+      <c r="L63" s="48"/>
       <c r="M63" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N63" s="18"/>
     </row>
     <row r="64" spans="2:16" ht="24.75" thickBot="1">
       <c r="B64" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G64" s="15">
         <v>16</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="15" thickBot="1">
@@ -5727,28 +5846,28 @@
         <v>16</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L65" s="20">
         <v>-5</v>
       </c>
       <c r="M65" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" thickBot="1">
@@ -5771,975 +5890,975 @@
         <v>17</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L66" s="20">
         <v>-6</v>
       </c>
       <c r="M66" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="36">
-      <c r="B67" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="60">
+      <c r="B67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="49">
         <v>18</v>
       </c>
-      <c r="F67" s="61">
+      <c r="F67" s="58">
         <v>18</v>
       </c>
-      <c r="G67" s="60">
+      <c r="G67" s="49">
         <v>18</v>
       </c>
-      <c r="H67" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="I67" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="J67" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K67" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L67" s="68" t="s">
-        <v>91</v>
+      <c r="H67" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="I67" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L67" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="N67" s="68" t="s">
-        <v>91</v>
+        <v>178</v>
+      </c>
+      <c r="N67" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="24">
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="70"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="47"/>
       <c r="M68" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N68" s="70"/>
+        <v>115</v>
+      </c>
+      <c r="N68" s="47"/>
     </row>
     <row r="69" spans="2:16" ht="24">
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="70"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="47"/>
       <c r="M69" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N69" s="70"/>
+        <v>141</v>
+      </c>
+      <c r="N69" s="47"/>
     </row>
     <row r="70" spans="2:16" ht="15" thickBot="1">
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="51"/>
-      <c r="F70" s="53"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="51"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="76"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="51"/>
       <c r="K70" s="51"/>
-      <c r="L70" s="57"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="N70" s="57"/>
+        <v>147</v>
+      </c>
+      <c r="N70" s="48"/>
     </row>
     <row r="71" spans="2:16" ht="24">
-      <c r="B71" s="60">
+      <c r="B71" s="49">
         <v>11</v>
       </c>
-      <c r="C71" s="60">
+      <c r="C71" s="49">
         <v>14</v>
       </c>
-      <c r="D71" s="60">
+      <c r="D71" s="49">
         <v>17</v>
       </c>
-      <c r="E71" s="60">
+      <c r="E71" s="49">
         <v>19</v>
       </c>
-      <c r="F71" s="61">
+      <c r="F71" s="58">
         <v>19</v>
       </c>
-      <c r="G71" s="60">
+      <c r="G71" s="49">
         <v>19</v>
       </c>
-      <c r="H71" s="62" t="s">
+      <c r="H71" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K71" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L71" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I71" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="J71" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K71" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L71" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="N71" s="68" t="s">
-        <v>91</v>
+      <c r="N71" s="46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="24">
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="70"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="47"/>
       <c r="M72" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="N72" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="N72" s="47"/>
     </row>
     <row r="73" spans="2:16" ht="24">
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="70"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="47"/>
       <c r="M73" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="N73" s="70"/>
+        <v>125</v>
+      </c>
+      <c r="N73" s="47"/>
     </row>
     <row r="74" spans="2:16" ht="48.75" thickBot="1">
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="E74" s="51"/>
-      <c r="F74" s="53"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="51"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="48"/>
       <c r="J74" s="51"/>
       <c r="K74" s="51"/>
-      <c r="L74" s="57"/>
+      <c r="L74" s="48"/>
       <c r="M74" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="N74" s="48"/>
+    </row>
+    <row r="75" spans="2:16" ht="36.75" thickTop="1">
+      <c r="B75" s="62">
+        <v>12</v>
+      </c>
+      <c r="C75" s="62">
+        <v>15</v>
+      </c>
+      <c r="D75" s="62">
+        <v>18</v>
+      </c>
+      <c r="E75" s="62">
+        <v>20</v>
+      </c>
+      <c r="F75" s="63">
+        <v>20</v>
+      </c>
+      <c r="G75" s="62">
+        <v>20</v>
+      </c>
+      <c r="H75" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I75" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="J75" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="L75" s="72">
+        <v>-7</v>
+      </c>
+      <c r="M75" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="N74" s="57"/>
-    </row>
-    <row r="75" spans="2:16" ht="36.75" thickTop="1">
-      <c r="B75" s="50">
-        <v>12</v>
-      </c>
-      <c r="C75" s="50">
-        <v>15</v>
-      </c>
-      <c r="D75" s="50">
-        <v>18</v>
-      </c>
-      <c r="E75" s="50">
-        <v>20</v>
-      </c>
-      <c r="F75" s="52">
-        <v>20</v>
-      </c>
-      <c r="G75" s="50">
-        <v>20</v>
-      </c>
-      <c r="H75" s="58" t="s">
+      <c r="N75" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="24">
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I75" s="56" t="s">
+      <c r="N76" s="47"/>
+    </row>
+    <row r="77" spans="2:16" ht="24">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="N77" s="47"/>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="J75" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="K75" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="L75" s="77">
-        <v>-7</v>
-      </c>
-      <c r="M75" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="N75" s="56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="24">
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="N76" s="70"/>
-    </row>
-    <row r="77" spans="2:16" ht="24">
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="N77" s="70"/>
-    </row>
-    <row r="78" spans="2:16">
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="78"/>
-      <c r="M78" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="N78" s="70"/>
+      <c r="N78" s="47"/>
     </row>
     <row r="79" spans="2:16" ht="24.75" thickBot="1">
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="51"/>
       <c r="E79" s="51"/>
-      <c r="F79" s="53"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="51"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="48"/>
       <c r="J79" s="51"/>
       <c r="K79" s="51"/>
-      <c r="L79" s="79"/>
+      <c r="L79" s="69"/>
       <c r="M79" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="N79" s="57"/>
+        <v>108</v>
+      </c>
+      <c r="N79" s="48"/>
     </row>
     <row r="80" spans="2:16">
-      <c r="B80" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="61">
+      <c r="B80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="58">
         <v>21</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="49">
         <v>21</v>
       </c>
-      <c r="H80" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="J80" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K80" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L80" s="68" t="s">
-        <v>91</v>
+      <c r="H80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J80" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K80" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L80" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N80" s="68" t="s">
-        <v>91</v>
+        <v>151</v>
+      </c>
+      <c r="N80" s="46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:19" ht="48">
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="70"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="47"/>
       <c r="M81" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N81" s="70"/>
+        <v>190</v>
+      </c>
+      <c r="N81" s="47"/>
     </row>
     <row r="82" spans="2:19" ht="24">
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="70"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="47"/>
       <c r="M82" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="N82" s="70"/>
+        <v>159</v>
+      </c>
+      <c r="N82" s="47"/>
     </row>
     <row r="83" spans="2:19" ht="48.75" thickBot="1">
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="53"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="51"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
       <c r="J83" s="51"/>
       <c r="K83" s="51"/>
-      <c r="L83" s="57"/>
+      <c r="L83" s="48"/>
       <c r="M83" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="N83" s="57"/>
+        <v>183</v>
+      </c>
+      <c r="N83" s="48"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="61">
+      <c r="B84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="58">
         <v>22</v>
       </c>
-      <c r="G84" s="60">
+      <c r="G84" s="49">
         <v>22</v>
       </c>
-      <c r="H84" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="J84" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K84" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L84" s="68" t="s">
-        <v>91</v>
+      <c r="H84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="J84" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K84" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L84" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N84" s="68" t="s">
-        <v>91</v>
+        <v>157</v>
+      </c>
+      <c r="N84" s="46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:19" ht="24">
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="70"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="47"/>
       <c r="M85" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N85" s="70"/>
+        <v>115</v>
+      </c>
+      <c r="N85" s="47"/>
     </row>
     <row r="86" spans="2:19" ht="24">
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="70"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="47"/>
       <c r="M86" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="N86" s="70"/>
+        <v>119</v>
+      </c>
+      <c r="N86" s="47"/>
       <c r="S86" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="2:19" ht="24.75" thickBot="1">
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="53"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="51"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
       <c r="J87" s="51"/>
       <c r="K87" s="51"/>
-      <c r="L87" s="57"/>
+      <c r="L87" s="48"/>
       <c r="M87" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N87" s="57"/>
+        <v>127</v>
+      </c>
+      <c r="N87" s="48"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="60">
+      <c r="B88" s="49">
         <v>13</v>
       </c>
-      <c r="C88" s="60">
+      <c r="C88" s="49">
         <v>16</v>
       </c>
-      <c r="D88" s="60">
+      <c r="D88" s="49">
         <v>19</v>
       </c>
-      <c r="E88" s="60">
+      <c r="E88" s="49">
         <v>21</v>
       </c>
-      <c r="F88" s="61">
+      <c r="F88" s="58">
         <v>23</v>
       </c>
-      <c r="G88" s="60">
+      <c r="G88" s="49">
         <v>23</v>
       </c>
-      <c r="H88" s="62" t="s">
+      <c r="H88" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="I88" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J88" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K88" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L88" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M88" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="24">
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N89" s="47"/>
+    </row>
+    <row r="90" spans="2:19">
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="I88" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="J88" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K88" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L88" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M88" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="N88" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" ht="24">
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N89" s="70"/>
-    </row>
-    <row r="90" spans="2:19">
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N90" s="70"/>
+      <c r="N90" s="47"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="70"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="47"/>
       <c r="M91" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N91" s="70"/>
+        <v>146</v>
+      </c>
+      <c r="N91" s="47"/>
     </row>
     <row r="92" spans="2:19" ht="24">
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-      <c r="L92" s="70"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="47"/>
       <c r="M92" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="N92" s="70"/>
+        <v>107</v>
+      </c>
+      <c r="N92" s="47"/>
     </row>
     <row r="93" spans="2:19" ht="24.75" thickBot="1">
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
       <c r="D93" s="51"/>
       <c r="E93" s="51"/>
-      <c r="F93" s="53"/>
+      <c r="F93" s="60"/>
       <c r="G93" s="51"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="48"/>
       <c r="J93" s="51"/>
       <c r="K93" s="51"/>
-      <c r="L93" s="57"/>
+      <c r="L93" s="48"/>
       <c r="M93" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="N93" s="57"/>
+        <v>108</v>
+      </c>
+      <c r="N93" s="48"/>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="60">
+      <c r="B94" s="49">
         <v>14</v>
       </c>
-      <c r="C94" s="60">
+      <c r="C94" s="49">
         <v>17</v>
       </c>
-      <c r="D94" s="60">
+      <c r="D94" s="49">
         <v>20</v>
       </c>
-      <c r="E94" s="60">
+      <c r="E94" s="49">
         <v>22</v>
       </c>
-      <c r="F94" s="61">
+      <c r="F94" s="58">
         <v>24</v>
       </c>
-      <c r="G94" s="60">
+      <c r="G94" s="49">
         <v>24</v>
       </c>
-      <c r="H94" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="I94" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="J94" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K94" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L94" s="80">
+      <c r="H94" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="J94" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K94" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L94" s="67">
         <v>-7</v>
       </c>
       <c r="M94" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="N94" s="68" t="s">
-        <v>91</v>
+        <v>198</v>
+      </c>
+      <c r="N94" s="46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="24">
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="78"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="68"/>
       <c r="M95" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="N95" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="N95" s="47"/>
     </row>
     <row r="96" spans="2:19" ht="24">
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="78"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="68"/>
       <c r="M96" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="N96" s="70"/>
+        <v>118</v>
+      </c>
+      <c r="N96" s="47"/>
     </row>
     <row r="97" spans="2:16" ht="24">
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="78"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="68"/>
       <c r="M97" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="N97" s="70"/>
+        <v>125</v>
+      </c>
+      <c r="N97" s="47"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="78"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="68"/>
       <c r="M98" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N98" s="70"/>
+        <v>151</v>
+      </c>
+      <c r="N98" s="47"/>
     </row>
     <row r="99" spans="2:16" ht="24">
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="78"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="68"/>
       <c r="M99" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="N99" s="70"/>
+        <v>126</v>
+      </c>
+      <c r="N99" s="47"/>
     </row>
     <row r="100" spans="2:16" ht="24.75" thickBot="1">
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
       <c r="D100" s="51"/>
       <c r="E100" s="51"/>
-      <c r="F100" s="53"/>
+      <c r="F100" s="60"/>
       <c r="G100" s="51"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="48"/>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
-      <c r="L100" s="79"/>
+      <c r="L100" s="69"/>
       <c r="M100" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="N100" s="57"/>
+        <v>127</v>
+      </c>
+      <c r="N100" s="48"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="60">
+      <c r="B101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="49">
         <v>23</v>
       </c>
-      <c r="F101" s="61">
+      <c r="F101" s="58">
         <v>25</v>
       </c>
-      <c r="G101" s="60">
+      <c r="G101" s="49">
         <v>25</v>
       </c>
-      <c r="H101" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I101" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="J101" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K101" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L101" s="68" t="s">
-        <v>91</v>
+      <c r="H101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="J101" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K101" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L101" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="M101" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N101" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16">
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N101" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16">
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="70"/>
-      <c r="M102" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N102" s="70"/>
+      <c r="N102" s="47"/>
     </row>
     <row r="103" spans="2:16" ht="24">
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="70"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="47"/>
       <c r="M103" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N103" s="70"/>
+        <v>115</v>
+      </c>
+      <c r="N103" s="47"/>
     </row>
     <row r="104" spans="2:16" ht="24">
-      <c r="B104" s="70"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="70"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="47"/>
       <c r="M104" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="N104" s="70"/>
+        <v>103</v>
+      </c>
+      <c r="N104" s="47"/>
     </row>
     <row r="105" spans="2:16" ht="15" thickBot="1">
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
       <c r="E105" s="51"/>
-      <c r="F105" s="53"/>
+      <c r="F105" s="60"/>
       <c r="G105" s="51"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
-      <c r="L105" s="57"/>
+      <c r="L105" s="48"/>
       <c r="M105" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="N105" s="57"/>
+        <v>147</v>
+      </c>
+      <c r="N105" s="48"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="60">
+      <c r="B106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="49">
         <v>24</v>
       </c>
-      <c r="F106" s="61">
+      <c r="F106" s="58">
         <v>26</v>
       </c>
-      <c r="G106" s="60">
+      <c r="G106" s="49">
         <v>26</v>
       </c>
-      <c r="H106" s="62" t="s">
+      <c r="H106" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="I106" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J106" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K106" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M106" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N106" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="I106" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="J106" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K106" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L106" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M106" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N106" s="68" t="s">
-        <v>206</v>
-      </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="75"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="66"/>
-      <c r="L107" s="70"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="47"/>
       <c r="M107" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N107" s="70"/>
+        <v>117</v>
+      </c>
+      <c r="N107" s="47"/>
     </row>
     <row r="108" spans="2:16" ht="15" thickBot="1">
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
       <c r="E108" s="51"/>
-      <c r="F108" s="53"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="51"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="76"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="66"/>
       <c r="J108" s="51"/>
       <c r="K108" s="51"/>
-      <c r="L108" s="57"/>
+      <c r="L108" s="48"/>
       <c r="M108" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="N108" s="57"/>
+        <v>202</v>
+      </c>
+      <c r="N108" s="48"/>
     </row>
     <row r="109" spans="2:16" ht="24.75" thickBot="1">
       <c r="B109" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E109" s="15">
         <v>25</v>
@@ -6751,291 +6870,291 @@
         <v>27</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I109" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L109" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M109" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N109" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="P109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" ht="15" thickTop="1">
+      <c r="B110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="62">
+        <v>26</v>
+      </c>
+      <c r="F110" s="63">
+        <v>28</v>
+      </c>
+      <c r="G110" s="62">
+        <v>28</v>
+      </c>
+      <c r="H110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I110" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="J109" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L109" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M109" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="N109" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="P109" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" ht="15" thickTop="1">
-      <c r="B110" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C110" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E110" s="50">
-        <v>26</v>
-      </c>
-      <c r="F110" s="52">
-        <v>28</v>
-      </c>
-      <c r="G110" s="50">
-        <v>28</v>
-      </c>
-      <c r="H110" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="I110" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="J110" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="K110" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="L110" s="56" t="s">
-        <v>91</v>
+      <c r="J110" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K110" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="L110" s="61" t="s">
+        <v>88</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N110" s="56" t="s">
-        <v>209</v>
+        <v>157</v>
+      </c>
+      <c r="N110" s="61" t="s">
+        <v>206</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="24">
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="70"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="47"/>
       <c r="M111" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N111" s="70"/>
+        <v>104</v>
+      </c>
+      <c r="N111" s="47"/>
     </row>
     <row r="112" spans="2:16" ht="24">
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="70"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="47"/>
       <c r="M112" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="N112" s="70"/>
+        <v>118</v>
+      </c>
+      <c r="N112" s="47"/>
     </row>
     <row r="113" spans="2:14" ht="15" thickBot="1">
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
       <c r="E113" s="51"/>
-      <c r="F113" s="53"/>
+      <c r="F113" s="60"/>
       <c r="G113" s="51"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="76"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="51"/>
       <c r="K113" s="51"/>
-      <c r="L113" s="57"/>
+      <c r="L113" s="48"/>
       <c r="M113" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="N113" s="48"/>
+    </row>
+    <row r="114" spans="2:14" ht="36">
+      <c r="B114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="49">
+        <v>18</v>
+      </c>
+      <c r="D114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="49">
+        <v>27</v>
+      </c>
+      <c r="F114" s="58">
+        <v>29</v>
+      </c>
+      <c r="G114" s="49">
+        <v>29</v>
+      </c>
+      <c r="H114" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I114" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J114" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M114" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="N113" s="57"/>
-    </row>
-    <row r="114" spans="2:14" ht="36">
-      <c r="B114" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C114" s="60">
-        <v>18</v>
-      </c>
-      <c r="D114" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E114" s="60">
-        <v>27</v>
-      </c>
-      <c r="F114" s="61">
-        <v>29</v>
-      </c>
-      <c r="G114" s="60">
-        <v>29</v>
-      </c>
-      <c r="H114" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="I114" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="J114" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K114" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L114" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M114" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="N114" s="68" t="s">
-        <v>209</v>
+      <c r="N114" s="46" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="24">
-      <c r="B115" s="70"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="70"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="47"/>
       <c r="M115" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N115" s="70"/>
+        <v>152</v>
+      </c>
+      <c r="N115" s="47"/>
     </row>
     <row r="116" spans="2:14">
-      <c r="B116" s="70"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="70"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
-      <c r="L116" s="70"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="47"/>
       <c r="M116" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="N116" s="70"/>
+        <v>188</v>
+      </c>
+      <c r="N116" s="47"/>
     </row>
     <row r="117" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B117" s="57"/>
+      <c r="B117" s="48"/>
       <c r="C117" s="51"/>
-      <c r="D117" s="57"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="51"/>
-      <c r="F117" s="53"/>
+      <c r="F117" s="60"/>
       <c r="G117" s="51"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="57"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="48"/>
       <c r="J117" s="51"/>
       <c r="K117" s="51"/>
-      <c r="L117" s="57"/>
+      <c r="L117" s="48"/>
       <c r="M117" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="N117" s="57"/>
+        <v>121</v>
+      </c>
+      <c r="N117" s="48"/>
     </row>
     <row r="118" spans="2:14" ht="36">
-      <c r="B118" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C118" s="60">
+      <c r="B118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="49">
         <v>19</v>
       </c>
-      <c r="D118" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E118" s="60">
+      <c r="D118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="49">
         <v>28</v>
       </c>
-      <c r="F118" s="61">
+      <c r="F118" s="58">
         <v>30</v>
       </c>
-      <c r="G118" s="60">
+      <c r="G118" s="49">
         <v>30</v>
       </c>
-      <c r="H118" s="62" t="s">
+      <c r="H118" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I118" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J118" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K118" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M118" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="N118" s="46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" ht="36">
+      <c r="B119" s="47"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="I118" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="J118" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K118" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L118" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M118" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="N118" s="68" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" ht="36">
-      <c r="B119" s="70"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="69"/>
-      <c r="I119" s="70"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="66"/>
-      <c r="L119" s="70"/>
-      <c r="M119" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="N119" s="70"/>
+      <c r="N119" s="47"/>
     </row>
     <row r="120" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B120" s="57"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="51"/>
-      <c r="D120" s="57"/>
+      <c r="D120" s="48"/>
       <c r="E120" s="51"/>
-      <c r="F120" s="53"/>
+      <c r="F120" s="60"/>
       <c r="G120" s="51"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="57"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="48"/>
       <c r="J120" s="51"/>
       <c r="K120" s="51"/>
-      <c r="L120" s="57"/>
+      <c r="L120" s="48"/>
       <c r="M120" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="N120" s="57"/>
+        <v>136</v>
+      </c>
+      <c r="N120" s="48"/>
     </row>
     <row r="121" spans="2:14" ht="48.75" thickBot="1">
       <c r="B121" s="17">
@@ -7057,172 +7176,172 @@
         <v>31</v>
       </c>
       <c r="H121" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I121" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="J121" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I121" s="39" t="s">
+      <c r="L121" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M121" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N121" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="J121" s="19" t="s">
+    </row>
+    <row r="122" spans="2:14" ht="24">
+      <c r="B122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" s="49">
+        <v>32</v>
+      </c>
+      <c r="H122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="K121" s="15" t="s">
+      <c r="J122" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K122" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M122" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N122" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" ht="24">
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="47"/>
+      <c r="M123" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N123" s="47"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="50"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="47"/>
+      <c r="M124" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="L121" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M121" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="N121" s="40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" ht="24">
-      <c r="B122" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E122" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="F122" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G122" s="60">
-        <v>32</v>
-      </c>
-      <c r="H122" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I122" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="J122" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="K122" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="L122" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M122" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N122" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" ht="24">
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="70"/>
-      <c r="M123" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N123" s="70"/>
-    </row>
-    <row r="124" spans="2:14">
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
-      <c r="L124" s="70"/>
-      <c r="M124" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="N124" s="70"/>
+      <c r="N124" s="47"/>
     </row>
     <row r="125" spans="2:14" ht="15" thickBot="1">
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="84"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="54"/>
       <c r="G125" s="51"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
       <c r="J125" s="51"/>
       <c r="K125" s="51"/>
-      <c r="L125" s="57"/>
+      <c r="L125" s="48"/>
       <c r="M125" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="N125" s="57"/>
+        <v>224</v>
+      </c>
+      <c r="N125" s="48"/>
     </row>
     <row r="126" spans="2:14" ht="15" thickBot="1">
       <c r="B126" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F126" s="32">
         <v>32</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L126" s="20">
         <v>-5</v>
       </c>
       <c r="M126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="2:14" ht="15" thickBot="1">
       <c r="B127" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F127" s="32">
         <v>1</v>
@@ -7231,80 +7350,252 @@
         <v>1</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J127" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L127" s="20">
         <v>-6</v>
       </c>
       <c r="M127" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N127" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:K120"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="N101:N105"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="L110:L113"/>
-    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="K17:K23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="N75:N79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="N88:N93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="I88:I93"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="L88:L93"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I94:I100"/>
+    <mergeCell ref="J94:J100"/>
     <mergeCell ref="B106:B108"/>
     <mergeCell ref="C106:C108"/>
     <mergeCell ref="D106:D108"/>
@@ -7329,229 +7620,57 @@
     <mergeCell ref="L106:L108"/>
     <mergeCell ref="I101:I105"/>
     <mergeCell ref="J101:J105"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="E94:E100"/>
-    <mergeCell ref="F94:F100"/>
-    <mergeCell ref="G94:G100"/>
-    <mergeCell ref="H94:H100"/>
-    <mergeCell ref="I94:I100"/>
-    <mergeCell ref="J94:J100"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="N88:N93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
-    <mergeCell ref="I88:I93"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="L88:L93"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="N75:N79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="K75:K79"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="K54:K58"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K32:K38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="K17:K23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="N101:N105"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="L110:L113"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="N118:N120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Karman Delta Arm/Rocket arming system.xlsx
+++ b/Karman Delta Arm/Rocket arming system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\GitHub\AltiumGithub\Karman Delta Arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\Github projects\plswork\AltiumGithub\Karman Delta Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F633289E-9C5B-44CF-AFFB-96FF704E2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954545D3-F0D5-4CD3-8335-E3A65712DBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53115" yWindow="3615" windowWidth="21600" windowHeight="12645" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
+    <workbookView xWindow="-36930" yWindow="3915" windowWidth="28800" windowHeight="15195" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="391">
   <si>
     <t>Failure Mode</t>
   </si>
@@ -1248,12 +1248,15 @@
   <si>
     <t>Setup rules re domain separation</t>
   </si>
+  <si>
+    <t>Small gap to pass wires through (middle of iso area)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,23 +1641,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1663,96 +1756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2229,7 +2232,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6172200" y="11715750"/>
+          <a:off x="5829300" y="11610975"/>
           <a:ext cx="104775" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="107435" cy="443838"/>
@@ -2331,7 +2334,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6172200" y="21764625"/>
+          <a:off x="5829300" y="21878925"/>
           <a:ext cx="104775" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="107435" cy="443838"/>
@@ -2935,16 +2938,16 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="44.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="55.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="51.25" customWidth="1"/>
+    <col min="8" max="8" width="55.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="15">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2981,7 +2984,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>290</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>332</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>331</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>333</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>334</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>336</v>
       </c>
@@ -3131,12 +3134,12 @@
       </c>
       <c r="H15" s="45"/>
     </row>
-    <row r="17" spans="2:9" ht="15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="42.75">
+    <row r="18" spans="2:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>304</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="28.5">
+    <row r="19" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="28.5">
+    <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="28.5">
+    <row r="21" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -3183,17 +3186,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="28.5">
+    <row r="24" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>340</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="28.5">
+    <row r="25" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>293</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="57">
+    <row r="26" spans="2:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>294</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="28.5">
+    <row r="27" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>351</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="28.5">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>344</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="28.5">
+    <row r="29" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>346</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="28.5">
+    <row r="30" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>302</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="71.25">
+    <row r="31" spans="2:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>347</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="28.5">
+    <row r="32" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>353</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="28.5">
+    <row r="33" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>303</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>306</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="28.5">
+    <row r="35" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>354</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="28.5">
+    <row r="36" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>326</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="28.5">
+    <row r="37" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>327</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>328</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="28.5">
+    <row r="39" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>338</v>
       </c>
@@ -3336,17 +3339,17 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" s="44" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43" s="44" t="s">
         <v>311</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="44" t="s">
         <v>313</v>
       </c>
@@ -3362,12 +3365,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="44" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="44" t="s">
         <v>350</v>
       </c>
@@ -3375,29 +3378,29 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" s="44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="44"/>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" s="44"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" s="44"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="44"/>
     </row>
-    <row r="52" spans="2:3" ht="15">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="28.5">
+    <row r="53" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -3419,16 +3422,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="15">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>248</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>274</v>
       </c>
@@ -3478,102 +3481,102 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -3591,25 +3594,25 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="1.125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="29.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.1328125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="29.3984375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.265625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="28.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.86328125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="42.75">
+    <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.5">
+    <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="42.75">
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3810,12 +3813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="28.5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
         <v>357</v>
       </c>
@@ -3823,22 +3826,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="28.5">
+    <row r="22" spans="4:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
         <v>358</v>
       </c>
@@ -3846,17 +3849,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
         <v>361</v>
       </c>
@@ -3874,7 +3877,7 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3883,21 +3886,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E11162-B732-4DE9-8322-FD8094AB6283}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.46484375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3924,12 +3927,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -3945,17 +3948,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -3963,18 +3966,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
@@ -3998,22 +4001,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>258</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -4029,37 +4032,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>367</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>368</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>369</v>
       </c>
@@ -4083,69 +4086,74 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4161,7 +4169,7 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4175,15 +4183,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" customWidth="1"/>
+    <col min="3" max="3" width="48.265625" customWidth="1"/>
+    <col min="4" max="4" width="58.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -4210,17 +4218,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4242,7 +4250,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -4259,7 +4267,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4268,12 +4276,12 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -4297,7 +4305,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -4319,41 +4327,41 @@
       <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="6" max="6" width="9" style="30"/>
-    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15" thickBot="1"/>
-    <row r="3" spans="2:16" ht="15" thickBot="1">
-      <c r="B3" s="76" t="s">
+    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="83" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="78"/>
-    </row>
-    <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1">
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="27" t="s">
         <v>226</v>
       </c>
@@ -4375,10 +4383,10 @@
       <c r="H4" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="82"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="11" t="s">
         <v>81</v>
       </c>
@@ -4389,129 +4397,129 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickTop="1">
-      <c r="B5" s="62">
+    <row r="5" spans="2:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="50">
         <v>2</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="50">
         <v>2</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="50">
         <v>2</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="52">
         <v>2</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="50">
         <v>2</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="58" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="61" t="s">
+      <c r="L5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>85</v>
       </c>
       <c r="P5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1">
+    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
-      <c r="F6" s="60"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="15" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="49">
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="60">
         <v>3</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="60">
         <v>2</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="60">
         <v>3</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="60">
         <v>3</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="61">
         <v>3</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="60">
         <v>3</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="62" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="46" t="s">
+      <c r="L7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="68" t="s">
         <v>91</v>
       </c>
       <c r="P7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="24.75" thickBot="1">
+    <row r="8" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="60"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-    </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1">
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+    </row>
+    <row r="9" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="17">
         <v>4</v>
       </c>
@@ -4552,7 +4560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1">
+    <row r="10" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="17">
         <v>10</v>
       </c>
@@ -4593,38 +4601,38 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="24">
-      <c r="B11" s="49">
+    <row r="11" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B11" s="60">
         <v>5</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="60">
         <v>5</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="60">
         <v>6</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="60">
         <v>6</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="61">
         <v>6</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="60">
         <v>6</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="29" t="s">
@@ -4637,18 +4645,18 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="24">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="47"/>
+    <row r="12" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="14" t="s">
         <v>104</v>
       </c>
@@ -4656,18 +4664,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="24">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="47"/>
+    <row r="13" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="14" t="s">
         <v>105</v>
       </c>
@@ -4675,18 +4683,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="36">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="47"/>
+    <row r="14" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="14" t="s">
         <v>106</v>
       </c>
@@ -4694,72 +4702,72 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="24">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="47"/>
+    <row r="15" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="29" t="s">
         <v>107</v>
       </c>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="2:16" ht="24.75" thickBot="1">
+    <row r="16" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="60"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="51"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="21" t="s">
         <v>108</v>
       </c>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="2:16" ht="24">
-      <c r="B17" s="49">
+    <row r="17" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B17" s="60">
         <v>6</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="60">
         <v>6</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="60">
         <v>7</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="60">
         <v>7</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="61">
         <v>7</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="60">
         <v>7</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="23" t="s">
@@ -4769,18 +4777,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="24">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="47"/>
+    <row r="18" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="23" t="s">
         <v>116</v>
       </c>
@@ -4788,123 +4796,123 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="47"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:16" ht="24">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="47"/>
+    <row r="20" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="23" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="2:16" ht="24">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="47"/>
+    <row r="21" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:16" ht="24">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="47"/>
+    <row r="22" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="14" t="s">
         <v>120</v>
       </c>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:16" ht="24.75" thickBot="1">
+    <row r="23" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="60"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="48"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="48"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="40" t="s">
         <v>121</v>
       </c>
       <c r="N23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="36">
-      <c r="B24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="49">
+    <row r="24" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="B24" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="60">
         <v>8</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="60">
         <v>8</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="61">
         <v>8</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="60">
         <v>8</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M24" s="14" t="s">
@@ -4914,18 +4922,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="24">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="47"/>
+    <row r="25" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="29" t="s">
         <v>125</v>
       </c>
@@ -4936,18 +4944,18 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="24">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="47"/>
+    <row r="26" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="14" t="s">
         <v>126</v>
       </c>
@@ -4955,18 +4963,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+    <row r="27" spans="2:16" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="60"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="48"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="48"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="19" t="s">
         <v>127</v>
       </c>
@@ -4974,38 +4982,38 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="24">
-      <c r="B28" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="49">
+    <row r="28" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B28" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="60">
         <v>9</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="60">
         <v>9</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="61">
         <v>9</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="60">
         <v>9</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M28" s="14" t="s">
@@ -5015,18 +5023,18 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="47"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="70"/>
       <c r="M29" s="14" t="s">
         <v>135</v>
       </c>
@@ -5034,72 +5042,72 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="24">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="47"/>
+    <row r="30" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="29" t="s">
         <v>103</v>
       </c>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+    <row r="31" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="60"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="48"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="48"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="40" t="s">
         <v>136</v>
       </c>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="2:16" ht="24">
-      <c r="B32" s="49">
+    <row r="32" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B32" s="60">
         <v>7</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="60">
         <v>7</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="60">
         <v>10</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="60">
         <v>10</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="61">
         <v>10</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="60">
         <v>10</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="J32" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="L32" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M32" s="14" t="s">
@@ -5109,18 +5117,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="24">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="47"/>
+    <row r="33" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="14" t="s">
         <v>104</v>
       </c>
@@ -5128,18 +5136,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="36">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="47"/>
+    <row r="34" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
       <c r="M34" s="14" t="s">
         <v>140</v>
       </c>
@@ -5150,106 +5158,106 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="24">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="47"/>
+    <row r="35" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
       <c r="M35" s="23" t="s">
         <v>141</v>
       </c>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="47"/>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
       <c r="M36" s="14" t="s">
         <v>142</v>
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="2:16" ht="24">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="47"/>
+    <row r="37" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="37" t="s">
         <v>126</v>
       </c>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="2:16" ht="24.75" thickBot="1">
+    <row r="38" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="60"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="51"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="48"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="51"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="48"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="57"/>
       <c r="M38" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="2:16" ht="24.75" thickTop="1">
-      <c r="B39" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="62">
+    <row r="39" spans="2:16" ht="23.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="50">
         <v>8</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="50">
         <v>11</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="50">
         <v>11</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="52">
         <v>11</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="50">
         <v>11</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="62" t="s">
+      <c r="J39" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="L39" s="56" t="s">
         <v>88</v>
       </c>
       <c r="M39" s="14" t="s">
@@ -5259,18 +5267,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="24">
-      <c r="B40" s="47"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="47"/>
+    <row r="40" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B40" s="70"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="14" t="s">
         <v>116</v>
       </c>
@@ -5278,18 +5286,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="47"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="47"/>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B41" s="70"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
       <c r="M41" s="14" t="s">
         <v>142</v>
       </c>
@@ -5300,205 +5308,205 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="15" thickBot="1">
-      <c r="B42" s="48"/>
+    <row r="42" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="57"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
-      <c r="F42" s="60"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="48"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="48"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="57"/>
       <c r="M42" s="19" t="s">
         <v>147</v>
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="49">
+    <row r="43" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B43" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="60">
         <v>9</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="60">
         <v>12</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="60">
         <v>12</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="61">
         <v>12</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="60">
         <v>12</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="49" t="s">
+      <c r="J43" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N43" s="70" t="s">
+      <c r="N43" s="74" t="s">
         <v>154</v>
       </c>
       <c r="P43" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="24">
-      <c r="B44" s="47"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="47"/>
+    <row r="44" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B44" s="70"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="70"/>
       <c r="M44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="65"/>
-    </row>
-    <row r="45" spans="2:16" ht="24">
-      <c r="B45" s="47"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="47"/>
+      <c r="N44" s="75"/>
+    </row>
+    <row r="45" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B45" s="70"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="70"/>
       <c r="M45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N45" s="65"/>
-    </row>
-    <row r="46" spans="2:16" ht="24">
-      <c r="B46" s="47"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="47"/>
+      <c r="N45" s="75"/>
+    </row>
+    <row r="46" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B46" s="70"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="70"/>
       <c r="M46" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N46" s="65"/>
-    </row>
-    <row r="47" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B47" s="48"/>
+      <c r="N46" s="75"/>
+    </row>
+    <row r="47" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="57"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
       <c r="E47" s="51"/>
-      <c r="F47" s="60"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="51"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="48"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="48"/>
+      <c r="L47" s="57"/>
       <c r="M47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="66"/>
-    </row>
-    <row r="48" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B48" s="49">
+      <c r="N47" s="76"/>
+    </row>
+    <row r="48" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="60">
         <v>8</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="60">
         <v>10</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="60">
         <v>13</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="60">
         <v>13</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="61">
         <v>13</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="60">
         <v>13</v>
       </c>
-      <c r="H48" s="55" t="s">
+      <c r="H48" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="J48" s="49" t="s">
+      <c r="J48" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K48" s="49" t="s">
+      <c r="K48" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M48" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N48" s="46" t="s">
+      <c r="N48" s="68" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="24">
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="47"/>
+    <row r="49" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="70"/>
       <c r="M49" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N49" s="47"/>
-    </row>
-    <row r="50" spans="2:16" ht="24">
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="47"/>
+      <c r="N49" s="70"/>
+    </row>
+    <row r="50" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="70"/>
       <c r="M50" s="14" t="s">
         <v>159</v>
       </c>
@@ -5509,89 +5517,89 @@
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="24">
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="47"/>
+    <row r="51" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="70"/>
       <c r="M51" s="14" t="s">
         <v>120</v>
       </c>
       <c r="N51" s="26"/>
     </row>
-    <row r="52" spans="2:16" ht="24">
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="47"/>
+    <row r="52" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="70"/>
       <c r="M52" s="14" t="s">
         <v>115</v>
       </c>
       <c r="N52" s="26"/>
     </row>
-    <row r="53" spans="2:16" ht="24.75" thickBot="1">
+    <row r="53" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="60"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="51"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="48"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="57"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="48"/>
+      <c r="L53" s="57"/>
       <c r="M53" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N53" s="24"/>
     </row>
-    <row r="54" spans="2:16" ht="24">
-      <c r="B54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="49">
+    <row r="54" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="60">
         <v>14</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="61">
         <v>14</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="60">
         <v>14</v>
       </c>
-      <c r="H54" s="55" t="s">
+      <c r="H54" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="I54" s="70" t="s">
+      <c r="I54" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="J54" s="49" t="s">
+      <c r="J54" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K54" s="49" t="s">
+      <c r="K54" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="46" t="s">
+      <c r="L54" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M54" s="14" t="s">
@@ -5604,18 +5612,18 @@
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="47"/>
+    <row r="55" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="70"/>
       <c r="M55" s="14" t="s">
         <v>151</v>
       </c>
@@ -5623,89 +5631,89 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="47"/>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="70"/>
       <c r="M56" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N56" s="22"/>
     </row>
-    <row r="57" spans="2:16" ht="24">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="47"/>
+    <row r="57" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="70"/>
       <c r="M57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N57" s="22"/>
     </row>
-    <row r="58" spans="2:16" ht="15" thickBot="1">
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
+    <row r="58" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="51"/>
-      <c r="F58" s="60"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="51"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="66"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
-      <c r="L58" s="48"/>
+      <c r="L58" s="57"/>
       <c r="M58" s="19" t="s">
         <v>162</v>
       </c>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="2:16" ht="24">
-      <c r="B59" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="49">
+    <row r="59" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B59" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="60">
         <v>11</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="60">
         <v>14</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="60">
         <v>15</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="61">
         <v>15</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="60">
         <v>15</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="70" t="s">
+      <c r="I59" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="J59" s="49" t="s">
+      <c r="J59" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K59" s="49" t="s">
+      <c r="K59" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L59" s="46" t="s">
+      <c r="L59" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M59" s="14" t="s">
@@ -5718,18 +5726,18 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="47"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="47"/>
+    <row r="60" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B60" s="70"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="70"/>
       <c r="M60" s="14" t="s">
         <v>157</v>
       </c>
@@ -5737,58 +5745,58 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="24">
-      <c r="B61" s="47"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="47"/>
+    <row r="61" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B61" s="70"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="70"/>
       <c r="M61" s="14" t="s">
         <v>104</v>
       </c>
       <c r="N61" s="22"/>
     </row>
-    <row r="62" spans="2:16" ht="24">
-      <c r="B62" s="47"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="47"/>
+    <row r="62" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B62" s="70"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="70"/>
       <c r="M62" s="13" t="s">
         <v>167</v>
       </c>
       <c r="N62" s="22"/>
     </row>
-    <row r="63" spans="2:16" ht="15" thickBot="1">
-      <c r="B63" s="48"/>
+    <row r="63" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="57"/>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
-      <c r="F63" s="60"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="51"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="51"/>
       <c r="K63" s="51"/>
-      <c r="L63" s="48"/>
+      <c r="L63" s="57"/>
       <c r="M63" s="19" t="s">
         <v>168</v>
       </c>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="2:16" ht="24.75" thickBot="1">
+    <row r="64" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="24" t="s">
         <v>88</v>
       </c>
@@ -5829,7 +5837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="15" thickBot="1">
+    <row r="65" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="17">
         <v>9</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="15" thickBot="1">
+    <row r="66" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B66" s="17">
         <v>10</v>
       </c>
@@ -5911,946 +5919,946 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="36">
-      <c r="B67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="49">
+    <row r="67" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="B67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="60">
         <v>18</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F67" s="61">
         <v>18</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G67" s="60">
         <v>18</v>
       </c>
-      <c r="H67" s="55" t="s">
+      <c r="H67" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I67" s="70" t="s">
+      <c r="I67" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="J67" s="49" t="s">
+      <c r="J67" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K67" s="49" t="s">
+      <c r="K67" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L67" s="46" t="s">
+      <c r="L67" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="46" t="s">
+      <c r="N67" s="68" t="s">
         <v>88</v>
       </c>
       <c r="P67" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="24">
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="47"/>
+    <row r="68" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="70"/>
       <c r="M68" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="47"/>
-    </row>
-    <row r="69" spans="2:16" ht="24">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="47"/>
+      <c r="N68" s="70"/>
+    </row>
+    <row r="69" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="70"/>
       <c r="M69" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="N69" s="47"/>
-    </row>
-    <row r="70" spans="2:16" ht="15" thickBot="1">
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
+      <c r="N69" s="70"/>
+    </row>
+    <row r="70" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="51"/>
-      <c r="F70" s="60"/>
+      <c r="F70" s="53"/>
       <c r="G70" s="51"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="66"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="51"/>
       <c r="K70" s="51"/>
-      <c r="L70" s="48"/>
+      <c r="L70" s="57"/>
       <c r="M70" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N70" s="48"/>
-    </row>
-    <row r="71" spans="2:16" ht="24">
-      <c r="B71" s="49">
+      <c r="N70" s="57"/>
+    </row>
+    <row r="71" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B71" s="60">
         <v>11</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="60">
         <v>14</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="60">
         <v>17</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="60">
         <v>19</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="61">
         <v>19</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71" s="60">
         <v>19</v>
       </c>
-      <c r="H71" s="55" t="s">
+      <c r="H71" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="I71" s="46" t="s">
+      <c r="I71" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="J71" s="49" t="s">
+      <c r="J71" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="49" t="s">
+      <c r="K71" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="46" t="s">
+      <c r="L71" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="N71" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="24">
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="47"/>
+      <c r="N71" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="70"/>
       <c r="M72" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N72" s="47"/>
-    </row>
-    <row r="73" spans="2:16" ht="24">
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="47"/>
+      <c r="N72" s="70"/>
+    </row>
+    <row r="73" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="70"/>
       <c r="M73" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="47"/>
-    </row>
-    <row r="74" spans="2:16" ht="48.75" thickBot="1">
+      <c r="N73" s="70"/>
+    </row>
+    <row r="74" spans="2:16" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="E74" s="51"/>
-      <c r="F74" s="60"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="51"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="48"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="57"/>
       <c r="J74" s="51"/>
       <c r="K74" s="51"/>
-      <c r="L74" s="48"/>
+      <c r="L74" s="57"/>
       <c r="M74" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N74" s="48"/>
-    </row>
-    <row r="75" spans="2:16" ht="36.75" thickTop="1">
-      <c r="B75" s="62">
+      <c r="N74" s="57"/>
+    </row>
+    <row r="75" spans="2:16" ht="35.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="50">
         <v>12</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="50">
         <v>15</v>
       </c>
-      <c r="D75" s="62">
+      <c r="D75" s="50">
         <v>18</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="50">
         <v>20</v>
       </c>
-      <c r="F75" s="63">
+      <c r="F75" s="52">
         <v>20</v>
       </c>
-      <c r="G75" s="62">
+      <c r="G75" s="50">
         <v>20</v>
       </c>
-      <c r="H75" s="71" t="s">
+      <c r="H75" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="61" t="s">
+      <c r="I75" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="J75" s="62" t="s">
+      <c r="J75" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K75" s="62" t="s">
+      <c r="K75" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="72">
+      <c r="L75" s="77">
         <v>-7</v>
       </c>
       <c r="M75" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="N75" s="61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="24">
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="68"/>
+      <c r="N75" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="78"/>
       <c r="M76" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N76" s="47"/>
-    </row>
-    <row r="77" spans="2:16" ht="24">
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="68"/>
+      <c r="N76" s="70"/>
+    </row>
+    <row r="77" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="78"/>
       <c r="M77" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="N77" s="47"/>
-    </row>
-    <row r="78" spans="2:16">
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="68"/>
+      <c r="N77" s="70"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="78"/>
       <c r="M78" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N78" s="47"/>
-    </row>
-    <row r="79" spans="2:16" ht="24.75" thickBot="1">
+      <c r="N78" s="70"/>
+    </row>
+    <row r="79" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="51"/>
       <c r="E79" s="51"/>
-      <c r="F79" s="60"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="51"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="48"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="57"/>
       <c r="J79" s="51"/>
       <c r="K79" s="51"/>
-      <c r="L79" s="69"/>
+      <c r="L79" s="79"/>
       <c r="M79" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N79" s="48"/>
-    </row>
-    <row r="80" spans="2:16">
-      <c r="B80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="58">
+      <c r="N79" s="57"/>
+    </row>
+    <row r="80" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="61">
         <v>21</v>
       </c>
-      <c r="G80" s="49">
+      <c r="G80" s="60">
         <v>21</v>
       </c>
-      <c r="H80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="46" t="s">
+      <c r="H80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="J80" s="49" t="s">
+      <c r="J80" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K80" s="49" t="s">
+      <c r="K80" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L80" s="46" t="s">
+      <c r="L80" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M80" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N80" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" ht="48">
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="47"/>
+      <c r="N80" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="70"/>
       <c r="M81" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="N81" s="47"/>
-    </row>
-    <row r="82" spans="2:19" ht="24">
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="47"/>
+      <c r="N81" s="70"/>
+    </row>
+    <row r="82" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="70"/>
       <c r="M82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N82" s="47"/>
-    </row>
-    <row r="83" spans="2:19" ht="48.75" thickBot="1">
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="60"/>
+      <c r="N82" s="70"/>
+    </row>
+    <row r="83" spans="2:19" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="53"/>
       <c r="G83" s="51"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
       <c r="J83" s="51"/>
       <c r="K83" s="51"/>
-      <c r="L83" s="48"/>
+      <c r="L83" s="57"/>
       <c r="M83" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N83" s="48"/>
-    </row>
-    <row r="84" spans="2:19">
-      <c r="B84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="58">
+      <c r="N83" s="57"/>
+    </row>
+    <row r="84" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="61">
         <v>22</v>
       </c>
-      <c r="G84" s="49">
+      <c r="G84" s="60">
         <v>22</v>
       </c>
-      <c r="H84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="46" t="s">
+      <c r="H84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="J84" s="49" t="s">
+      <c r="J84" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K84" s="49" t="s">
+      <c r="K84" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L84" s="46" t="s">
+      <c r="L84" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N84" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" ht="24">
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="47"/>
+      <c r="N84" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="70"/>
       <c r="M85" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N85" s="47"/>
-    </row>
-    <row r="86" spans="2:19" ht="24">
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="47"/>
+      <c r="N85" s="70"/>
+    </row>
+    <row r="86" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="70"/>
       <c r="M86" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N86" s="47"/>
+      <c r="N86" s="70"/>
       <c r="S86" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="2:19" ht="24.75" thickBot="1">
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="60"/>
+    <row r="87" spans="2:19" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="51"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
       <c r="J87" s="51"/>
       <c r="K87" s="51"/>
-      <c r="L87" s="48"/>
+      <c r="L87" s="57"/>
       <c r="M87" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="N87" s="48"/>
-    </row>
-    <row r="88" spans="2:19">
-      <c r="B88" s="49">
+      <c r="N87" s="57"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B88" s="60">
         <v>13</v>
       </c>
-      <c r="C88" s="49">
+      <c r="C88" s="60">
         <v>16</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="60">
         <v>19</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="60">
         <v>21</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="61">
         <v>23</v>
       </c>
-      <c r="G88" s="49">
+      <c r="G88" s="60">
         <v>23</v>
       </c>
-      <c r="H88" s="55" t="s">
+      <c r="H88" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="I88" s="46" t="s">
+      <c r="I88" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J88" s="49" t="s">
+      <c r="J88" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K88" s="49" t="s">
+      <c r="K88" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="46" t="s">
+      <c r="L88" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M88" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="N88" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" ht="24">
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="47"/>
+      <c r="N88" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="70"/>
       <c r="M89" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N89" s="47"/>
-    </row>
-    <row r="90" spans="2:19">
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="47"/>
+      <c r="N89" s="70"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="70"/>
       <c r="M90" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N90" s="47"/>
-    </row>
-    <row r="91" spans="2:19">
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="47"/>
+      <c r="N90" s="70"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="70"/>
       <c r="M91" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N91" s="47"/>
-    </row>
-    <row r="92" spans="2:19" ht="24">
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="47"/>
+      <c r="N91" s="70"/>
+    </row>
+    <row r="92" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="70"/>
       <c r="M92" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="N92" s="47"/>
-    </row>
-    <row r="93" spans="2:19" ht="24.75" thickBot="1">
+      <c r="N92" s="70"/>
+    </row>
+    <row r="93" spans="2:19" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
       <c r="D93" s="51"/>
       <c r="E93" s="51"/>
-      <c r="F93" s="60"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="51"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="48"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="57"/>
       <c r="J93" s="51"/>
       <c r="K93" s="51"/>
-      <c r="L93" s="48"/>
+      <c r="L93" s="57"/>
       <c r="M93" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N93" s="48"/>
-    </row>
-    <row r="94" spans="2:19">
-      <c r="B94" s="49">
+      <c r="N93" s="57"/>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B94" s="60">
         <v>14</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="60">
         <v>17</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="60">
         <v>20</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="60">
         <v>22</v>
       </c>
-      <c r="F94" s="58">
+      <c r="F94" s="61">
         <v>24</v>
       </c>
-      <c r="G94" s="49">
+      <c r="G94" s="60">
         <v>24</v>
       </c>
-      <c r="H94" s="55" t="s">
+      <c r="H94" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="46" t="s">
+      <c r="I94" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="J94" s="49" t="s">
+      <c r="J94" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K94" s="49" t="s">
+      <c r="K94" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L94" s="67">
+      <c r="L94" s="80">
         <v>-7</v>
       </c>
       <c r="M94" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="N94" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" ht="24">
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="68"/>
+      <c r="N94" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="70"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="78"/>
       <c r="M95" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N95" s="47"/>
-    </row>
-    <row r="96" spans="2:19" ht="24">
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="68"/>
+      <c r="N95" s="70"/>
+    </row>
+    <row r="96" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="78"/>
       <c r="M96" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N96" s="47"/>
-    </row>
-    <row r="97" spans="2:16" ht="24">
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="68"/>
+      <c r="N96" s="70"/>
+    </row>
+    <row r="97" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="78"/>
       <c r="M97" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="N97" s="47"/>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="68"/>
+      <c r="N97" s="70"/>
+    </row>
+    <row r="98" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="78"/>
       <c r="M98" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N98" s="47"/>
-    </row>
-    <row r="99" spans="2:16" ht="24">
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="68"/>
+      <c r="N98" s="70"/>
+    </row>
+    <row r="99" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="78"/>
       <c r="M99" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="N99" s="47"/>
-    </row>
-    <row r="100" spans="2:16" ht="24.75" thickBot="1">
+      <c r="N99" s="70"/>
+    </row>
+    <row r="100" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
       <c r="D100" s="51"/>
       <c r="E100" s="51"/>
-      <c r="F100" s="60"/>
+      <c r="F100" s="53"/>
       <c r="G100" s="51"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="48"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="57"/>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
-      <c r="L100" s="69"/>
+      <c r="L100" s="79"/>
       <c r="M100" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="N100" s="48"/>
-    </row>
-    <row r="101" spans="2:16">
-      <c r="B101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E101" s="49">
+      <c r="N100" s="57"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="60">
         <v>23</v>
       </c>
-      <c r="F101" s="58">
+      <c r="F101" s="61">
         <v>25</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G101" s="60">
         <v>25</v>
       </c>
-      <c r="H101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I101" s="46" t="s">
+      <c r="H101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="J101" s="49" t="s">
+      <c r="J101" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K101" s="49" t="s">
+      <c r="K101" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L101" s="46" t="s">
+      <c r="L101" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M101" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="N101" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16">
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="47"/>
+      <c r="N101" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="70"/>
       <c r="M102" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N102" s="47"/>
-    </row>
-    <row r="103" spans="2:16" ht="24">
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="47"/>
+      <c r="N102" s="70"/>
+    </row>
+    <row r="103" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="70"/>
       <c r="M103" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N103" s="47"/>
-    </row>
-    <row r="104" spans="2:16" ht="24">
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="47"/>
+      <c r="N103" s="70"/>
+    </row>
+    <row r="104" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="70"/>
       <c r="M104" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N104" s="47"/>
-    </row>
-    <row r="105" spans="2:16" ht="15" thickBot="1">
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
+      <c r="N104" s="70"/>
+    </row>
+    <row r="105" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
       <c r="E105" s="51"/>
-      <c r="F105" s="60"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="51"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
-      <c r="L105" s="48"/>
+      <c r="L105" s="57"/>
       <c r="M105" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N105" s="48"/>
-    </row>
-    <row r="106" spans="2:16">
-      <c r="B106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="49">
+      <c r="N105" s="57"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="60">
         <v>24</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="61">
         <v>26</v>
       </c>
-      <c r="G106" s="49">
+      <c r="G106" s="60">
         <v>26</v>
       </c>
-      <c r="H106" s="55" t="s">
+      <c r="H106" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="I106" s="70" t="s">
+      <c r="I106" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="J106" s="49" t="s">
+      <c r="J106" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K106" s="49" t="s">
+      <c r="K106" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L106" s="46" t="s">
+      <c r="L106" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M106" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N106" s="46" t="s">
+      <c r="N106" s="68" t="s">
         <v>203</v>
       </c>
       <c r="P106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="107" spans="2:16">
-      <c r="B107" s="47"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="50"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="47"/>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="70"/>
       <c r="M107" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="N107" s="47"/>
-    </row>
-    <row r="108" spans="2:16" ht="15" thickBot="1">
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
+      <c r="N107" s="70"/>
+    </row>
+    <row r="108" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="51"/>
-      <c r="F108" s="60"/>
+      <c r="F108" s="53"/>
       <c r="G108" s="51"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="66"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="76"/>
       <c r="J108" s="51"/>
       <c r="K108" s="51"/>
-      <c r="L108" s="48"/>
+      <c r="L108" s="57"/>
       <c r="M108" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="N108" s="48"/>
-    </row>
-    <row r="109" spans="2:16" ht="24.75" thickBot="1">
+      <c r="N108" s="57"/>
+    </row>
+    <row r="109" spans="2:16" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B109" s="24" t="s">
         <v>88</v>
       </c>
@@ -6894,269 +6902,269 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="2:16" ht="15" thickTop="1">
-      <c r="B110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="62">
+    <row r="110" spans="2:16" ht="23.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="50">
         <v>26</v>
       </c>
-      <c r="F110" s="63">
+      <c r="F110" s="52">
         <v>28</v>
       </c>
-      <c r="G110" s="62">
+      <c r="G110" s="50">
         <v>28</v>
       </c>
-      <c r="H110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I110" s="64" t="s">
+      <c r="H110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I110" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="J110" s="62" t="s">
+      <c r="J110" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K110" s="62" t="s">
+      <c r="K110" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L110" s="61" t="s">
+      <c r="L110" s="56" t="s">
         <v>88</v>
       </c>
       <c r="M110" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N110" s="61" t="s">
+      <c r="N110" s="56" t="s">
         <v>206</v>
       </c>
       <c r="P110" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="2:16" ht="24">
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="47"/>
+    <row r="111" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="70"/>
       <c r="M111" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N111" s="47"/>
-    </row>
-    <row r="112" spans="2:16" ht="24">
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="47"/>
+      <c r="N111" s="70"/>
+    </row>
+    <row r="112" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="70"/>
       <c r="M112" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N112" s="47"/>
-    </row>
-    <row r="113" spans="2:14" ht="15" thickBot="1">
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
+      <c r="N112" s="70"/>
+    </row>
+    <row r="113" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="51"/>
-      <c r="F113" s="60"/>
+      <c r="F113" s="53"/>
       <c r="G113" s="51"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="66"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="76"/>
       <c r="J113" s="51"/>
       <c r="K113" s="51"/>
-      <c r="L113" s="48"/>
+      <c r="L113" s="57"/>
       <c r="M113" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="N113" s="48"/>
-    </row>
-    <row r="114" spans="2:14" ht="36">
-      <c r="B114" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="49">
+      <c r="N113" s="57"/>
+    </row>
+    <row r="114" spans="2:14" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="B114" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="60">
         <v>18</v>
       </c>
-      <c r="D114" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E114" s="49">
+      <c r="D114" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="60">
         <v>27</v>
       </c>
-      <c r="F114" s="58">
+      <c r="F114" s="61">
         <v>29</v>
       </c>
-      <c r="G114" s="49">
+      <c r="G114" s="60">
         <v>29</v>
       </c>
-      <c r="H114" s="55" t="s">
+      <c r="H114" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="I114" s="46" t="s">
+      <c r="I114" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="J114" s="49" t="s">
+      <c r="J114" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K114" s="49" t="s">
+      <c r="K114" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L114" s="46" t="s">
+      <c r="L114" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M114" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="N114" s="46" t="s">
+      <c r="N114" s="68" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="24">
-      <c r="B115" s="47"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="50"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="47"/>
-      <c r="J115" s="50"/>
-      <c r="K115" s="50"/>
-      <c r="L115" s="47"/>
+    <row r="115" spans="2:14" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B115" s="70"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="70"/>
       <c r="M115" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N115" s="47"/>
-    </row>
-    <row r="116" spans="2:14">
-      <c r="B116" s="47"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="47"/>
+      <c r="N115" s="70"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B116" s="70"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="70"/>
       <c r="M116" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N116" s="47"/>
-    </row>
-    <row r="117" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B117" s="48"/>
+      <c r="N116" s="70"/>
+    </row>
+    <row r="117" spans="2:14" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B117" s="57"/>
       <c r="C117" s="51"/>
-      <c r="D117" s="48"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="51"/>
-      <c r="F117" s="60"/>
+      <c r="F117" s="53"/>
       <c r="G117" s="51"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="48"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="57"/>
       <c r="J117" s="51"/>
       <c r="K117" s="51"/>
-      <c r="L117" s="48"/>
+      <c r="L117" s="57"/>
       <c r="M117" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="N117" s="48"/>
-    </row>
-    <row r="118" spans="2:14" ht="36">
-      <c r="B118" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="49">
+      <c r="N117" s="57"/>
+    </row>
+    <row r="118" spans="2:14" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="B118" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="60">
         <v>19</v>
       </c>
-      <c r="D118" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118" s="49">
+      <c r="D118" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="60">
         <v>28</v>
       </c>
-      <c r="F118" s="58">
+      <c r="F118" s="61">
         <v>30</v>
       </c>
-      <c r="G118" s="49">
+      <c r="G118" s="60">
         <v>30</v>
       </c>
-      <c r="H118" s="55" t="s">
+      <c r="H118" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="I118" s="46" t="s">
+      <c r="I118" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="J118" s="49" t="s">
+      <c r="J118" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K118" s="49" t="s">
+      <c r="K118" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L118" s="46" t="s">
+      <c r="L118" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M118" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="N118" s="46" t="s">
+      <c r="N118" s="68" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="36">
-      <c r="B119" s="47"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="47"/>
+    <row r="119" spans="2:14" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="B119" s="70"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="70"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="66"/>
+      <c r="L119" s="70"/>
       <c r="M119" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="N119" s="47"/>
-    </row>
-    <row r="120" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B120" s="48"/>
+      <c r="N119" s="70"/>
+    </row>
+    <row r="120" spans="2:14" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B120" s="57"/>
       <c r="C120" s="51"/>
-      <c r="D120" s="48"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="51"/>
-      <c r="F120" s="60"/>
+      <c r="F120" s="53"/>
       <c r="G120" s="51"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="48"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="57"/>
       <c r="J120" s="51"/>
       <c r="K120" s="51"/>
-      <c r="L120" s="48"/>
+      <c r="L120" s="57"/>
       <c r="M120" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="N120" s="48"/>
-    </row>
-    <row r="121" spans="2:14" ht="48.75" thickBot="1">
+      <c r="N120" s="57"/>
+    </row>
+    <row r="121" spans="2:14" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B121" s="17">
         <v>1</v>
       </c>
@@ -7197,99 +7205,99 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="24">
-      <c r="B122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F122" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="49">
+    <row r="122" spans="2:14" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" s="60">
         <v>32</v>
       </c>
-      <c r="H122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I122" s="46" t="s">
+      <c r="H122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="J122" s="49" t="s">
+      <c r="J122" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K122" s="49" t="s">
+      <c r="K122" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L122" s="46" t="s">
+      <c r="L122" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M122" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="N122" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" ht="24">
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
-      <c r="L123" s="47"/>
+      <c r="N122" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="70"/>
       <c r="M123" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N123" s="47"/>
-    </row>
-    <row r="124" spans="2:14">
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="50"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="47"/>
+      <c r="N123" s="70"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="66"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="70"/>
       <c r="M124" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="N124" s="47"/>
-    </row>
-    <row r="125" spans="2:14" ht="15" thickBot="1">
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="54"/>
+      <c r="N124" s="70"/>
+    </row>
+    <row r="125" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="84"/>
       <c r="G125" s="51"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
       <c r="J125" s="51"/>
       <c r="K125" s="51"/>
-      <c r="L125" s="48"/>
+      <c r="L125" s="57"/>
       <c r="M125" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="N125" s="48"/>
-    </row>
-    <row r="126" spans="2:14" ht="15" thickBot="1">
+      <c r="N125" s="57"/>
+    </row>
+    <row r="126" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B126" s="24" t="s">
         <v>88</v>
       </c>
@@ -7330,7 +7338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="15" thickBot="1">
+    <row r="127" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B127" s="24" t="s">
         <v>88</v>
       </c>
@@ -7373,32 +7381,254 @@
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="N118:N120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="N101:N105"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="L110:L113"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="K94:K100"/>
+    <mergeCell ref="L94:L100"/>
+    <mergeCell ref="N94:N100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="H101:H105"/>
+    <mergeCell ref="N106:N108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I94:I100"/>
+    <mergeCell ref="J94:J100"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="N88:N93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="I88:I93"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="L88:L93"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="N75:N79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B17:B23"/>
     <mergeCell ref="C17:C23"/>
     <mergeCell ref="D17:D23"/>
     <mergeCell ref="E17:E23"/>
@@ -7423,254 +7653,32 @@
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="K11:K16"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K32:K38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="K54:K58"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="N75:N79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="K75:K79"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="N88:N93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
-    <mergeCell ref="I88:I93"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="L88:L93"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="E94:E100"/>
-    <mergeCell ref="F94:F100"/>
-    <mergeCell ref="G94:G100"/>
-    <mergeCell ref="H94:H100"/>
-    <mergeCell ref="I94:I100"/>
-    <mergeCell ref="J94:J100"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="K94:K100"/>
-    <mergeCell ref="L94:L100"/>
-    <mergeCell ref="N94:N100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="E101:E105"/>
-    <mergeCell ref="F101:F105"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="H101:H105"/>
-    <mergeCell ref="N106:N108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
-    <mergeCell ref="L106:L108"/>
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="N101:N105"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="L110:L113"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:K120"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Karman Delta Arm/Rocket arming system.xlsx
+++ b/Karman Delta Arm/Rocket arming system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\Github projects\plswork\AltiumGithub\Karman Delta Arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\GitHub\AltiumGithub\Karman Delta Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954545D3-F0D5-4CD3-8335-E3A65712DBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF8978-0DAF-4F0A-99E5-B5A1731636B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36930" yWindow="3915" windowWidth="28800" windowHeight="15195" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
+    <workbookView xWindow="0" yWindow="2220" windowWidth="21600" windowHeight="12645" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="397">
   <si>
     <t>Failure Mode</t>
   </si>
@@ -1251,12 +1251,30 @@
   <si>
     <t>Small gap to pass wires through (middle of iso area)</t>
   </si>
+  <si>
+    <t>Tent vias</t>
+  </si>
+  <si>
+    <t>Stitching vias</t>
+  </si>
+  <si>
+    <t>Solder blobs showing as short circuit and not working with copper pour</t>
+  </si>
+  <si>
+    <t>Turn back on rules temporarily disabled</t>
+  </si>
+  <si>
+    <t>Investigate CAN</t>
+  </si>
+  <si>
+    <t>Sort transceiver 3D body shape - currently on layer 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,121 +1659,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2232,7 +2250,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5829300" y="11610975"/>
+          <a:off x="6172200" y="11715750"/>
           <a:ext cx="104775" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="107435" cy="443838"/>
@@ -2334,7 +2352,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5829300" y="21878925"/>
+          <a:off x="6172200" y="21764625"/>
           <a:ext cx="104775" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="107435" cy="443838"/>
@@ -2938,16 +2956,16 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="44.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="55.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="51.265625" customWidth="1"/>
+    <col min="8" max="8" width="55.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -2973,7 +2991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2984,7 +3002,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="57">
       <c r="B4" s="1" t="s">
         <v>290</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3023,7 +3041,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3049,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3074,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3070,7 +3088,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
         <v>332</v>
       </c>
@@ -3078,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
         <v>331</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="B12" s="1" t="s">
         <v>333</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
         <v>334</v>
       </c>
@@ -3102,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
         <v>336</v>
       </c>
@@ -3134,12 +3152,12 @@
       </c>
       <c r="H15" s="45"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="15">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="42.75">
       <c r="B18" s="1" t="s">
         <v>304</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="28.5">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="28.5">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="28.5">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -3186,17 +3204,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="28.5">
       <c r="B24" s="1" t="s">
         <v>340</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="28.5">
       <c r="B25" s="1" t="s">
         <v>293</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="57">
       <c r="B26" s="1" t="s">
         <v>294</v>
       </c>
@@ -3226,7 +3244,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="28.5">
       <c r="B27" s="1" t="s">
         <v>351</v>
       </c>
@@ -3237,7 +3255,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="28.5">
       <c r="B28" s="1" t="s">
         <v>344</v>
       </c>
@@ -3245,7 +3263,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="28.5">
       <c r="B29" s="1" t="s">
         <v>346</v>
       </c>
@@ -3253,7 +3271,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="28.5">
       <c r="B30" s="1" t="s">
         <v>302</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="71.25">
       <c r="B31" s="1" t="s">
         <v>347</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="28.5">
       <c r="B32" s="1" t="s">
         <v>353</v>
       </c>
@@ -3277,7 +3295,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="28.5">
       <c r="B33" s="1" t="s">
         <v>303</v>
       </c>
@@ -3285,7 +3303,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8">
       <c r="B34" s="1" t="s">
         <v>306</v>
       </c>
@@ -3293,7 +3311,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="28.5">
       <c r="B35" s="1" t="s">
         <v>354</v>
       </c>
@@ -3301,7 +3319,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" ht="28.5">
       <c r="B36" s="1" t="s">
         <v>326</v>
       </c>
@@ -3309,7 +3327,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" ht="28.5">
       <c r="B37" s="1" t="s">
         <v>327</v>
       </c>
@@ -3320,7 +3338,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
         <v>328</v>
       </c>
@@ -3328,7 +3346,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" ht="28.5">
       <c r="B39" s="1" t="s">
         <v>338</v>
       </c>
@@ -3339,17 +3357,17 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" ht="15">
       <c r="B41" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8">
       <c r="B42" s="44" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8">
       <c r="B43" s="44" t="s">
         <v>311</v>
       </c>
@@ -3357,7 +3375,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8">
       <c r="B44" s="44" t="s">
         <v>313</v>
       </c>
@@ -3365,12 +3383,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8">
       <c r="B45" s="44" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8">
       <c r="B46" s="44" t="s">
         <v>350</v>
       </c>
@@ -3378,29 +3396,29 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8">
       <c r="B47" s="44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8">
       <c r="B48" s="44"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3">
       <c r="B49" s="44"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3">
       <c r="B50" s="44"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3">
       <c r="B51" s="44"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3" ht="15">
       <c r="B52" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3" ht="28.5">
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -3422,16 +3440,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
         <v>248</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="42" t="s">
         <v>274</v>
       </c>
@@ -3481,102 +3499,102 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="39.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -3594,25 +3612,25 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="35.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="1.1328125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="29.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="29.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="10.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="28.86328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +3672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="42.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="28.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3699,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3723,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="42.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3738,7 +3756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3750,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3759,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3768,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3795,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3804,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3813,12 +3831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5" ht="28.5">
       <c r="D18" s="1" t="s">
         <v>357</v>
       </c>
@@ -3826,22 +3844,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:5">
       <c r="E19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:5">
       <c r="E20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:5">
       <c r="E21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" ht="28.5">
       <c r="D22" s="1" t="s">
         <v>358</v>
       </c>
@@ -3849,17 +3867,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5">
       <c r="D25" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5">
       <c r="D26" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
         <v>361</v>
       </c>
@@ -3877,7 +3895,7 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3886,21 +3904,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E11162-B732-4DE9-8322-FD8094AB6283}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="43.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="53.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3919,7 +3937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3927,12 +3945,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -3940,7 +3961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -3948,17 +3969,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -3966,18 +3990,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -3985,7 +4009,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -3993,7 +4017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
@@ -4001,22 +4025,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>258</v>
       </c>
@@ -4024,7 +4048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -4032,37 +4056,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>367</v>
       </c>
@@ -4070,7 +4097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>368</v>
       </c>
@@ -4078,7 +4105,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>369</v>
       </c>
@@ -4086,74 +4113,113 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" ht="30">
       <c r="A30" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
         <v>390</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="30">
+      <c r="A49" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +4235,7 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4183,15 +4249,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.46484375" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" customWidth="1"/>
-    <col min="3" max="3" width="48.265625" customWidth="1"/>
-    <col min="4" max="4" width="58.46484375" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -4218,17 +4284,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -4239,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4250,7 +4316,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4258,7 +4324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -4267,7 +4333,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4276,12 +4342,12 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -4289,7 +4355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -4297,7 +4363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -4305,7 +4371,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -4327,41 +4393,41 @@
       <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="9" style="30"/>
-    <col min="16" max="16" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="48" t="s">
+    <row r="2" spans="2:16" ht="15" thickBot="1"/>
+    <row r="3" spans="2:16" ht="15" thickBot="1">
+      <c r="B3" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="54" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N3" s="78"/>
+    </row>
+    <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1">
       <c r="B4" s="27" t="s">
         <v>226</v>
       </c>
@@ -4383,10 +4449,10 @@
       <c r="H4" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="47"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="11" t="s">
         <v>81</v>
       </c>
@@ -4397,129 +4463,129 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="50">
+    <row r="5" spans="2:16" ht="15" thickTop="1">
+      <c r="B5" s="62">
         <v>2</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="62">
         <v>1</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="62">
         <v>2</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="62">
         <v>2</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="63">
         <v>2</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="62">
         <v>2</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="71" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="56" t="s">
+      <c r="L5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>85</v>
       </c>
       <c r="P5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:16" ht="15" thickBot="1">
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
-      <c r="F6" s="53"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="15" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="60">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="49">
         <v>3</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="49">
         <v>2</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="49">
         <v>3</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="49">
         <v>3</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="58">
         <v>3</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="49">
         <v>3</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="55" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="60" t="s">
+      <c r="J7" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="L7" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="68" t="s">
+      <c r="L7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>91</v>
       </c>
       <c r="P7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:16" ht="24.75" thickBot="1">
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-    </row>
-    <row r="9" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="B9" s="17">
         <v>4</v>
       </c>
@@ -4560,7 +4626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="B10" s="17">
         <v>10</v>
       </c>
@@ -4601,38 +4667,38 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B11" s="60">
+    <row r="11" spans="2:16" ht="24">
+      <c r="B11" s="49">
         <v>5</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="49">
         <v>5</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="49">
         <v>6</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="49">
         <v>6</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="58">
         <v>6</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="49">
         <v>6</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="29" t="s">
@@ -4645,18 +4711,18 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
+    <row r="12" spans="2:16" ht="24">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="14" t="s">
         <v>104</v>
       </c>
@@ -4664,18 +4730,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
+    <row r="13" spans="2:16" ht="24">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="14" t="s">
         <v>105</v>
       </c>
@@ -4683,18 +4749,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
+    <row r="14" spans="2:16" ht="36">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="14" t="s">
         <v>106</v>
       </c>
@@ -4702,72 +4768,72 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
+    <row r="15" spans="2:16" ht="24">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="29" t="s">
         <v>107</v>
       </c>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:16" ht="24.75" thickBot="1">
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="53"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="51"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="21" t="s">
         <v>108</v>
       </c>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B17" s="60">
+    <row r="17" spans="2:16" ht="24">
+      <c r="B17" s="49">
         <v>6</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="49">
         <v>6</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="49">
         <v>7</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="49">
         <v>7</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="58">
         <v>7</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="49">
         <v>7</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="23" t="s">
@@ -4777,18 +4843,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="70"/>
+    <row r="18" spans="2:16" ht="24">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="23" t="s">
         <v>116</v>
       </c>
@@ -4796,123 +4862,123 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="70"/>
+    <row r="19" spans="2:16">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="70"/>
+    <row r="20" spans="2:16" ht="24">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="23" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="70"/>
+    <row r="21" spans="2:16" ht="24">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="70"/>
+    <row r="22" spans="2:16" ht="24">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="14" t="s">
         <v>120</v>
       </c>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:16" ht="24.75" thickBot="1">
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="53"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="57"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="40" t="s">
         <v>121</v>
       </c>
       <c r="N23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="B24" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="60">
+    <row r="24" spans="2:16" ht="36">
+      <c r="B24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="49">
         <v>8</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="49">
         <v>8</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="58">
         <v>8</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="49">
         <v>8</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="68" t="s">
+      <c r="I24" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="L24" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M24" s="14" t="s">
@@ -4922,18 +4988,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
+    <row r="25" spans="2:16" ht="24">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="29" t="s">
         <v>125</v>
       </c>
@@ -4944,18 +5010,18 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
+    <row r="26" spans="2:16" ht="24">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="14" t="s">
         <v>126</v>
       </c>
@@ -4963,18 +5029,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
+    <row r="27" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="53"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="19" t="s">
         <v>127</v>
       </c>
@@ -4982,38 +5048,38 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B28" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="60">
+    <row r="28" spans="2:16" ht="24">
+      <c r="B28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="49">
         <v>9</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="49">
         <v>9</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="58">
         <v>9</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="49">
         <v>9</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="68" t="s">
+      <c r="L28" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M28" s="14" t="s">
@@ -5023,18 +5089,18 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="70"/>
+    <row r="29" spans="2:16">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="14" t="s">
         <v>135</v>
       </c>
@@ -5042,72 +5108,72 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="70"/>
+    <row r="30" spans="2:16" ht="24">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="29" t="s">
         <v>103</v>
       </c>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+    <row r="31" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="53"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="57"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="40" t="s">
         <v>136</v>
       </c>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B32" s="60">
+    <row r="32" spans="2:16" ht="24">
+      <c r="B32" s="49">
         <v>7</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="49">
         <v>7</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="49">
         <v>10</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="49">
         <v>10</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="58">
         <v>10</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="49">
         <v>10</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="68" t="s">
+      <c r="I32" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M32" s="14" t="s">
@@ -5117,18 +5183,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
+    <row r="33" spans="2:16" ht="24">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="47"/>
       <c r="M33" s="14" t="s">
         <v>104</v>
       </c>
@@ -5136,18 +5202,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
+    <row r="34" spans="2:16" ht="36">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="47"/>
       <c r="M34" s="14" t="s">
         <v>140</v>
       </c>
@@ -5158,106 +5224,106 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
+    <row r="35" spans="2:16" ht="24">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="47"/>
       <c r="M35" s="23" t="s">
         <v>141</v>
       </c>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
+    <row r="36" spans="2:16">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="47"/>
       <c r="M36" s="14" t="s">
         <v>142</v>
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
+    <row r="37" spans="2:16" ht="24">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="47"/>
       <c r="M37" s="37" t="s">
         <v>126</v>
       </c>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:16" ht="24.75" thickBot="1">
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="53"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="51"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="51"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="48"/>
       <c r="M38" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="2:16" ht="23.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="50">
+    <row r="39" spans="2:16" ht="24.75" thickTop="1">
+      <c r="B39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="62">
         <v>8</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="62">
         <v>11</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="62">
         <v>11</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="63">
         <v>11</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39" s="62">
         <v>11</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="56" t="s">
+      <c r="I39" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="50" t="s">
+      <c r="J39" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="K39" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="56" t="s">
+      <c r="L39" s="61" t="s">
         <v>88</v>
       </c>
       <c r="M39" s="14" t="s">
@@ -5267,18 +5333,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B40" s="70"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+    <row r="40" spans="2:16" ht="24">
+      <c r="B40" s="47"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="47"/>
       <c r="M40" s="14" t="s">
         <v>116</v>
       </c>
@@ -5286,18 +5352,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B41" s="70"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
+    <row r="41" spans="2:16">
+      <c r="B41" s="47"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="47"/>
       <c r="M41" s="14" t="s">
         <v>142</v>
       </c>
@@ -5308,205 +5374,205 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="57"/>
+    <row r="42" spans="2:16" ht="15" thickBot="1">
+      <c r="B42" s="48"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
-      <c r="F42" s="53"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="48"/>
       <c r="M42" s="19" t="s">
         <v>147</v>
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B43" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="60">
+    <row r="43" spans="2:16">
+      <c r="B43" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="49">
         <v>9</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="49">
         <v>12</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="49">
         <v>12</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="58">
         <v>12</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="49">
         <v>12</v>
       </c>
-      <c r="H43" s="62" t="s">
+      <c r="H43" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="60" t="s">
+      <c r="J43" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="60" t="s">
+      <c r="K43" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="68" t="s">
+      <c r="L43" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N43" s="74" t="s">
+      <c r="N43" s="70" t="s">
         <v>154</v>
       </c>
       <c r="P43" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B44" s="70"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="70"/>
+    <row r="44" spans="2:16" ht="24">
+      <c r="B44" s="47"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="47"/>
       <c r="M44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="75"/>
-    </row>
-    <row r="45" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B45" s="70"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="70"/>
+      <c r="N44" s="65"/>
+    </row>
+    <row r="45" spans="2:16" ht="24">
+      <c r="B45" s="47"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="47"/>
       <c r="M45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N45" s="75"/>
-    </row>
-    <row r="46" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B46" s="70"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="70"/>
+      <c r="N45" s="65"/>
+    </row>
+    <row r="46" spans="2:16" ht="24">
+      <c r="B46" s="47"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="47"/>
       <c r="M46" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N46" s="75"/>
-    </row>
-    <row r="47" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="57"/>
+      <c r="N46" s="65"/>
+    </row>
+    <row r="47" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B47" s="48"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
       <c r="E47" s="51"/>
-      <c r="F47" s="53"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="51"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="48"/>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="57"/>
+      <c r="L47" s="48"/>
       <c r="M47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="76"/>
-    </row>
-    <row r="48" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="60">
+      <c r="N47" s="66"/>
+    </row>
+    <row r="48" spans="2:16" ht="14.25" customHeight="1">
+      <c r="B48" s="49">
         <v>8</v>
       </c>
-      <c r="C48" s="60">
+      <c r="C48" s="49">
         <v>10</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48" s="49">
         <v>13</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="49">
         <v>13</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="58">
         <v>13</v>
       </c>
-      <c r="G48" s="60">
+      <c r="G48" s="49">
         <v>13</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="I48" s="68" t="s">
+      <c r="I48" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="J48" s="60" t="s">
+      <c r="J48" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K48" s="60" t="s">
+      <c r="K48" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L48" s="68" t="s">
+      <c r="L48" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M48" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N48" s="68" t="s">
+      <c r="N48" s="46" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="70"/>
+    <row r="49" spans="2:16" ht="24">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="47"/>
       <c r="M49" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N49" s="70"/>
-    </row>
-    <row r="50" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="70"/>
+      <c r="N49" s="47"/>
+    </row>
+    <row r="50" spans="2:16" ht="24">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="47"/>
       <c r="M50" s="14" t="s">
         <v>159</v>
       </c>
@@ -5517,89 +5583,89 @@
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="70"/>
+    <row r="51" spans="2:16" ht="24">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="47"/>
       <c r="M51" s="14" t="s">
         <v>120</v>
       </c>
       <c r="N51" s="26"/>
     </row>
-    <row r="52" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="70"/>
+    <row r="52" spans="2:16" ht="24">
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="47"/>
       <c r="M52" s="14" t="s">
         <v>115</v>
       </c>
       <c r="N52" s="26"/>
     </row>
-    <row r="53" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:16" ht="24.75" thickBot="1">
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="53"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="51"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="57"/>
+      <c r="L53" s="48"/>
       <c r="M53" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N53" s="24"/>
     </row>
-    <row r="54" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B54" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="60">
+    <row r="54" spans="2:16" ht="24">
+      <c r="B54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="49">
         <v>14</v>
       </c>
-      <c r="F54" s="61">
+      <c r="F54" s="58">
         <v>14</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="49">
         <v>14</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="I54" s="74" t="s">
+      <c r="I54" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="J54" s="60" t="s">
+      <c r="J54" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K54" s="60" t="s">
+      <c r="K54" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="68" t="s">
+      <c r="L54" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M54" s="14" t="s">
@@ -5612,18 +5678,18 @@
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="70"/>
+    <row r="55" spans="2:16">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="47"/>
       <c r="M55" s="14" t="s">
         <v>151</v>
       </c>
@@ -5631,89 +5697,89 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="70"/>
+    <row r="56" spans="2:16">
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="47"/>
       <c r="M56" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N56" s="22"/>
     </row>
-    <row r="57" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="70"/>
+    <row r="57" spans="2:16" ht="24">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="47"/>
       <c r="M57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N57" s="22"/>
     </row>
-    <row r="58" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+    <row r="58" spans="2:16" ht="15" thickBot="1">
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="51"/>
-      <c r="F58" s="53"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="51"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="76"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="66"/>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
-      <c r="L58" s="57"/>
+      <c r="L58" s="48"/>
       <c r="M58" s="19" t="s">
         <v>162</v>
       </c>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B59" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="60">
+    <row r="59" spans="2:16" ht="24">
+      <c r="B59" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="49">
         <v>11</v>
       </c>
-      <c r="D59" s="60">
+      <c r="D59" s="49">
         <v>14</v>
       </c>
-      <c r="E59" s="60">
+      <c r="E59" s="49">
         <v>15</v>
       </c>
-      <c r="F59" s="61">
+      <c r="F59" s="58">
         <v>15</v>
       </c>
-      <c r="G59" s="60">
+      <c r="G59" s="49">
         <v>15</v>
       </c>
-      <c r="H59" s="62" t="s">
+      <c r="H59" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="74" t="s">
+      <c r="I59" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="J59" s="60" t="s">
+      <c r="J59" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K59" s="60" t="s">
+      <c r="K59" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L59" s="68" t="s">
+      <c r="L59" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M59" s="14" t="s">
@@ -5726,18 +5792,18 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B60" s="70"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="70"/>
+    <row r="60" spans="2:16">
+      <c r="B60" s="47"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="47"/>
       <c r="M60" s="14" t="s">
         <v>157</v>
       </c>
@@ -5745,58 +5811,58 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B61" s="70"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="70"/>
+    <row r="61" spans="2:16" ht="24">
+      <c r="B61" s="47"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="47"/>
       <c r="M61" s="14" t="s">
         <v>104</v>
       </c>
       <c r="N61" s="22"/>
     </row>
-    <row r="62" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B62" s="70"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="70"/>
+    <row r="62" spans="2:16" ht="24">
+      <c r="B62" s="47"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="47"/>
       <c r="M62" s="13" t="s">
         <v>167</v>
       </c>
       <c r="N62" s="22"/>
     </row>
-    <row r="63" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="57"/>
+    <row r="63" spans="2:16" ht="15" thickBot="1">
+      <c r="B63" s="48"/>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
-      <c r="F63" s="53"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="51"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="76"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="66"/>
       <c r="J63" s="51"/>
       <c r="K63" s="51"/>
-      <c r="L63" s="57"/>
+      <c r="L63" s="48"/>
       <c r="M63" s="19" t="s">
         <v>168</v>
       </c>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:16" ht="24.75" thickBot="1">
       <c r="B64" s="24" t="s">
         <v>88</v>
       </c>
@@ -5837,7 +5903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:16" ht="15" thickBot="1">
       <c r="B65" s="17">
         <v>9</v>
       </c>
@@ -5878,7 +5944,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:16" ht="15" thickBot="1">
       <c r="B66" s="17">
         <v>10</v>
       </c>
@@ -5919,946 +5985,946 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="B67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="60">
+    <row r="67" spans="2:16" ht="36">
+      <c r="B67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="49">
         <v>18</v>
       </c>
-      <c r="F67" s="61">
+      <c r="F67" s="58">
         <v>18</v>
       </c>
-      <c r="G67" s="60">
+      <c r="G67" s="49">
         <v>18</v>
       </c>
-      <c r="H67" s="62" t="s">
+      <c r="H67" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="I67" s="74" t="s">
+      <c r="I67" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="J67" s="60" t="s">
+      <c r="J67" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K67" s="60" t="s">
+      <c r="K67" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L67" s="68" t="s">
+      <c r="L67" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="68" t="s">
+      <c r="N67" s="46" t="s">
         <v>88</v>
       </c>
       <c r="P67" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="70"/>
+    <row r="68" spans="2:16" ht="24">
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="47"/>
       <c r="M68" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="70"/>
-    </row>
-    <row r="69" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="70"/>
+      <c r="N68" s="47"/>
+    </row>
+    <row r="69" spans="2:16" ht="24">
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="47"/>
       <c r="M69" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="N69" s="70"/>
-    </row>
-    <row r="70" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="N69" s="47"/>
+    </row>
+    <row r="70" spans="2:16" ht="15" thickBot="1">
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="51"/>
-      <c r="F70" s="53"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="51"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="76"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="51"/>
       <c r="K70" s="51"/>
-      <c r="L70" s="57"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N70" s="57"/>
-    </row>
-    <row r="71" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B71" s="60">
+      <c r="N70" s="48"/>
+    </row>
+    <row r="71" spans="2:16" ht="24">
+      <c r="B71" s="49">
         <v>11</v>
       </c>
-      <c r="C71" s="60">
+      <c r="C71" s="49">
         <v>14</v>
       </c>
-      <c r="D71" s="60">
+      <c r="D71" s="49">
         <v>17</v>
       </c>
-      <c r="E71" s="60">
+      <c r="E71" s="49">
         <v>19</v>
       </c>
-      <c r="F71" s="61">
+      <c r="F71" s="58">
         <v>19</v>
       </c>
-      <c r="G71" s="60">
+      <c r="G71" s="49">
         <v>19</v>
       </c>
-      <c r="H71" s="62" t="s">
+      <c r="H71" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="I71" s="68" t="s">
+      <c r="I71" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="J71" s="60" t="s">
+      <c r="J71" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="60" t="s">
+      <c r="K71" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="68" t="s">
+      <c r="L71" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="N71" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="70"/>
+      <c r="N71" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="24">
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="47"/>
       <c r="M72" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N72" s="70"/>
-    </row>
-    <row r="73" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="70"/>
+      <c r="N72" s="47"/>
+    </row>
+    <row r="73" spans="2:16" ht="24">
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="47"/>
       <c r="M73" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="70"/>
-    </row>
-    <row r="74" spans="2:16" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N73" s="47"/>
+    </row>
+    <row r="74" spans="2:16" ht="48.75" thickBot="1">
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="E74" s="51"/>
-      <c r="F74" s="53"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="51"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="48"/>
       <c r="J74" s="51"/>
       <c r="K74" s="51"/>
-      <c r="L74" s="57"/>
+      <c r="L74" s="48"/>
       <c r="M74" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N74" s="57"/>
-    </row>
-    <row r="75" spans="2:16" ht="35.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="50">
+      <c r="N74" s="48"/>
+    </row>
+    <row r="75" spans="2:16" ht="36.75" thickTop="1">
+      <c r="B75" s="62">
         <v>12</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="62">
         <v>15</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="62">
         <v>18</v>
       </c>
-      <c r="E75" s="50">
+      <c r="E75" s="62">
         <v>20</v>
       </c>
-      <c r="F75" s="52">
+      <c r="F75" s="63">
         <v>20</v>
       </c>
-      <c r="G75" s="50">
+      <c r="G75" s="62">
         <v>20</v>
       </c>
-      <c r="H75" s="58" t="s">
+      <c r="H75" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="56" t="s">
+      <c r="I75" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="J75" s="50" t="s">
+      <c r="J75" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K75" s="50" t="s">
+      <c r="K75" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="77">
+      <c r="L75" s="72">
         <v>-7</v>
       </c>
       <c r="M75" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="N75" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="78"/>
+      <c r="N75" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="24">
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="68"/>
       <c r="M76" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N76" s="70"/>
-    </row>
-    <row r="77" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="78"/>
+      <c r="N76" s="47"/>
+    </row>
+    <row r="77" spans="2:16" ht="24">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="68"/>
       <c r="M77" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="N77" s="70"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="78"/>
+      <c r="N77" s="47"/>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="68"/>
       <c r="M78" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N78" s="70"/>
-    </row>
-    <row r="79" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N78" s="47"/>
+    </row>
+    <row r="79" spans="2:16" ht="24.75" thickBot="1">
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="51"/>
       <c r="E79" s="51"/>
-      <c r="F79" s="53"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="51"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="48"/>
       <c r="J79" s="51"/>
       <c r="K79" s="51"/>
-      <c r="L79" s="79"/>
+      <c r="L79" s="69"/>
       <c r="M79" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N79" s="57"/>
-    </row>
-    <row r="80" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="61">
+      <c r="N79" s="48"/>
+    </row>
+    <row r="80" spans="2:16">
+      <c r="B80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="58">
         <v>21</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="49">
         <v>21</v>
       </c>
-      <c r="H80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="68" t="s">
+      <c r="H80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="J80" s="60" t="s">
+      <c r="J80" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K80" s="60" t="s">
+      <c r="K80" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L80" s="68" t="s">
+      <c r="L80" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M80" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N80" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="70"/>
+      <c r="N80" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" ht="48">
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="47"/>
       <c r="M81" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="N81" s="70"/>
-    </row>
-    <row r="82" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="70"/>
+      <c r="N81" s="47"/>
+    </row>
+    <row r="82" spans="2:19" ht="24">
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="47"/>
       <c r="M82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N82" s="70"/>
-    </row>
-    <row r="83" spans="2:19" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="53"/>
+      <c r="N82" s="47"/>
+    </row>
+    <row r="83" spans="2:19" ht="48.75" thickBot="1">
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="51"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
       <c r="J83" s="51"/>
       <c r="K83" s="51"/>
-      <c r="L83" s="57"/>
+      <c r="L83" s="48"/>
       <c r="M83" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N83" s="57"/>
-    </row>
-    <row r="84" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="61">
+      <c r="N83" s="48"/>
+    </row>
+    <row r="84" spans="2:19">
+      <c r="B84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="58">
         <v>22</v>
       </c>
-      <c r="G84" s="60">
+      <c r="G84" s="49">
         <v>22</v>
       </c>
-      <c r="H84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="68" t="s">
+      <c r="H84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="J84" s="60" t="s">
+      <c r="J84" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K84" s="60" t="s">
+      <c r="K84" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L84" s="68" t="s">
+      <c r="L84" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N84" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="70"/>
+      <c r="N84" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="24">
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="47"/>
       <c r="M85" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N85" s="70"/>
-    </row>
-    <row r="86" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="70"/>
+      <c r="N85" s="47"/>
+    </row>
+    <row r="86" spans="2:19" ht="24">
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="47"/>
       <c r="M86" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N86" s="70"/>
+      <c r="N86" s="47"/>
       <c r="S86" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="2:19" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="53"/>
+    <row r="87" spans="2:19" ht="24.75" thickBot="1">
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="51"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
       <c r="J87" s="51"/>
       <c r="K87" s="51"/>
-      <c r="L87" s="57"/>
+      <c r="L87" s="48"/>
       <c r="M87" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="N87" s="57"/>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B88" s="60">
+      <c r="N87" s="48"/>
+    </row>
+    <row r="88" spans="2:19">
+      <c r="B88" s="49">
         <v>13</v>
       </c>
-      <c r="C88" s="60">
+      <c r="C88" s="49">
         <v>16</v>
       </c>
-      <c r="D88" s="60">
+      <c r="D88" s="49">
         <v>19</v>
       </c>
-      <c r="E88" s="60">
+      <c r="E88" s="49">
         <v>21</v>
       </c>
-      <c r="F88" s="61">
+      <c r="F88" s="58">
         <v>23</v>
       </c>
-      <c r="G88" s="60">
+      <c r="G88" s="49">
         <v>23</v>
       </c>
-      <c r="H88" s="62" t="s">
+      <c r="H88" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="I88" s="68" t="s">
+      <c r="I88" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="J88" s="60" t="s">
+      <c r="J88" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K88" s="60" t="s">
+      <c r="K88" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="68" t="s">
+      <c r="L88" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M88" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="N88" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="70"/>
+      <c r="N88" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="24">
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="47"/>
       <c r="M89" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N89" s="70"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="70"/>
+      <c r="N89" s="47"/>
+    </row>
+    <row r="90" spans="2:19">
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="47"/>
       <c r="M90" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N90" s="70"/>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="70"/>
+      <c r="N90" s="47"/>
+    </row>
+    <row r="91" spans="2:19">
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="47"/>
       <c r="M91" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N91" s="70"/>
-    </row>
-    <row r="92" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-      <c r="L92" s="70"/>
+      <c r="N91" s="47"/>
+    </row>
+    <row r="92" spans="2:19" ht="24">
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="47"/>
       <c r="M92" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="N92" s="70"/>
-    </row>
-    <row r="93" spans="2:19" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N92" s="47"/>
+    </row>
+    <row r="93" spans="2:19" ht="24.75" thickBot="1">
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
       <c r="D93" s="51"/>
       <c r="E93" s="51"/>
-      <c r="F93" s="53"/>
+      <c r="F93" s="60"/>
       <c r="G93" s="51"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="48"/>
       <c r="J93" s="51"/>
       <c r="K93" s="51"/>
-      <c r="L93" s="57"/>
+      <c r="L93" s="48"/>
       <c r="M93" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N93" s="57"/>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B94" s="60">
+      <c r="N93" s="48"/>
+    </row>
+    <row r="94" spans="2:19">
+      <c r="B94" s="49">
         <v>14</v>
       </c>
-      <c r="C94" s="60">
+      <c r="C94" s="49">
         <v>17</v>
       </c>
-      <c r="D94" s="60">
+      <c r="D94" s="49">
         <v>20</v>
       </c>
-      <c r="E94" s="60">
+      <c r="E94" s="49">
         <v>22</v>
       </c>
-      <c r="F94" s="61">
+      <c r="F94" s="58">
         <v>24</v>
       </c>
-      <c r="G94" s="60">
+      <c r="G94" s="49">
         <v>24</v>
       </c>
-      <c r="H94" s="62" t="s">
+      <c r="H94" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="68" t="s">
+      <c r="I94" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="J94" s="60" t="s">
+      <c r="J94" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K94" s="60" t="s">
+      <c r="K94" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L94" s="80">
+      <c r="L94" s="67">
         <v>-7</v>
       </c>
       <c r="M94" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="N94" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="78"/>
+      <c r="N94" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" ht="24">
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="68"/>
       <c r="M95" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N95" s="70"/>
-    </row>
-    <row r="96" spans="2:19" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="78"/>
+      <c r="N95" s="47"/>
+    </row>
+    <row r="96" spans="2:19" ht="24">
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="68"/>
       <c r="M96" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N96" s="70"/>
-    </row>
-    <row r="97" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="78"/>
+      <c r="N96" s="47"/>
+    </row>
+    <row r="97" spans="2:16" ht="24">
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="68"/>
       <c r="M97" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="N97" s="70"/>
-    </row>
-    <row r="98" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="78"/>
+      <c r="N97" s="47"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="68"/>
       <c r="M98" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N98" s="70"/>
-    </row>
-    <row r="99" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="78"/>
+      <c r="N98" s="47"/>
+    </row>
+    <row r="99" spans="2:16" ht="24">
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="68"/>
       <c r="M99" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="N99" s="70"/>
-    </row>
-    <row r="100" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N99" s="47"/>
+    </row>
+    <row r="100" spans="2:16" ht="24.75" thickBot="1">
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
       <c r="D100" s="51"/>
       <c r="E100" s="51"/>
-      <c r="F100" s="53"/>
+      <c r="F100" s="60"/>
       <c r="G100" s="51"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="48"/>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
-      <c r="L100" s="79"/>
+      <c r="L100" s="69"/>
       <c r="M100" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="N100" s="57"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E101" s="60">
+      <c r="N100" s="48"/>
+    </row>
+    <row r="101" spans="2:16">
+      <c r="B101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="49">
         <v>23</v>
       </c>
-      <c r="F101" s="61">
+      <c r="F101" s="58">
         <v>25</v>
       </c>
-      <c r="G101" s="60">
+      <c r="G101" s="49">
         <v>25</v>
       </c>
-      <c r="H101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I101" s="68" t="s">
+      <c r="H101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="J101" s="60" t="s">
+      <c r="J101" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K101" s="60" t="s">
+      <c r="K101" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L101" s="68" t="s">
+      <c r="L101" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M101" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="N101" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="70"/>
+      <c r="N101" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16">
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="47"/>
       <c r="M102" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N102" s="70"/>
-    </row>
-    <row r="103" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="70"/>
+      <c r="N102" s="47"/>
+    </row>
+    <row r="103" spans="2:16" ht="24">
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="47"/>
       <c r="M103" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N103" s="70"/>
-    </row>
-    <row r="104" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B104" s="70"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="70"/>
+      <c r="N103" s="47"/>
+    </row>
+    <row r="104" spans="2:16" ht="24">
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="47"/>
       <c r="M104" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N104" s="70"/>
-    </row>
-    <row r="105" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
+      <c r="N104" s="47"/>
+    </row>
+    <row r="105" spans="2:16" ht="15" thickBot="1">
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
       <c r="E105" s="51"/>
-      <c r="F105" s="53"/>
+      <c r="F105" s="60"/>
       <c r="G105" s="51"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
-      <c r="L105" s="57"/>
+      <c r="L105" s="48"/>
       <c r="M105" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N105" s="57"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B106" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="60">
+      <c r="N105" s="48"/>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="B106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="49">
         <v>24</v>
       </c>
-      <c r="F106" s="61">
+      <c r="F106" s="58">
         <v>26</v>
       </c>
-      <c r="G106" s="60">
+      <c r="G106" s="49">
         <v>26</v>
       </c>
-      <c r="H106" s="62" t="s">
+      <c r="H106" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="I106" s="74" t="s">
+      <c r="I106" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J106" s="60" t="s">
+      <c r="J106" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K106" s="60" t="s">
+      <c r="K106" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L106" s="68" t="s">
+      <c r="L106" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M106" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N106" s="68" t="s">
+      <c r="N106" s="46" t="s">
         <v>203</v>
       </c>
       <c r="P106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="75"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="66"/>
-      <c r="L107" s="70"/>
+    <row r="107" spans="2:16">
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="47"/>
       <c r="M107" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="N107" s="70"/>
-    </row>
-    <row r="108" spans="2:16" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
+      <c r="N107" s="47"/>
+    </row>
+    <row r="108" spans="2:16" ht="15" thickBot="1">
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
       <c r="E108" s="51"/>
-      <c r="F108" s="53"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="51"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="76"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="66"/>
       <c r="J108" s="51"/>
       <c r="K108" s="51"/>
-      <c r="L108" s="57"/>
+      <c r="L108" s="48"/>
       <c r="M108" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="N108" s="57"/>
-    </row>
-    <row r="109" spans="2:16" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N108" s="48"/>
+    </row>
+    <row r="109" spans="2:16" ht="24.75" thickBot="1">
       <c r="B109" s="24" t="s">
         <v>88</v>
       </c>
@@ -6902,269 +6968,269 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="2:16" ht="23.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="50">
+    <row r="110" spans="2:16" ht="15" thickTop="1">
+      <c r="B110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="62">
         <v>26</v>
       </c>
-      <c r="F110" s="52">
+      <c r="F110" s="63">
         <v>28</v>
       </c>
-      <c r="G110" s="50">
+      <c r="G110" s="62">
         <v>28</v>
       </c>
-      <c r="H110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I110" s="81" t="s">
+      <c r="H110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I110" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="J110" s="50" t="s">
+      <c r="J110" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K110" s="50" t="s">
+      <c r="K110" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L110" s="56" t="s">
+      <c r="L110" s="61" t="s">
         <v>88</v>
       </c>
       <c r="M110" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N110" s="56" t="s">
+      <c r="N110" s="61" t="s">
         <v>206</v>
       </c>
       <c r="P110" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="70"/>
+    <row r="111" spans="2:16" ht="24">
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="47"/>
       <c r="M111" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N111" s="70"/>
-    </row>
-    <row r="112" spans="2:16" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="70"/>
+      <c r="N111" s="47"/>
+    </row>
+    <row r="112" spans="2:16" ht="24">
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="47"/>
       <c r="M112" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N112" s="70"/>
-    </row>
-    <row r="113" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
+      <c r="N112" s="47"/>
+    </row>
+    <row r="113" spans="2:14" ht="15" thickBot="1">
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
       <c r="E113" s="51"/>
-      <c r="F113" s="53"/>
+      <c r="F113" s="60"/>
       <c r="G113" s="51"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="76"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="66"/>
       <c r="J113" s="51"/>
       <c r="K113" s="51"/>
-      <c r="L113" s="57"/>
+      <c r="L113" s="48"/>
       <c r="M113" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="N113" s="57"/>
-    </row>
-    <row r="114" spans="2:14" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="B114" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="60">
+      <c r="N113" s="48"/>
+    </row>
+    <row r="114" spans="2:14" ht="36">
+      <c r="B114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="49">
         <v>18</v>
       </c>
-      <c r="D114" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E114" s="60">
+      <c r="D114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="49">
         <v>27</v>
       </c>
-      <c r="F114" s="61">
+      <c r="F114" s="58">
         <v>29</v>
       </c>
-      <c r="G114" s="60">
+      <c r="G114" s="49">
         <v>29</v>
       </c>
-      <c r="H114" s="62" t="s">
+      <c r="H114" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="I114" s="68" t="s">
+      <c r="I114" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="J114" s="60" t="s">
+      <c r="J114" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K114" s="60" t="s">
+      <c r="K114" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="L114" s="68" t="s">
+      <c r="L114" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M114" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="N114" s="68" t="s">
+      <c r="N114" s="46" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B115" s="70"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="70"/>
+    <row r="115" spans="2:14" ht="24">
+      <c r="B115" s="47"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="47"/>
       <c r="M115" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N115" s="70"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B116" s="70"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="70"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
-      <c r="L116" s="70"/>
+      <c r="N115" s="47"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="47"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="47"/>
       <c r="M116" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N116" s="70"/>
-    </row>
-    <row r="117" spans="2:14" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B117" s="57"/>
+      <c r="N116" s="47"/>
+    </row>
+    <row r="117" spans="2:14" ht="24.75" thickBot="1">
+      <c r="B117" s="48"/>
       <c r="C117" s="51"/>
-      <c r="D117" s="57"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="51"/>
-      <c r="F117" s="53"/>
+      <c r="F117" s="60"/>
       <c r="G117" s="51"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="57"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="48"/>
       <c r="J117" s="51"/>
       <c r="K117" s="51"/>
-      <c r="L117" s="57"/>
+      <c r="L117" s="48"/>
       <c r="M117" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="N117" s="57"/>
-    </row>
-    <row r="118" spans="2:14" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="B118" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="60">
+      <c r="N117" s="48"/>
+    </row>
+    <row r="118" spans="2:14" ht="36">
+      <c r="B118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="49">
         <v>19</v>
       </c>
-      <c r="D118" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118" s="60">
+      <c r="D118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="49">
         <v>28</v>
       </c>
-      <c r="F118" s="61">
+      <c r="F118" s="58">
         <v>30</v>
       </c>
-      <c r="G118" s="60">
+      <c r="G118" s="49">
         <v>30</v>
       </c>
-      <c r="H118" s="62" t="s">
+      <c r="H118" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="I118" s="68" t="s">
+      <c r="I118" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="J118" s="60" t="s">
+      <c r="J118" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K118" s="60" t="s">
+      <c r="K118" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="L118" s="68" t="s">
+      <c r="L118" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M118" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="N118" s="68" t="s">
+      <c r="N118" s="46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="B119" s="70"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="69"/>
-      <c r="I119" s="70"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="66"/>
-      <c r="L119" s="70"/>
+    <row r="119" spans="2:14" ht="36">
+      <c r="B119" s="47"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="47"/>
       <c r="M119" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="N119" s="70"/>
-    </row>
-    <row r="120" spans="2:14" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B120" s="57"/>
+      <c r="N119" s="47"/>
+    </row>
+    <row r="120" spans="2:14" ht="24.75" thickBot="1">
+      <c r="B120" s="48"/>
       <c r="C120" s="51"/>
-      <c r="D120" s="57"/>
+      <c r="D120" s="48"/>
       <c r="E120" s="51"/>
-      <c r="F120" s="53"/>
+      <c r="F120" s="60"/>
       <c r="G120" s="51"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="57"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="48"/>
       <c r="J120" s="51"/>
       <c r="K120" s="51"/>
-      <c r="L120" s="57"/>
+      <c r="L120" s="48"/>
       <c r="M120" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="N120" s="57"/>
-    </row>
-    <row r="121" spans="2:14" ht="46.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N120" s="48"/>
+    </row>
+    <row r="121" spans="2:14" ht="48.75" thickBot="1">
       <c r="B121" s="17">
         <v>1</v>
       </c>
@@ -7205,99 +7271,99 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F122" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="60">
+    <row r="122" spans="2:14" ht="24">
+      <c r="B122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" s="49">
         <v>32</v>
       </c>
-      <c r="H122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I122" s="68" t="s">
+      <c r="H122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="J122" s="60" t="s">
+      <c r="J122" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K122" s="60" t="s">
+      <c r="K122" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="L122" s="68" t="s">
+      <c r="L122" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M122" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="N122" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="70"/>
+      <c r="N122" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" ht="24">
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="47"/>
       <c r="M123" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N123" s="70"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
-      <c r="L124" s="70"/>
+      <c r="N123" s="47"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="50"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="47"/>
       <c r="M124" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="N124" s="70"/>
-    </row>
-    <row r="125" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="84"/>
+      <c r="N124" s="47"/>
+    </row>
+    <row r="125" spans="2:14" ht="15" thickBot="1">
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="54"/>
       <c r="G125" s="51"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
       <c r="J125" s="51"/>
       <c r="K125" s="51"/>
-      <c r="L125" s="57"/>
+      <c r="L125" s="48"/>
       <c r="M125" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="N125" s="57"/>
-    </row>
-    <row r="126" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N125" s="48"/>
+    </row>
+    <row r="126" spans="2:14" ht="15" thickBot="1">
       <c r="B126" s="24" t="s">
         <v>88</v>
       </c>
@@ -7338,7 +7404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:14" ht="15" thickBot="1">
       <c r="B127" s="24" t="s">
         <v>88</v>
       </c>
@@ -7381,57 +7447,229 @@
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:K120"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="N101:N105"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="L110:L113"/>
-    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="K17:K23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="N75:N79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="N88:N93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="I88:I93"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="L88:L93"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I94:I100"/>
+    <mergeCell ref="J94:J100"/>
     <mergeCell ref="B106:B108"/>
     <mergeCell ref="C106:C108"/>
     <mergeCell ref="D106:D108"/>
@@ -7456,229 +7694,57 @@
     <mergeCell ref="L106:L108"/>
     <mergeCell ref="I101:I105"/>
     <mergeCell ref="J101:J105"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="E94:E100"/>
-    <mergeCell ref="F94:F100"/>
-    <mergeCell ref="G94:G100"/>
-    <mergeCell ref="H94:H100"/>
-    <mergeCell ref="I94:I100"/>
-    <mergeCell ref="J94:J100"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="N88:N93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
-    <mergeCell ref="I88:I93"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="L88:L93"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="N75:N79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="K75:K79"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="K54:K58"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K32:K38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="K17:K23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="N101:N105"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="L110:L113"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="N118:N120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Karman Delta Arm/Rocket arming system.xlsx
+++ b/Karman Delta Arm/Rocket arming system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\GitHub\AltiumGithub\Karman Delta Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF8978-0DAF-4F0A-99E5-B5A1731636B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83159B67-4154-458D-B4A4-41D4EA42FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="21600" windowHeight="12645" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
+    <workbookView xWindow="37965" yWindow="2010" windowWidth="21600" windowHeight="12645" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="397">
   <si>
     <t>Failure Mode</t>
   </si>
@@ -1659,23 +1659,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1684,96 +1774,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3906,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E11162-B732-4DE9-8322-FD8094AB6283}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3994,6 +3994,9 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="1" t="s">
@@ -4039,6 +4042,9 @@
       <c r="A18" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
@@ -4117,6 +4123,9 @@
       <c r="A30" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
@@ -4135,6 +4144,9 @@
       <c r="A33" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="B33" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
@@ -4153,11 +4165,17 @@
       <c r="A36" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="B36" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
@@ -4196,6 +4214,9 @@
       <c r="A44" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="B44" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
@@ -4205,6 +4226,9 @@
     <row r="46" spans="1:2" ht="30">
       <c r="A46" s="1" t="s">
         <v>393</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4401,31 +4425,31 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1"/>
     <row r="3" spans="2:16" ht="15" thickBot="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="83" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="78"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1">
       <c r="B4" s="27" t="s">
@@ -4449,10 +4473,10 @@
       <c r="H4" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="82"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="11" t="s">
         <v>81</v>
       </c>
@@ -4464,43 +4488,43 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" thickTop="1">
-      <c r="B5" s="62">
+      <c r="B5" s="50">
         <v>2</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="50">
         <v>2</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="50">
         <v>2</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="52">
         <v>2</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="50">
         <v>2</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="58" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="61" t="s">
+      <c r="L5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>85</v>
       </c>
       <c r="P5" t="s">
@@ -4512,56 +4536,56 @@
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
-      <c r="F6" s="60"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="15" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="49">
+      <c r="B7" s="60">
         <v>3</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="60">
         <v>2</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="60">
         <v>3</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="60">
         <v>3</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="61">
         <v>3</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="60">
         <v>3</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="62" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="46" t="s">
+      <c r="L7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="68" t="s">
         <v>91</v>
       </c>
       <c r="P7" t="s">
@@ -4573,17 +4597,17 @@
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="60"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="B9" s="17">
@@ -4668,37 +4692,37 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="24">
-      <c r="B11" s="49">
+      <c r="B11" s="60">
         <v>5</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="60">
         <v>5</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="60">
         <v>6</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="60">
         <v>6</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="61">
         <v>6</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="60">
         <v>6</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="29" t="s">
@@ -4712,17 +4736,17 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="24">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="47"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="14" t="s">
         <v>104</v>
       </c>
@@ -4731,17 +4755,17 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="24">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="47"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="14" t="s">
         <v>105</v>
       </c>
@@ -4750,17 +4774,17 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="36">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="47"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="14" t="s">
         <v>106</v>
       </c>
@@ -4769,17 +4793,17 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="24">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="47"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="29" t="s">
         <v>107</v>
       </c>
@@ -4790,50 +4814,50 @@
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="60"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="51"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="21" t="s">
         <v>108</v>
       </c>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="24">
-      <c r="B17" s="49">
+      <c r="B17" s="60">
         <v>6</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="60">
         <v>6</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="60">
         <v>7</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="60">
         <v>7</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="61">
         <v>7</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="60">
         <v>7</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="23" t="s">
@@ -4844,17 +4868,17 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="24">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="47"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="23" t="s">
         <v>116</v>
       </c>
@@ -4863,68 +4887,68 @@
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="47"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="24">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="47"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="23" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="2:16" ht="24">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="47"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="2:16" ht="24">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="47"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="14" t="s">
         <v>120</v>
       </c>
@@ -4935,50 +4959,50 @@
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="60"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="48"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="48"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="40" t="s">
         <v>121</v>
       </c>
       <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:16" ht="36">
-      <c r="B24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="49">
+      <c r="B24" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="60">
         <v>8</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="60">
         <v>8</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="61">
         <v>8</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="60">
         <v>8</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M24" s="14" t="s">
@@ -4989,17 +5013,17 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="24">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="29" t="s">
         <v>125</v>
       </c>
@@ -5011,17 +5035,17 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="24">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="47"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="14" t="s">
         <v>126</v>
       </c>
@@ -5030,17 +5054,17 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="60"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="48"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="48"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="19" t="s">
         <v>127</v>
       </c>
@@ -5049,37 +5073,37 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="24">
-      <c r="B28" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="49">
+      <c r="B28" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="60">
         <v>9</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="60">
         <v>9</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="61">
         <v>9</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="60">
         <v>9</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M28" s="14" t="s">
@@ -5090,17 +5114,17 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="47"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="70"/>
       <c r="M29" s="14" t="s">
         <v>135</v>
       </c>
@@ -5109,71 +5133,71 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="24">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="47"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="29" t="s">
         <v>103</v>
       </c>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="60"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="48"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="48"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="40" t="s">
         <v>136</v>
       </c>
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:16" ht="24">
-      <c r="B32" s="49">
+      <c r="B32" s="60">
         <v>7</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="60">
         <v>7</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="60">
         <v>10</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="60">
         <v>10</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="61">
         <v>10</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="60">
         <v>10</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="J32" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="L32" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M32" s="14" t="s">
@@ -5184,17 +5208,17 @@
       </c>
     </row>
     <row r="33" spans="2:16" ht="24">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="47"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="14" t="s">
         <v>104</v>
       </c>
@@ -5203,17 +5227,17 @@
       </c>
     </row>
     <row r="34" spans="2:16" ht="36">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="47"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
       <c r="M34" s="14" t="s">
         <v>140</v>
       </c>
@@ -5225,51 +5249,51 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="24">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="47"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
       <c r="M35" s="23" t="s">
         <v>141</v>
       </c>
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="47"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
       <c r="M36" s="14" t="s">
         <v>142</v>
       </c>
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:16" ht="24">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="47"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="37" t="s">
         <v>126</v>
       </c>
@@ -5280,50 +5304,50 @@
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="60"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="51"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="48"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="51"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="48"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="57"/>
       <c r="M38" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N38" s="18"/>
     </row>
     <row r="39" spans="2:16" ht="24.75" thickTop="1">
-      <c r="B39" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="62">
+      <c r="B39" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="50">
         <v>8</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="50">
         <v>11</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="50">
         <v>11</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="52">
         <v>11</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="50">
         <v>11</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="62" t="s">
+      <c r="J39" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="L39" s="56" t="s">
         <v>88</v>
       </c>
       <c r="M39" s="14" t="s">
@@ -5334,17 +5358,17 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="24">
-      <c r="B40" s="47"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="47"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="14" t="s">
         <v>116</v>
       </c>
@@ -5353,17 +5377,17 @@
       </c>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="47"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="47"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
       <c r="M41" s="14" t="s">
         <v>142</v>
       </c>
@@ -5375,60 +5399,60 @@
       </c>
     </row>
     <row r="42" spans="2:16" ht="15" thickBot="1">
-      <c r="B42" s="48"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
-      <c r="F42" s="60"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="48"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="48"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="57"/>
       <c r="M42" s="19" t="s">
         <v>147</v>
       </c>
       <c r="N42" s="18"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="49">
+      <c r="B43" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="60">
         <v>9</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="60">
         <v>12</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="60">
         <v>12</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="61">
         <v>12</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="60">
         <v>12</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="49" t="s">
+      <c r="J43" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N43" s="70" t="s">
+      <c r="N43" s="74" t="s">
         <v>154</v>
       </c>
       <c r="P43" t="s">
@@ -5436,143 +5460,143 @@
       </c>
     </row>
     <row r="44" spans="2:16" ht="24">
-      <c r="B44" s="47"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="47"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="70"/>
       <c r="M44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="65"/>
+      <c r="N44" s="75"/>
     </row>
     <row r="45" spans="2:16" ht="24">
-      <c r="B45" s="47"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="47"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="70"/>
       <c r="M45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N45" s="65"/>
+      <c r="N45" s="75"/>
     </row>
     <row r="46" spans="2:16" ht="24">
-      <c r="B46" s="47"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="47"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="70"/>
       <c r="M46" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N46" s="65"/>
+      <c r="N46" s="75"/>
     </row>
     <row r="47" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B47" s="48"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
       <c r="E47" s="51"/>
-      <c r="F47" s="60"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="51"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="48"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="48"/>
+      <c r="L47" s="57"/>
       <c r="M47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="66"/>
+      <c r="N47" s="76"/>
     </row>
     <row r="48" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B48" s="49">
+      <c r="B48" s="60">
         <v>8</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="60">
         <v>10</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="60">
         <v>13</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="60">
         <v>13</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="61">
         <v>13</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="60">
         <v>13</v>
       </c>
-      <c r="H48" s="55" t="s">
+      <c r="H48" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="J48" s="49" t="s">
+      <c r="J48" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K48" s="49" t="s">
+      <c r="K48" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M48" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N48" s="46" t="s">
+      <c r="N48" s="68" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="24">
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="47"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="70"/>
       <c r="M49" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N49" s="47"/>
+      <c r="N49" s="70"/>
     </row>
     <row r="50" spans="2:16" ht="24">
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="47"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="70"/>
       <c r="M50" s="14" t="s">
         <v>159</v>
       </c>
@@ -5584,34 +5608,34 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="24">
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="47"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="70"/>
       <c r="M51" s="14" t="s">
         <v>120</v>
       </c>
       <c r="N51" s="26"/>
     </row>
     <row r="52" spans="2:16" ht="24">
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="47"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="70"/>
       <c r="M52" s="14" t="s">
         <v>115</v>
       </c>
@@ -5622,50 +5646,50 @@
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="60"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="51"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="48"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="57"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="48"/>
+      <c r="L53" s="57"/>
       <c r="M53" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N53" s="24"/>
     </row>
     <row r="54" spans="2:16" ht="24">
-      <c r="B54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="49">
+      <c r="B54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="60">
         <v>14</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="61">
         <v>14</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="60">
         <v>14</v>
       </c>
-      <c r="H54" s="55" t="s">
+      <c r="H54" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="I54" s="70" t="s">
+      <c r="I54" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="J54" s="49" t="s">
+      <c r="J54" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K54" s="49" t="s">
+      <c r="K54" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="46" t="s">
+      <c r="L54" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M54" s="14" t="s">
@@ -5679,17 +5703,17 @@
       </c>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="47"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="70"/>
       <c r="M55" s="14" t="s">
         <v>151</v>
       </c>
@@ -5698,88 +5722,88 @@
       </c>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="47"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="70"/>
       <c r="M56" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N56" s="22"/>
     </row>
     <row r="57" spans="2:16" ht="24">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="47"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="70"/>
       <c r="M57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N57" s="22"/>
     </row>
     <row r="58" spans="2:16" ht="15" thickBot="1">
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="51"/>
-      <c r="F58" s="60"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="51"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="66"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
-      <c r="L58" s="48"/>
+      <c r="L58" s="57"/>
       <c r="M58" s="19" t="s">
         <v>162</v>
       </c>
       <c r="N58" s="18"/>
     </row>
     <row r="59" spans="2:16" ht="24">
-      <c r="B59" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="49">
+      <c r="B59" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="60">
         <v>11</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="60">
         <v>14</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="60">
         <v>15</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="61">
         <v>15</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="60">
         <v>15</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="70" t="s">
+      <c r="I59" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="J59" s="49" t="s">
+      <c r="J59" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K59" s="49" t="s">
+      <c r="K59" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L59" s="46" t="s">
+      <c r="L59" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M59" s="14" t="s">
@@ -5793,17 +5817,17 @@
       </c>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="47"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="47"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="70"/>
       <c r="M60" s="14" t="s">
         <v>157</v>
       </c>
@@ -5812,51 +5836,51 @@
       </c>
     </row>
     <row r="61" spans="2:16" ht="24">
-      <c r="B61" s="47"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="47"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="70"/>
       <c r="M61" s="14" t="s">
         <v>104</v>
       </c>
       <c r="N61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="24">
-      <c r="B62" s="47"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="47"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="70"/>
       <c r="M62" s="13" t="s">
         <v>167</v>
       </c>
       <c r="N62" s="22"/>
     </row>
     <row r="63" spans="2:16" ht="15" thickBot="1">
-      <c r="B63" s="48"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
-      <c r="F63" s="60"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="51"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="51"/>
       <c r="K63" s="51"/>
-      <c r="L63" s="48"/>
+      <c r="L63" s="57"/>
       <c r="M63" s="19" t="s">
         <v>168</v>
       </c>
@@ -5986,43 +6010,43 @@
       </c>
     </row>
     <row r="67" spans="2:16" ht="36">
-      <c r="B67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="49">
+      <c r="B67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="60">
         <v>18</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F67" s="61">
         <v>18</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G67" s="60">
         <v>18</v>
       </c>
-      <c r="H67" s="55" t="s">
+      <c r="H67" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I67" s="70" t="s">
+      <c r="I67" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="J67" s="49" t="s">
+      <c r="J67" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K67" s="49" t="s">
+      <c r="K67" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L67" s="46" t="s">
+      <c r="L67" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="46" t="s">
+      <c r="N67" s="68" t="s">
         <v>88</v>
       </c>
       <c r="P67" t="s">
@@ -6030,860 +6054,860 @@
       </c>
     </row>
     <row r="68" spans="2:16" ht="24">
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="47"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="70"/>
       <c r="M68" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="47"/>
+      <c r="N68" s="70"/>
     </row>
     <row r="69" spans="2:16" ht="24">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="47"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="70"/>
       <c r="M69" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="N69" s="47"/>
+      <c r="N69" s="70"/>
     </row>
     <row r="70" spans="2:16" ht="15" thickBot="1">
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="51"/>
-      <c r="F70" s="60"/>
+      <c r="F70" s="53"/>
       <c r="G70" s="51"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="66"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="51"/>
       <c r="K70" s="51"/>
-      <c r="L70" s="48"/>
+      <c r="L70" s="57"/>
       <c r="M70" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N70" s="48"/>
+      <c r="N70" s="57"/>
     </row>
     <row r="71" spans="2:16" ht="24">
-      <c r="B71" s="49">
+      <c r="B71" s="60">
         <v>11</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="60">
         <v>14</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="60">
         <v>17</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="60">
         <v>19</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="61">
         <v>19</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71" s="60">
         <v>19</v>
       </c>
-      <c r="H71" s="55" t="s">
+      <c r="H71" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="I71" s="46" t="s">
+      <c r="I71" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="J71" s="49" t="s">
+      <c r="J71" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="49" t="s">
+      <c r="K71" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="46" t="s">
+      <c r="L71" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="N71" s="46" t="s">
+      <c r="N71" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="24">
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="47"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="70"/>
       <c r="M72" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N72" s="47"/>
+      <c r="N72" s="70"/>
     </row>
     <row r="73" spans="2:16" ht="24">
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="47"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="70"/>
       <c r="M73" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="47"/>
+      <c r="N73" s="70"/>
     </row>
     <row r="74" spans="2:16" ht="48.75" thickBot="1">
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="E74" s="51"/>
-      <c r="F74" s="60"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="51"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="48"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="57"/>
       <c r="J74" s="51"/>
       <c r="K74" s="51"/>
-      <c r="L74" s="48"/>
+      <c r="L74" s="57"/>
       <c r="M74" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N74" s="48"/>
+      <c r="N74" s="57"/>
     </row>
     <row r="75" spans="2:16" ht="36.75" thickTop="1">
-      <c r="B75" s="62">
+      <c r="B75" s="50">
         <v>12</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="50">
         <v>15</v>
       </c>
-      <c r="D75" s="62">
+      <c r="D75" s="50">
         <v>18</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="50">
         <v>20</v>
       </c>
-      <c r="F75" s="63">
+      <c r="F75" s="52">
         <v>20</v>
       </c>
-      <c r="G75" s="62">
+      <c r="G75" s="50">
         <v>20</v>
       </c>
-      <c r="H75" s="71" t="s">
+      <c r="H75" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="61" t="s">
+      <c r="I75" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="J75" s="62" t="s">
+      <c r="J75" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K75" s="62" t="s">
+      <c r="K75" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="72">
+      <c r="L75" s="77">
         <v>-7</v>
       </c>
       <c r="M75" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="N75" s="61" t="s">
+      <c r="N75" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="24">
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="68"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="78"/>
       <c r="M76" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N76" s="47"/>
+      <c r="N76" s="70"/>
     </row>
     <row r="77" spans="2:16" ht="24">
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="68"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="78"/>
       <c r="M77" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="N77" s="47"/>
+      <c r="N77" s="70"/>
     </row>
     <row r="78" spans="2:16">
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="68"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="78"/>
       <c r="M78" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N78" s="47"/>
+      <c r="N78" s="70"/>
     </row>
     <row r="79" spans="2:16" ht="24.75" thickBot="1">
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="51"/>
       <c r="E79" s="51"/>
-      <c r="F79" s="60"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="51"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="48"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="57"/>
       <c r="J79" s="51"/>
       <c r="K79" s="51"/>
-      <c r="L79" s="69"/>
+      <c r="L79" s="79"/>
       <c r="M79" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N79" s="48"/>
+      <c r="N79" s="57"/>
     </row>
     <row r="80" spans="2:16">
-      <c r="B80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="58">
+      <c r="B80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="61">
         <v>21</v>
       </c>
-      <c r="G80" s="49">
+      <c r="G80" s="60">
         <v>21</v>
       </c>
-      <c r="H80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="46" t="s">
+      <c r="H80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="J80" s="49" t="s">
+      <c r="J80" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K80" s="49" t="s">
+      <c r="K80" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L80" s="46" t="s">
+      <c r="L80" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M80" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N80" s="46" t="s">
+      <c r="N80" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:19" ht="48">
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="47"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="70"/>
       <c r="M81" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="N81" s="47"/>
+      <c r="N81" s="70"/>
     </row>
     <row r="82" spans="2:19" ht="24">
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="47"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="70"/>
       <c r="M82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N82" s="47"/>
+      <c r="N82" s="70"/>
     </row>
     <row r="83" spans="2:19" ht="48.75" thickBot="1">
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="60"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="53"/>
       <c r="G83" s="51"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
       <c r="J83" s="51"/>
       <c r="K83" s="51"/>
-      <c r="L83" s="48"/>
+      <c r="L83" s="57"/>
       <c r="M83" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N83" s="48"/>
+      <c r="N83" s="57"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="58">
+      <c r="B84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="61">
         <v>22</v>
       </c>
-      <c r="G84" s="49">
+      <c r="G84" s="60">
         <v>22</v>
       </c>
-      <c r="H84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="46" t="s">
+      <c r="H84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="J84" s="49" t="s">
+      <c r="J84" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K84" s="49" t="s">
+      <c r="K84" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L84" s="46" t="s">
+      <c r="L84" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N84" s="46" t="s">
+      <c r="N84" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:19" ht="24">
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="47"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="70"/>
       <c r="M85" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N85" s="47"/>
+      <c r="N85" s="70"/>
     </row>
     <row r="86" spans="2:19" ht="24">
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="47"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="70"/>
       <c r="M86" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N86" s="47"/>
+      <c r="N86" s="70"/>
       <c r="S86" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="87" spans="2:19" ht="24.75" thickBot="1">
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="60"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="51"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
       <c r="J87" s="51"/>
       <c r="K87" s="51"/>
-      <c r="L87" s="48"/>
+      <c r="L87" s="57"/>
       <c r="M87" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="N87" s="48"/>
+      <c r="N87" s="57"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="49">
+      <c r="B88" s="60">
         <v>13</v>
       </c>
-      <c r="C88" s="49">
+      <c r="C88" s="60">
         <v>16</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="60">
         <v>19</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="60">
         <v>21</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="61">
         <v>23</v>
       </c>
-      <c r="G88" s="49">
+      <c r="G88" s="60">
         <v>23</v>
       </c>
-      <c r="H88" s="55" t="s">
+      <c r="H88" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="I88" s="46" t="s">
+      <c r="I88" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J88" s="49" t="s">
+      <c r="J88" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K88" s="49" t="s">
+      <c r="K88" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="46" t="s">
+      <c r="L88" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M88" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="N88" s="46" t="s">
+      <c r="N88" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="2:19" ht="24">
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="47"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="70"/>
       <c r="M89" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N89" s="47"/>
+      <c r="N89" s="70"/>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="47"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="70"/>
       <c r="M90" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N90" s="47"/>
+      <c r="N90" s="70"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="47"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="70"/>
       <c r="M91" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N91" s="47"/>
+      <c r="N91" s="70"/>
     </row>
     <row r="92" spans="2:19" ht="24">
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="47"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="70"/>
       <c r="M92" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="N92" s="47"/>
+      <c r="N92" s="70"/>
     </row>
     <row r="93" spans="2:19" ht="24.75" thickBot="1">
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
       <c r="D93" s="51"/>
       <c r="E93" s="51"/>
-      <c r="F93" s="60"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="51"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="48"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="57"/>
       <c r="J93" s="51"/>
       <c r="K93" s="51"/>
-      <c r="L93" s="48"/>
+      <c r="L93" s="57"/>
       <c r="M93" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N93" s="48"/>
+      <c r="N93" s="57"/>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="49">
+      <c r="B94" s="60">
         <v>14</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="60">
         <v>17</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="60">
         <v>20</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="60">
         <v>22</v>
       </c>
-      <c r="F94" s="58">
+      <c r="F94" s="61">
         <v>24</v>
       </c>
-      <c r="G94" s="49">
+      <c r="G94" s="60">
         <v>24</v>
       </c>
-      <c r="H94" s="55" t="s">
+      <c r="H94" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="46" t="s">
+      <c r="I94" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="J94" s="49" t="s">
+      <c r="J94" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K94" s="49" t="s">
+      <c r="K94" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L94" s="67">
+      <c r="L94" s="80">
         <v>-7</v>
       </c>
       <c r="M94" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="N94" s="46" t="s">
+      <c r="N94" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="24">
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="68"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="70"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="78"/>
       <c r="M95" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N95" s="47"/>
+      <c r="N95" s="70"/>
     </row>
     <row r="96" spans="2:19" ht="24">
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="68"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="78"/>
       <c r="M96" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N96" s="47"/>
+      <c r="N96" s="70"/>
     </row>
     <row r="97" spans="2:16" ht="24">
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="68"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="78"/>
       <c r="M97" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="N97" s="47"/>
+      <c r="N97" s="70"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="68"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="78"/>
       <c r="M98" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N98" s="47"/>
+      <c r="N98" s="70"/>
     </row>
     <row r="99" spans="2:16" ht="24">
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="68"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="78"/>
       <c r="M99" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="N99" s="47"/>
+      <c r="N99" s="70"/>
     </row>
     <row r="100" spans="2:16" ht="24.75" thickBot="1">
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
       <c r="D100" s="51"/>
       <c r="E100" s="51"/>
-      <c r="F100" s="60"/>
+      <c r="F100" s="53"/>
       <c r="G100" s="51"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="48"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="57"/>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
-      <c r="L100" s="69"/>
+      <c r="L100" s="79"/>
       <c r="M100" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="N100" s="48"/>
+      <c r="N100" s="57"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E101" s="49">
+      <c r="B101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="60">
         <v>23</v>
       </c>
-      <c r="F101" s="58">
+      <c r="F101" s="61">
         <v>25</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G101" s="60">
         <v>25</v>
       </c>
-      <c r="H101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I101" s="46" t="s">
+      <c r="H101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="J101" s="49" t="s">
+      <c r="J101" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K101" s="49" t="s">
+      <c r="K101" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L101" s="46" t="s">
+      <c r="L101" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M101" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="N101" s="46" t="s">
+      <c r="N101" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="47"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="70"/>
       <c r="M102" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N102" s="47"/>
+      <c r="N102" s="70"/>
     </row>
     <row r="103" spans="2:16" ht="24">
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="47"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="70"/>
       <c r="M103" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N103" s="47"/>
+      <c r="N103" s="70"/>
     </row>
     <row r="104" spans="2:16" ht="24">
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="47"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="70"/>
       <c r="M104" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N104" s="47"/>
+      <c r="N104" s="70"/>
     </row>
     <row r="105" spans="2:16" ht="15" thickBot="1">
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
       <c r="E105" s="51"/>
-      <c r="F105" s="60"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="51"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
-      <c r="L105" s="48"/>
+      <c r="L105" s="57"/>
       <c r="M105" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N105" s="48"/>
+      <c r="N105" s="57"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="49">
+      <c r="B106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="60">
         <v>24</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="61">
         <v>26</v>
       </c>
-      <c r="G106" s="49">
+      <c r="G106" s="60">
         <v>26</v>
       </c>
-      <c r="H106" s="55" t="s">
+      <c r="H106" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="I106" s="70" t="s">
+      <c r="I106" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="J106" s="49" t="s">
+      <c r="J106" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K106" s="49" t="s">
+      <c r="K106" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L106" s="46" t="s">
+      <c r="L106" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M106" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N106" s="46" t="s">
+      <c r="N106" s="68" t="s">
         <v>203</v>
       </c>
       <c r="P106" t="s">
@@ -6891,38 +6915,38 @@
       </c>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="47"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="50"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="47"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="70"/>
       <c r="M107" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="N107" s="47"/>
+      <c r="N107" s="70"/>
     </row>
     <row r="108" spans="2:16" ht="15" thickBot="1">
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="51"/>
-      <c r="F108" s="60"/>
+      <c r="F108" s="53"/>
       <c r="G108" s="51"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="66"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="76"/>
       <c r="J108" s="51"/>
       <c r="K108" s="51"/>
-      <c r="L108" s="48"/>
+      <c r="L108" s="57"/>
       <c r="M108" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="N108" s="48"/>
+      <c r="N108" s="57"/>
     </row>
     <row r="109" spans="2:16" ht="24.75" thickBot="1">
       <c r="B109" s="24" t="s">
@@ -6969,43 +6993,43 @@
       </c>
     </row>
     <row r="110" spans="2:16" ht="15" thickTop="1">
-      <c r="B110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="62">
+      <c r="B110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="50">
         <v>26</v>
       </c>
-      <c r="F110" s="63">
+      <c r="F110" s="52">
         <v>28</v>
       </c>
-      <c r="G110" s="62">
+      <c r="G110" s="50">
         <v>28</v>
       </c>
-      <c r="H110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I110" s="64" t="s">
+      <c r="H110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I110" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="J110" s="62" t="s">
+      <c r="J110" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K110" s="62" t="s">
+      <c r="K110" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L110" s="61" t="s">
+      <c r="L110" s="56" t="s">
         <v>88</v>
       </c>
       <c r="M110" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N110" s="61" t="s">
+      <c r="N110" s="56" t="s">
         <v>206</v>
       </c>
       <c r="P110" t="s">
@@ -7013,222 +7037,222 @@
       </c>
     </row>
     <row r="111" spans="2:16" ht="24">
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="47"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="70"/>
       <c r="M111" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N111" s="47"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="2:16" ht="24">
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="47"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="70"/>
       <c r="M112" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N112" s="47"/>
+      <c r="N112" s="70"/>
     </row>
     <row r="113" spans="2:14" ht="15" thickBot="1">
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="51"/>
-      <c r="F113" s="60"/>
+      <c r="F113" s="53"/>
       <c r="G113" s="51"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="66"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="76"/>
       <c r="J113" s="51"/>
       <c r="K113" s="51"/>
-      <c r="L113" s="48"/>
+      <c r="L113" s="57"/>
       <c r="M113" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="N113" s="48"/>
+      <c r="N113" s="57"/>
     </row>
     <row r="114" spans="2:14" ht="36">
-      <c r="B114" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="49">
+      <c r="B114" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="60">
         <v>18</v>
       </c>
-      <c r="D114" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E114" s="49">
+      <c r="D114" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="60">
         <v>27</v>
       </c>
-      <c r="F114" s="58">
+      <c r="F114" s="61">
         <v>29</v>
       </c>
-      <c r="G114" s="49">
+      <c r="G114" s="60">
         <v>29</v>
       </c>
-      <c r="H114" s="55" t="s">
+      <c r="H114" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="I114" s="46" t="s">
+      <c r="I114" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="J114" s="49" t="s">
+      <c r="J114" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K114" s="49" t="s">
+      <c r="K114" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L114" s="46" t="s">
+      <c r="L114" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M114" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="N114" s="46" t="s">
+      <c r="N114" s="68" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="24">
-      <c r="B115" s="47"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="50"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="47"/>
-      <c r="J115" s="50"/>
-      <c r="K115" s="50"/>
-      <c r="L115" s="47"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="70"/>
       <c r="M115" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N115" s="47"/>
+      <c r="N115" s="70"/>
     </row>
     <row r="116" spans="2:14">
-      <c r="B116" s="47"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="47"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="70"/>
       <c r="M116" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N116" s="47"/>
+      <c r="N116" s="70"/>
     </row>
     <row r="117" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B117" s="48"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="51"/>
-      <c r="D117" s="48"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="51"/>
-      <c r="F117" s="60"/>
+      <c r="F117" s="53"/>
       <c r="G117" s="51"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="48"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="57"/>
       <c r="J117" s="51"/>
       <c r="K117" s="51"/>
-      <c r="L117" s="48"/>
+      <c r="L117" s="57"/>
       <c r="M117" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="N117" s="48"/>
+      <c r="N117" s="57"/>
     </row>
     <row r="118" spans="2:14" ht="36">
-      <c r="B118" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="49">
+      <c r="B118" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="60">
         <v>19</v>
       </c>
-      <c r="D118" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118" s="49">
+      <c r="D118" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="60">
         <v>28</v>
       </c>
-      <c r="F118" s="58">
+      <c r="F118" s="61">
         <v>30</v>
       </c>
-      <c r="G118" s="49">
+      <c r="G118" s="60">
         <v>30</v>
       </c>
-      <c r="H118" s="55" t="s">
+      <c r="H118" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="I118" s="46" t="s">
+      <c r="I118" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="J118" s="49" t="s">
+      <c r="J118" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K118" s="49" t="s">
+      <c r="K118" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L118" s="46" t="s">
+      <c r="L118" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M118" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="N118" s="46" t="s">
+      <c r="N118" s="68" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="119" spans="2:14" ht="36">
-      <c r="B119" s="47"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="47"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="70"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="66"/>
+      <c r="L119" s="70"/>
       <c r="M119" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="N119" s="47"/>
+      <c r="N119" s="70"/>
     </row>
     <row r="120" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B120" s="48"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="51"/>
-      <c r="D120" s="48"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="51"/>
-      <c r="F120" s="60"/>
+      <c r="F120" s="53"/>
       <c r="G120" s="51"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="48"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="57"/>
       <c r="J120" s="51"/>
       <c r="K120" s="51"/>
-      <c r="L120" s="48"/>
+      <c r="L120" s="57"/>
       <c r="M120" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="N120" s="48"/>
+      <c r="N120" s="57"/>
     </row>
     <row r="121" spans="2:14" ht="48.75" thickBot="1">
       <c r="B121" s="17">
@@ -7272,96 +7296,96 @@
       </c>
     </row>
     <row r="122" spans="2:14" ht="24">
-      <c r="B122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F122" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="49">
+      <c r="B122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" s="60">
         <v>32</v>
       </c>
-      <c r="H122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I122" s="46" t="s">
+      <c r="H122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="J122" s="49" t="s">
+      <c r="J122" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K122" s="49" t="s">
+      <c r="K122" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L122" s="46" t="s">
+      <c r="L122" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M122" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="N122" s="46" t="s">
+      <c r="N122" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="24">
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
-      <c r="L123" s="47"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="70"/>
       <c r="M123" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N123" s="47"/>
+      <c r="N123" s="70"/>
     </row>
     <row r="124" spans="2:14">
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="50"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="47"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="66"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="70"/>
       <c r="M124" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="N124" s="47"/>
+      <c r="N124" s="70"/>
     </row>
     <row r="125" spans="2:14" ht="15" thickBot="1">
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="54"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="84"/>
       <c r="G125" s="51"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
       <c r="J125" s="51"/>
       <c r="K125" s="51"/>
-      <c r="L125" s="48"/>
+      <c r="L125" s="57"/>
       <c r="M125" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="N125" s="48"/>
+      <c r="N125" s="57"/>
     </row>
     <row r="126" spans="2:14" ht="15" thickBot="1">
       <c r="B126" s="24" t="s">
@@ -7447,32 +7471,254 @@
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="N118:N120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="N101:N105"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="L110:L113"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="K94:K100"/>
+    <mergeCell ref="L94:L100"/>
+    <mergeCell ref="N94:N100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="H101:H105"/>
+    <mergeCell ref="N106:N108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I94:I100"/>
+    <mergeCell ref="J94:J100"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="N88:N93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="I88:I93"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="L88:L93"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="N75:N79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B17:B23"/>
     <mergeCell ref="C17:C23"/>
     <mergeCell ref="D17:D23"/>
     <mergeCell ref="E17:E23"/>
@@ -7497,254 +7743,32 @@
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="K11:K16"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K32:K38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="K54:K58"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="N75:N79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="K75:K79"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="N88:N93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
-    <mergeCell ref="I88:I93"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="L88:L93"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="E94:E100"/>
-    <mergeCell ref="F94:F100"/>
-    <mergeCell ref="G94:G100"/>
-    <mergeCell ref="H94:H100"/>
-    <mergeCell ref="I94:I100"/>
-    <mergeCell ref="J94:J100"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="K94:K100"/>
-    <mergeCell ref="L94:L100"/>
-    <mergeCell ref="N94:N100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="E101:E105"/>
-    <mergeCell ref="F101:F105"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="H101:H105"/>
-    <mergeCell ref="N106:N108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
-    <mergeCell ref="L106:L108"/>
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="N101:N105"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="L110:L113"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:K120"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Karman Delta Arm/Rocket arming system.xlsx
+++ b/Karman Delta Arm/Rocket arming system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\GitHub\AltiumGithub\Karman Delta Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83159B67-4154-458D-B4A4-41D4EA42FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB4E95-6CA4-4C5B-A7E9-3598E1CE5C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37965" yWindow="2010" windowWidth="21600" windowHeight="12645" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="399">
   <si>
     <t>Failure Mode</t>
   </si>
@@ -1268,6 +1268,12 @@
   </si>
   <si>
     <t>Sort transceiver 3D body shape - currently on layer 1</t>
+  </si>
+  <si>
+    <t>Label Inputs &amp; Outputs</t>
+  </si>
+  <si>
+    <t>Check Poly Fills for unconnected copper</t>
   </si>
 </sst>
 </file>
@@ -3904,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E11162-B732-4DE9-8322-FD8094AB6283}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4196,6 +4202,9 @@
       <c r="A41" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="B41" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
@@ -4240,10 +4249,23 @@
       <c r="A48" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="B48" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="1:1" ht="30">
       <c r="A49" s="1" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Karman Delta Arm/Rocket arming system.xlsx
+++ b/Karman Delta Arm/Rocket arming system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\GitHub\AltiumGithub\Karman Delta Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB4E95-6CA4-4C5B-A7E9-3598E1CE5C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E214F-9733-4C84-80B4-A113E943FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37965" yWindow="2010" windowWidth="21600" windowHeight="12645" tabRatio="745" activeTab="4" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
+    <workbookView xWindow="34695" yWindow="2895" windowWidth="32160" windowHeight="16740" tabRatio="745" activeTab="5" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="FMEA" sheetId="2" r:id="rId3"/>
     <sheet name="Power State Diagram" sheetId="3" r:id="rId4"/>
     <sheet name="TO DO" sheetId="5" r:id="rId5"/>
-    <sheet name="Problems" sheetId="4" r:id="rId6"/>
-    <sheet name="Lessons Learned" sheetId="6" r:id="rId7"/>
-    <sheet name="Calculations" sheetId="8" r:id="rId8"/>
-    <sheet name="uC pinout" sheetId="9" r:id="rId9"/>
-    <sheet name="New Parts" sheetId="10" r:id="rId10"/>
+    <sheet name="Bits to purchase" sheetId="11" r:id="rId6"/>
+    <sheet name="Problems" sheetId="4" r:id="rId7"/>
+    <sheet name="Lessons Learned" sheetId="6" r:id="rId8"/>
+    <sheet name="Calculations" sheetId="8" r:id="rId9"/>
+    <sheet name="uC pinout" sheetId="9" r:id="rId10"/>
+    <sheet name="New Parts" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="463">
   <si>
     <t>Failure Mode</t>
   </si>
@@ -886,9 +887,6 @@
   </si>
   <si>
     <t>Diodes on all battery connections</t>
-  </si>
-  <si>
-    <t>Add RS485 line terminators</t>
   </si>
   <si>
     <t>Add conformal coating</t>
@@ -1201,9 +1199,6 @@
     <t>Add conformal coating layers</t>
   </si>
   <si>
-    <t>Sort RS485 driver to single pair version</t>
-  </si>
-  <si>
     <t>Sort Outjobs</t>
   </si>
   <si>
@@ -1274,6 +1269,204 @@
   </si>
   <si>
     <t>Check Poly Fills for unconnected copper</t>
+  </si>
+  <si>
+    <t>Add CAN line terminators</t>
+  </si>
+  <si>
+    <t>Redo logo cutout to increase breakout size</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/hexagon-nuts/655625-HPN-M8-RENY-BL</t>
+  </si>
+  <si>
+    <t>M8 Nut - Reny</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>M8 glass reinforced Nylon - non conductive nut</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Battery pack connector receptacle</t>
+  </si>
+  <si>
+    <t>Battery pack crimp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPN-M8-RENY-BL </t>
+  </si>
+  <si>
+    <t>ACCU</t>
+  </si>
+  <si>
+    <t>Output connector receptacle</t>
+  </si>
+  <si>
+    <t>Output crimp</t>
+  </si>
+  <si>
+    <t>ST-Link programmer</t>
+  </si>
+  <si>
+    <t>CAN connector receptacle</t>
+  </si>
+  <si>
+    <t>CAN crimp</t>
+  </si>
+  <si>
+    <t>USB to serial lead</t>
+  </si>
+  <si>
+    <t>PP3 battery clip</t>
+  </si>
+  <si>
+    <t>Serial connector receptacle</t>
+  </si>
+  <si>
+    <t>Serial crimp</t>
+  </si>
+  <si>
+    <t>Manuf</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>Dev boards</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>Flux pen</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>Flux-off</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Tweezers</t>
+  </si>
+  <si>
+    <t>Lint free cloths</t>
+  </si>
+  <si>
+    <t>Dev Kit</t>
+  </si>
+  <si>
+    <t>Cotton buds (wooden)</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/chemtronics/es835be/cleaner-flux-off-200ml/dp/860414</t>
+  </si>
+  <si>
+    <t>Peelable Mask</t>
+  </si>
+  <si>
+    <t>For masking connectors &amp; switches before conformal coating</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/techspray/2211-8sq/solder-mask-peelable-wondermask/dp/2501338</t>
+  </si>
+  <si>
+    <t>Conformal coating</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/electrolube/apl400h/coating-conformal-acrylic/dp/3026838</t>
+  </si>
+  <si>
+    <t>Acrylic Protective Lacquer</t>
+  </si>
+  <si>
+    <t>Threadlock 222</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/loctite/222-10ml/threadlocker-bottle-10ml-purple/dp/537056</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Loctite</t>
+  </si>
+  <si>
+    <t>222, 10ML</t>
+  </si>
+  <si>
+    <t>APL400H</t>
+  </si>
+  <si>
+    <t>ELECTROLUBE</t>
+  </si>
+  <si>
+    <t>2211-8SQ</t>
+  </si>
+  <si>
+    <t>TECHSPRAY</t>
+  </si>
+  <si>
+    <t>CW8400</t>
+  </si>
+  <si>
+    <t>CHEMTRONICS</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/chemtronics/cw8400/dispensing-pen-flux-lead-free/dp/9599568</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>ES835BE</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/multicomp-pro/mp015562/clean-room-wiper-100x100mm-150sheet/dp/4668791</t>
+  </si>
+  <si>
+    <t>MP015562</t>
+  </si>
+  <si>
+    <t>MULTICOMP PRO</t>
+  </si>
+  <si>
+    <t>Iso-Propyl Alcohol</t>
+  </si>
+  <si>
+    <t>Keeps nut in place - saves having to over-tighten</t>
+  </si>
+  <si>
+    <t>60/40 Sn/Pb</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/erem/5sasl/tweezer-economic-115mm/dp/1014356</t>
+  </si>
+  <si>
+    <t>Fine tip</t>
+  </si>
+  <si>
+    <t>5SASL</t>
+  </si>
+  <si>
+    <t>WELLER EREM</t>
+  </si>
+  <si>
+    <t>Anti-static bags (metalised)</t>
   </si>
 </sst>
 </file>
@@ -1665,79 +1858,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1749,37 +1948,31 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2979,19 +3172,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>281</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>282</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -3013,7 +3206,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D3" s="7">
         <v>3.7</v>
@@ -3022,21 +3215,21 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57">
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="7">
         <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3044,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3052,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3066,7 +3259,7 @@
         <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3074,10 +3267,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3085,18 +3278,18 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -3104,7 +3297,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -3112,7 +3305,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -3120,7 +3313,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
@@ -3131,30 +3324,30 @@
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D14" s="7">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="7">
         <v>4000</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H15" s="45"/>
     </row>
@@ -3165,16 +3358,16 @@
     </row>
     <row r="18" spans="2:9" ht="42.75">
       <c r="B18" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.5">
@@ -3182,10 +3375,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.5">
@@ -3193,10 +3386,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="28.5">
@@ -3204,10 +3397,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -3222,104 +3415,104 @@
     </row>
     <row r="24" spans="2:9" ht="28.5">
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.5">
       <c r="B25" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="57">
       <c r="B26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.5">
       <c r="B27" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.5">
       <c r="B28" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.5">
       <c r="B29" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.5">
       <c r="B30" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="71.25">
       <c r="B31" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.5">
       <c r="B32" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.5">
       <c r="B33" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="28.5">
       <c r="B35" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>275</v>
@@ -3327,84 +3520,84 @@
     </row>
     <row r="36" spans="2:8" ht="28.5">
       <c r="B36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="28.5">
       <c r="B37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="28.5">
       <c r="B39" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15">
       <c r="B41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -3421,7 +3614,7 @@
     </row>
     <row r="52" spans="2:3" ht="15">
       <c r="B52" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="28.5">
@@ -3429,7 +3622,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3439,6 +3632,3372 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3FBF9-418F-478C-B431-B3CE13D40659}">
+  <dimension ref="B2:S127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="9" style="30"/>
+    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="15" thickBot="1"/>
+    <row r="3" spans="2:16" ht="15" thickBot="1">
+      <c r="B3" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="78"/>
+    </row>
+    <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1">
+      <c r="B4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="84"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickTop="1">
+      <c r="B5" s="62">
+        <v>2</v>
+      </c>
+      <c r="C5" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" s="62">
+        <v>2</v>
+      </c>
+      <c r="E5" s="62">
+        <v>2</v>
+      </c>
+      <c r="F5" s="63">
+        <v>2</v>
+      </c>
+      <c r="G5" s="62">
+        <v>2</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="49">
+        <v>3</v>
+      </c>
+      <c r="C7" s="49">
+        <v>2</v>
+      </c>
+      <c r="D7" s="49">
+        <v>3</v>
+      </c>
+      <c r="E7" s="49">
+        <v>3</v>
+      </c>
+      <c r="F7" s="58">
+        <v>3</v>
+      </c>
+      <c r="G7" s="49">
+        <v>3</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1">
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4</v>
+      </c>
+      <c r="F9" s="32">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="20">
+        <v>-2</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1">
+      <c r="B10" s="17">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="32">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>5</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="24">
+      <c r="B11" s="49">
+        <v>5</v>
+      </c>
+      <c r="C11" s="49">
+        <v>5</v>
+      </c>
+      <c r="D11" s="49">
+        <v>6</v>
+      </c>
+      <c r="E11" s="49">
+        <v>6</v>
+      </c>
+      <c r="F11" s="58">
+        <v>6</v>
+      </c>
+      <c r="G11" s="49">
+        <v>6</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="24">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="24">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="36">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="24">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:16" ht="24">
+      <c r="B17" s="49">
+        <v>6</v>
+      </c>
+      <c r="C17" s="49">
+        <v>6</v>
+      </c>
+      <c r="D17" s="49">
+        <v>7</v>
+      </c>
+      <c r="E17" s="49">
+        <v>7</v>
+      </c>
+      <c r="F17" s="58">
+        <v>7</v>
+      </c>
+      <c r="G17" s="49">
+        <v>7</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="24">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="2:16" ht="24">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="2:16" ht="24">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="2:16" ht="24">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="2:16" ht="36">
+      <c r="B24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="49">
+        <v>8</v>
+      </c>
+      <c r="E24" s="49">
+        <v>8</v>
+      </c>
+      <c r="F24" s="58">
+        <v>8</v>
+      </c>
+      <c r="G24" s="49">
+        <v>8</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="24">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="24">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="24">
+      <c r="B28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="49">
+        <v>9</v>
+      </c>
+      <c r="E28" s="49">
+        <v>9</v>
+      </c>
+      <c r="F28" s="58">
+        <v>9</v>
+      </c>
+      <c r="G28" s="49">
+        <v>9</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="24">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="2:16" ht="24">
+      <c r="B32" s="49">
+        <v>7</v>
+      </c>
+      <c r="C32" s="49">
+        <v>7</v>
+      </c>
+      <c r="D32" s="49">
+        <v>10</v>
+      </c>
+      <c r="E32" s="49">
+        <v>10</v>
+      </c>
+      <c r="F32" s="58">
+        <v>10</v>
+      </c>
+      <c r="G32" s="49">
+        <v>10</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="24">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="36">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="24">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="2:16" ht="24">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="2:16" ht="24.75" thickTop="1">
+      <c r="B39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="62">
+        <v>8</v>
+      </c>
+      <c r="D39" s="62">
+        <v>11</v>
+      </c>
+      <c r="E39" s="62">
+        <v>11</v>
+      </c>
+      <c r="F39" s="63">
+        <v>11</v>
+      </c>
+      <c r="G39" s="62">
+        <v>11</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="24">
+      <c r="B40" s="47"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="47"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="15" thickBot="1">
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="49">
+        <v>9</v>
+      </c>
+      <c r="D43" s="49">
+        <v>12</v>
+      </c>
+      <c r="E43" s="49">
+        <v>12</v>
+      </c>
+      <c r="F43" s="58">
+        <v>12</v>
+      </c>
+      <c r="G43" s="49">
+        <v>12</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N43" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="P43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="24">
+      <c r="B44" s="47"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N44" s="65"/>
+    </row>
+    <row r="45" spans="2:16" ht="24">
+      <c r="B45" s="47"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="N45" s="65"/>
+    </row>
+    <row r="46" spans="2:16" ht="24">
+      <c r="B46" s="47"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" s="65"/>
+    </row>
+    <row r="47" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B47" s="48"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N47" s="66"/>
+    </row>
+    <row r="48" spans="2:16" ht="14.25" customHeight="1">
+      <c r="B48" s="49">
+        <v>8</v>
+      </c>
+      <c r="C48" s="49">
+        <v>10</v>
+      </c>
+      <c r="D48" s="49">
+        <v>13</v>
+      </c>
+      <c r="E48" s="49">
+        <v>13</v>
+      </c>
+      <c r="F48" s="58">
+        <v>13</v>
+      </c>
+      <c r="G48" s="49">
+        <v>13</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L48" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N48" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="24">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N49" s="47"/>
+    </row>
+    <row r="50" spans="2:16" ht="24">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="P50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="24">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N51" s="26"/>
+    </row>
+    <row r="52" spans="2:16" ht="24">
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N53" s="24"/>
+    </row>
+    <row r="54" spans="2:16" ht="24">
+      <c r="B54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="49">
+        <v>14</v>
+      </c>
+      <c r="F54" s="58">
+        <v>14</v>
+      </c>
+      <c r="G54" s="49">
+        <v>14</v>
+      </c>
+      <c r="H54" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="I54" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="P54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="2:16" ht="24">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N57" s="22"/>
+    </row>
+    <row r="58" spans="2:16" ht="15" thickBot="1">
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="N58" s="18"/>
+    </row>
+    <row r="59" spans="2:16" ht="24">
+      <c r="B59" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="49">
+        <v>11</v>
+      </c>
+      <c r="D59" s="49">
+        <v>14</v>
+      </c>
+      <c r="E59" s="49">
+        <v>15</v>
+      </c>
+      <c r="F59" s="58">
+        <v>15</v>
+      </c>
+      <c r="G59" s="49">
+        <v>15</v>
+      </c>
+      <c r="H59" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="I59" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L59" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P59" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="B60" s="47"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="24">
+      <c r="B61" s="47"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="62" spans="2:16" ht="24">
+      <c r="B62" s="47"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="2:16" ht="15" thickBot="1">
+      <c r="B63" s="48"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="N63" s="18"/>
+    </row>
+    <row r="64" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B64" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="15">
+        <v>16</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" ht="15" thickBot="1">
+      <c r="B65" s="17">
+        <v>9</v>
+      </c>
+      <c r="C65" s="15">
+        <v>12</v>
+      </c>
+      <c r="D65" s="15">
+        <v>15</v>
+      </c>
+      <c r="E65" s="15">
+        <v>16</v>
+      </c>
+      <c r="F65" s="32">
+        <v>16</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L65" s="20">
+        <v>-5</v>
+      </c>
+      <c r="M65" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N65" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="15" thickBot="1">
+      <c r="B66" s="17">
+        <v>10</v>
+      </c>
+      <c r="C66" s="15">
+        <v>13</v>
+      </c>
+      <c r="D66" s="15">
+        <v>16</v>
+      </c>
+      <c r="E66" s="15">
+        <v>17</v>
+      </c>
+      <c r="F66" s="32">
+        <v>17</v>
+      </c>
+      <c r="G66" s="15">
+        <v>17</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" s="20">
+        <v>-6</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N66" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" ht="36">
+      <c r="B67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="49">
+        <v>18</v>
+      </c>
+      <c r="F67" s="58">
+        <v>18</v>
+      </c>
+      <c r="G67" s="49">
+        <v>18</v>
+      </c>
+      <c r="H67" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="I67" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="P67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" ht="24">
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N68" s="47"/>
+    </row>
+    <row r="69" spans="2:16" ht="24">
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N69" s="47"/>
+    </row>
+    <row r="70" spans="2:16" ht="15" thickBot="1">
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N70" s="48"/>
+    </row>
+    <row r="71" spans="2:16" ht="24">
+      <c r="B71" s="49">
+        <v>11</v>
+      </c>
+      <c r="C71" s="49">
+        <v>14</v>
+      </c>
+      <c r="D71" s="49">
+        <v>17</v>
+      </c>
+      <c r="E71" s="49">
+        <v>19</v>
+      </c>
+      <c r="F71" s="58">
+        <v>19</v>
+      </c>
+      <c r="G71" s="49">
+        <v>19</v>
+      </c>
+      <c r="H71" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K71" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L71" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N71" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="24">
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N72" s="47"/>
+    </row>
+    <row r="73" spans="2:16" ht="24">
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="N73" s="47"/>
+    </row>
+    <row r="74" spans="2:16" ht="48.75" thickBot="1">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="N74" s="48"/>
+    </row>
+    <row r="75" spans="2:16" ht="36.75" thickTop="1">
+      <c r="B75" s="62">
+        <v>12</v>
+      </c>
+      <c r="C75" s="62">
+        <v>15</v>
+      </c>
+      <c r="D75" s="62">
+        <v>18</v>
+      </c>
+      <c r="E75" s="62">
+        <v>20</v>
+      </c>
+      <c r="F75" s="63">
+        <v>20</v>
+      </c>
+      <c r="G75" s="62">
+        <v>20</v>
+      </c>
+      <c r="H75" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I75" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="J75" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="L75" s="72">
+        <v>-7</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N75" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="24">
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="N76" s="47"/>
+    </row>
+    <row r="77" spans="2:16" ht="24">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="N77" s="47"/>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N78" s="47"/>
+    </row>
+    <row r="79" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N79" s="48"/>
+    </row>
+    <row r="80" spans="2:16">
+      <c r="B80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="58">
+        <v>21</v>
+      </c>
+      <c r="G80" s="49">
+        <v>21</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J80" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K80" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L80" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N80" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" ht="48">
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N81" s="47"/>
+    </row>
+    <row r="82" spans="2:19" ht="24">
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N82" s="47"/>
+    </row>
+    <row r="83" spans="2:19" ht="48.75" thickBot="1">
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="N83" s="48"/>
+    </row>
+    <row r="84" spans="2:19">
+      <c r="B84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="58">
+        <v>22</v>
+      </c>
+      <c r="G84" s="49">
+        <v>22</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="J84" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K84" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L84" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M84" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N84" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="24">
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N85" s="47"/>
+    </row>
+    <row r="86" spans="2:19" ht="24">
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N86" s="47"/>
+      <c r="S86" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="24.75" thickBot="1">
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N87" s="48"/>
+    </row>
+    <row r="88" spans="2:19">
+      <c r="B88" s="49">
+        <v>13</v>
+      </c>
+      <c r="C88" s="49">
+        <v>16</v>
+      </c>
+      <c r="D88" s="49">
+        <v>19</v>
+      </c>
+      <c r="E88" s="49">
+        <v>21</v>
+      </c>
+      <c r="F88" s="58">
+        <v>23</v>
+      </c>
+      <c r="G88" s="49">
+        <v>23</v>
+      </c>
+      <c r="H88" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="I88" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J88" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K88" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L88" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M88" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="24">
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N89" s="47"/>
+    </row>
+    <row r="90" spans="2:19">
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N90" s="47"/>
+    </row>
+    <row r="91" spans="2:19">
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N91" s="47"/>
+    </row>
+    <row r="92" spans="2:19" ht="24">
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="N92" s="47"/>
+    </row>
+    <row r="93" spans="2:19" ht="24.75" thickBot="1">
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N93" s="48"/>
+    </row>
+    <row r="94" spans="2:19">
+      <c r="B94" s="49">
+        <v>14</v>
+      </c>
+      <c r="C94" s="49">
+        <v>17</v>
+      </c>
+      <c r="D94" s="49">
+        <v>20</v>
+      </c>
+      <c r="E94" s="49">
+        <v>22</v>
+      </c>
+      <c r="F94" s="58">
+        <v>24</v>
+      </c>
+      <c r="G94" s="49">
+        <v>24</v>
+      </c>
+      <c r="H94" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="J94" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K94" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L94" s="67">
+        <v>-7</v>
+      </c>
+      <c r="M94" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="N94" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" ht="24">
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="68"/>
+      <c r="M95" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N95" s="47"/>
+    </row>
+    <row r="96" spans="2:19" ht="24">
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N96" s="47"/>
+    </row>
+    <row r="97" spans="2:16" ht="24">
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="68"/>
+      <c r="M97" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="N97" s="47"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N98" s="47"/>
+    </row>
+    <row r="99" spans="2:16" ht="24">
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="68"/>
+      <c r="M99" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="N99" s="47"/>
+    </row>
+    <row r="100" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N100" s="48"/>
+    </row>
+    <row r="101" spans="2:16">
+      <c r="B101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="49">
+        <v>23</v>
+      </c>
+      <c r="F101" s="58">
+        <v>25</v>
+      </c>
+      <c r="G101" s="49">
+        <v>25</v>
+      </c>
+      <c r="H101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="J101" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K101" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L101" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M101" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N101" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16">
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N102" s="47"/>
+    </row>
+    <row r="103" spans="2:16" ht="24">
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="47"/>
+      <c r="M103" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N103" s="47"/>
+    </row>
+    <row r="104" spans="2:16" ht="24">
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="47"/>
+      <c r="M104" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="N104" s="47"/>
+    </row>
+    <row r="105" spans="2:16" ht="15" thickBot="1">
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N105" s="48"/>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="B106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="49">
+        <v>24</v>
+      </c>
+      <c r="F106" s="58">
+        <v>26</v>
+      </c>
+      <c r="G106" s="49">
+        <v>26</v>
+      </c>
+      <c r="H106" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="I106" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J106" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K106" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L106" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M106" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N106" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="P106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16">
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="47"/>
+      <c r="M107" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N107" s="47"/>
+    </row>
+    <row r="108" spans="2:16" ht="15" thickBot="1">
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="N108" s="48"/>
+    </row>
+    <row r="109" spans="2:16" ht="24.75" thickBot="1">
+      <c r="B109" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109" s="15">
+        <v>25</v>
+      </c>
+      <c r="F109" s="32">
+        <v>27</v>
+      </c>
+      <c r="G109" s="15">
+        <v>27</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I109" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L109" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M109" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N109" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="P109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" ht="15" thickTop="1">
+      <c r="B110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="62">
+        <v>26</v>
+      </c>
+      <c r="F110" s="63">
+        <v>28</v>
+      </c>
+      <c r="G110" s="62">
+        <v>28</v>
+      </c>
+      <c r="H110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I110" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="J110" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="K110" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="L110" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N110" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="P110" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" ht="24">
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N111" s="47"/>
+    </row>
+    <row r="112" spans="2:16" ht="24">
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N112" s="47"/>
+    </row>
+    <row r="113" spans="2:14" ht="15" thickBot="1">
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="N113" s="48"/>
+    </row>
+    <row r="114" spans="2:14" ht="36">
+      <c r="B114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="49">
+        <v>18</v>
+      </c>
+      <c r="D114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="49">
+        <v>27</v>
+      </c>
+      <c r="F114" s="58">
+        <v>29</v>
+      </c>
+      <c r="G114" s="49">
+        <v>29</v>
+      </c>
+      <c r="H114" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I114" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J114" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L114" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M114" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="N114" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" ht="24">
+      <c r="B115" s="47"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N115" s="47"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="47"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N116" s="47"/>
+    </row>
+    <row r="117" spans="2:14" ht="24.75" thickBot="1">
+      <c r="B117" s="48"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="48"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="48"/>
+      <c r="M117" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="N117" s="48"/>
+    </row>
+    <row r="118" spans="2:14" ht="36">
+      <c r="B118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="49">
+        <v>19</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="49">
+        <v>28</v>
+      </c>
+      <c r="F118" s="58">
+        <v>30</v>
+      </c>
+      <c r="G118" s="49">
+        <v>30</v>
+      </c>
+      <c r="H118" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I118" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J118" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K118" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L118" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M118" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="N118" s="46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" ht="36">
+      <c r="B119" s="47"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="N119" s="47"/>
+    </row>
+    <row r="120" spans="2:14" ht="24.75" thickBot="1">
+      <c r="B120" s="48"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="60"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="48"/>
+      <c r="M120" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N120" s="48"/>
+    </row>
+    <row r="121" spans="2:14" ht="48.75" thickBot="1">
+      <c r="B121" s="17">
+        <v>1</v>
+      </c>
+      <c r="C121" s="15">
+        <v>20</v>
+      </c>
+      <c r="D121" s="15">
+        <v>1</v>
+      </c>
+      <c r="E121" s="15">
+        <v>1</v>
+      </c>
+      <c r="F121" s="32">
+        <v>31</v>
+      </c>
+      <c r="G121" s="15">
+        <v>31</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I121" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="J121" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K121" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L121" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M121" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N121" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" ht="24">
+      <c r="B122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" s="49">
+        <v>32</v>
+      </c>
+      <c r="H122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="J122" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K122" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L122" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M122" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N122" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" ht="24">
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="47"/>
+      <c r="M123" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N123" s="47"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="50"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="47"/>
+      <c r="M124" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="N124" s="47"/>
+    </row>
+    <row r="125" spans="2:14" ht="15" thickBot="1">
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="48"/>
+      <c r="M125" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="N125" s="48"/>
+    </row>
+    <row r="126" spans="2:14" ht="15" thickBot="1">
+      <c r="B126" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F126" s="32">
+        <v>32</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J126" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L126" s="20">
+        <v>-5</v>
+      </c>
+      <c r="M126" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N126" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" ht="15" thickBot="1">
+      <c r="B127" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F127" s="32">
+        <v>1</v>
+      </c>
+      <c r="G127" s="15">
+        <v>1</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J127" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K127" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L127" s="20">
+        <v>-6</v>
+      </c>
+      <c r="M127" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N127" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="298">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="K17:K23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="N75:N79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="N88:N93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="I88:I93"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="L88:L93"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I94:I100"/>
+    <mergeCell ref="J94:J100"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="K94:K100"/>
+    <mergeCell ref="L94:L100"/>
+    <mergeCell ref="N94:N100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="H101:H105"/>
+    <mergeCell ref="N106:N108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="N101:N105"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="L110:L113"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="N118:N120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE67EDC-82AC-429D-88AC-E2E8E455B911}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3650,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -3666,7 +7225,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -3683,13 +7242,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3702,10 +7261,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
@@ -3844,7 +7403,7 @@
     </row>
     <row r="18" spans="4:5" ht="28.5">
       <c r="D18" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3867,7 +7426,7 @@
     </row>
     <row r="22" spans="4:5" ht="28.5">
       <c r="D22" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -3875,17 +7434,17 @@
     </row>
     <row r="25" spans="4:5">
       <c r="D25" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="D26" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3912,8 +7471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E11162-B732-4DE9-8322-FD8094AB6283}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3980,7 +7539,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4004,18 +7563,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4072,30 +7633,36 @@
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>276</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
+      <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>32</v>
@@ -4106,7 +7673,7 @@
         <v>367</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4114,20 +7681,20 @@
         <v>368</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
       <c r="A29" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>32</v>
@@ -4135,7 +7702,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>32</v>
@@ -4143,25 +7710,28 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>32</v>
@@ -4169,7 +7739,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>32</v>
@@ -4177,43 +7747,49 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>32</v>
@@ -4221,49 +7797,49 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>398</v>
       </c>
@@ -4274,6 +7850,385 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062DA91B-8FB1-42E1-8F78-2FA3A3E1477E}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.5" customWidth="1"/>
+    <col min="8" max="8" width="55.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="A20" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" t="s">
+        <v>440</v>
+      </c>
+      <c r="F21">
+        <v>9599568</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" t="s">
+        <v>451</v>
+      </c>
+      <c r="E23" t="s">
+        <v>440</v>
+      </c>
+      <c r="F23">
+        <v>860414</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E24" t="s">
+        <v>440</v>
+      </c>
+      <c r="F24">
+        <v>4668791</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" t="s">
+        <v>446</v>
+      </c>
+      <c r="D27" t="s">
+        <v>445</v>
+      </c>
+      <c r="E27" t="s">
+        <v>440</v>
+      </c>
+      <c r="F27">
+        <v>2501338</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="H27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" t="s">
+        <v>443</v>
+      </c>
+      <c r="E28" t="s">
+        <v>440</v>
+      </c>
+      <c r="F28">
+        <v>3026838</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="H28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" t="s">
+        <v>442</v>
+      </c>
+      <c r="E29" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29">
+        <v>537056</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="H29" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>450</v>
+      </c>
+      <c r="H30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15">
+      <c r="A32" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="D33" t="s">
+        <v>460</v>
+      </c>
+      <c r="E33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33">
+        <v>1014356</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="H33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{81F61562-A769-40D5-8796-B69511767642}"/>
+    <hyperlink ref="G23" r:id="rId2" xr:uid="{232BAE3F-A975-4D69-B8C5-5954671752F8}"/>
+    <hyperlink ref="G27" r:id="rId3" xr:uid="{7BEF299E-ADE1-4AE2-84DA-D66885D54700}"/>
+    <hyperlink ref="G28" r:id="rId4" xr:uid="{1EF8ACF8-D561-47BA-963C-C17B2436FD60}"/>
+    <hyperlink ref="G29" r:id="rId5" xr:uid="{941E74FF-2356-4A7D-8B65-A589D7839EB8}"/>
+    <hyperlink ref="G21" r:id="rId6" xr:uid="{86A28CA9-935E-4116-A8B7-E2D4F282CADE}"/>
+    <hyperlink ref="G24" r:id="rId7" xr:uid="{1EF97BBF-089A-430A-8FE3-449902852987}"/>
+    <hyperlink ref="G33" r:id="rId8" xr:uid="{DE4C2826-E46B-4367-AEEB-F0D92150305C}"/>
+    <hyperlink ref="C33" r:id="rId9" display="https://uk.farnell.com/c/tools-production-supplies/tools-hand-workholding/tweezers?brand=weller-erem" xr:uid="{917B40B0-07FF-440B-9D2C-F8AF28993DED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03095054-2AE4-4924-A1C8-63632743E825}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4287,7 +8242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3088DDB1-6775-4E99-BEAA-2B2DCCF23E2B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -4322,7 +8277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFAF250-9E30-4C8F-8A0D-6D92E94AA6E7}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -4429,3370 +8384,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE3FBF9-418F-478C-B431-B3CE13D40659}">
-  <dimension ref="B2:S127"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="6" max="6" width="9" style="30"/>
-    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" ht="15" thickBot="1"/>
-    <row r="3" spans="2:16" ht="15" thickBot="1">
-      <c r="B3" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1">
-      <c r="B4" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickTop="1">
-      <c r="B5" s="50">
-        <v>2</v>
-      </c>
-      <c r="C5" s="50">
-        <v>1</v>
-      </c>
-      <c r="D5" s="50">
-        <v>2</v>
-      </c>
-      <c r="E5" s="50">
-        <v>2</v>
-      </c>
-      <c r="F5" s="52">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50">
-        <v>2</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="60">
-        <v>3</v>
-      </c>
-      <c r="C7" s="60">
-        <v>2</v>
-      </c>
-      <c r="D7" s="60">
-        <v>3</v>
-      </c>
-      <c r="E7" s="60">
-        <v>3</v>
-      </c>
-      <c r="F7" s="61">
-        <v>3</v>
-      </c>
-      <c r="G7" s="60">
-        <v>3</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-    </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1">
-      <c r="B9" s="17">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15">
-        <v>4</v>
-      </c>
-      <c r="E9" s="15">
-        <v>4</v>
-      </c>
-      <c r="F9" s="32">
-        <v>4</v>
-      </c>
-      <c r="G9" s="15">
-        <v>4</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="20">
-        <v>-2</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1">
-      <c r="B10" s="17">
-        <v>10</v>
-      </c>
-      <c r="C10" s="15">
-        <v>4</v>
-      </c>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
-      <c r="E10" s="15">
-        <v>5</v>
-      </c>
-      <c r="F10" s="32">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15">
-        <v>5</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="24">
-      <c r="B11" s="60">
-        <v>5</v>
-      </c>
-      <c r="C11" s="60">
-        <v>5</v>
-      </c>
-      <c r="D11" s="60">
-        <v>6</v>
-      </c>
-      <c r="E11" s="60">
-        <v>6</v>
-      </c>
-      <c r="F11" s="61">
-        <v>6</v>
-      </c>
-      <c r="G11" s="60">
-        <v>6</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="24">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="24">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="36">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="24">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="2:16" ht="24">
-      <c r="B17" s="60">
-        <v>6</v>
-      </c>
-      <c r="C17" s="60">
-        <v>6</v>
-      </c>
-      <c r="D17" s="60">
-        <v>7</v>
-      </c>
-      <c r="E17" s="60">
-        <v>7</v>
-      </c>
-      <c r="F17" s="61">
-        <v>7</v>
-      </c>
-      <c r="G17" s="60">
-        <v>7</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="24">
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="2:16" ht="24">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="26"/>
-    </row>
-    <row r="21" spans="2:16" ht="24">
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="2:16" ht="24">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" s="26"/>
-    </row>
-    <row r="23" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="2:16" ht="36">
-      <c r="B24" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="60">
-        <v>8</v>
-      </c>
-      <c r="E24" s="60">
-        <v>8</v>
-      </c>
-      <c r="F24" s="61">
-        <v>8</v>
-      </c>
-      <c r="G24" s="60">
-        <v>8</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="24">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="P25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="24">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="24">
-      <c r="B28" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="60">
-        <v>9</v>
-      </c>
-      <c r="E28" s="60">
-        <v>9</v>
-      </c>
-      <c r="F28" s="61">
-        <v>9</v>
-      </c>
-      <c r="G28" s="60">
-        <v>9</v>
-      </c>
-      <c r="H28" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N29" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="24">
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="N30" s="26"/>
-    </row>
-    <row r="31" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="2:16" ht="24">
-      <c r="B32" s="60">
-        <v>7</v>
-      </c>
-      <c r="C32" s="60">
-        <v>7</v>
-      </c>
-      <c r="D32" s="60">
-        <v>10</v>
-      </c>
-      <c r="E32" s="60">
-        <v>10</v>
-      </c>
-      <c r="F32" s="61">
-        <v>10</v>
-      </c>
-      <c r="G32" s="60">
-        <v>10</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="L32" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="24">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="36">
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="N34" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="P34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="24">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="N35" s="22"/>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N36" s="22"/>
-    </row>
-    <row r="37" spans="2:16" ht="24">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="N37" s="22"/>
-    </row>
-    <row r="38" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" spans="2:16" ht="24.75" thickTop="1">
-      <c r="B39" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="50">
-        <v>8</v>
-      </c>
-      <c r="D39" s="50">
-        <v>11</v>
-      </c>
-      <c r="E39" s="50">
-        <v>11</v>
-      </c>
-      <c r="F39" s="52">
-        <v>11</v>
-      </c>
-      <c r="G39" s="50">
-        <v>11</v>
-      </c>
-      <c r="H39" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="J39" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="L39" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="24">
-      <c r="B40" s="70"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="70"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N41" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="P41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="15" thickBot="1">
-      <c r="B42" s="57"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="60">
-        <v>9</v>
-      </c>
-      <c r="D43" s="60">
-        <v>12</v>
-      </c>
-      <c r="E43" s="60">
-        <v>12</v>
-      </c>
-      <c r="F43" s="61">
-        <v>12</v>
-      </c>
-      <c r="G43" s="60">
-        <v>12</v>
-      </c>
-      <c r="H43" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L43" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="N43" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="P43" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="24">
-      <c r="B44" s="70"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N44" s="75"/>
-    </row>
-    <row r="45" spans="2:16" ht="24">
-      <c r="B45" s="70"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="N45" s="75"/>
-    </row>
-    <row r="46" spans="2:16" ht="24">
-      <c r="B46" s="70"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N46" s="75"/>
-    </row>
-    <row r="47" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B47" s="57"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N47" s="76"/>
-    </row>
-    <row r="48" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B48" s="60">
-        <v>8</v>
-      </c>
-      <c r="C48" s="60">
-        <v>10</v>
-      </c>
-      <c r="D48" s="60">
-        <v>13</v>
-      </c>
-      <c r="E48" s="60">
-        <v>13</v>
-      </c>
-      <c r="F48" s="61">
-        <v>13</v>
-      </c>
-      <c r="G48" s="60">
-        <v>13</v>
-      </c>
-      <c r="H48" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="I48" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="J48" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K48" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L48" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N48" s="68" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="24">
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="N49" s="70"/>
-    </row>
-    <row r="50" spans="2:16" ht="24">
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="N50" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="P50" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="24">
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N51" s="26"/>
-    </row>
-    <row r="52" spans="2:16" ht="24">
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N52" s="26"/>
-    </row>
-    <row r="53" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N53" s="24"/>
-    </row>
-    <row r="54" spans="2:16" ht="24">
-      <c r="B54" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="60">
-        <v>14</v>
-      </c>
-      <c r="F54" s="61">
-        <v>14</v>
-      </c>
-      <c r="G54" s="60">
-        <v>14</v>
-      </c>
-      <c r="H54" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="I54" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="J54" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K54" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L54" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N54" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="P54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="N56" s="22"/>
-    </row>
-    <row r="57" spans="2:16" ht="24">
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="N57" s="22"/>
-    </row>
-    <row r="58" spans="2:16" ht="15" thickBot="1">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="2:16" ht="24">
-      <c r="B59" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="60">
-        <v>11</v>
-      </c>
-      <c r="D59" s="60">
-        <v>14</v>
-      </c>
-      <c r="E59" s="60">
-        <v>15</v>
-      </c>
-      <c r="F59" s="61">
-        <v>15</v>
-      </c>
-      <c r="G59" s="60">
-        <v>15</v>
-      </c>
-      <c r="H59" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="I59" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="J59" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K59" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L59" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M59" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="N59" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="P59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="70"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N60" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" ht="24">
-      <c r="B61" s="70"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N61" s="22"/>
-    </row>
-    <row r="62" spans="2:16" ht="24">
-      <c r="B62" s="70"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="N62" s="22"/>
-    </row>
-    <row r="63" spans="2:16" ht="15" thickBot="1">
-      <c r="B63" s="57"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="N63" s="18"/>
-    </row>
-    <row r="64" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B64" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="15">
-        <v>16</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L64" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M64" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="N64" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" ht="15" thickBot="1">
-      <c r="B65" s="17">
-        <v>9</v>
-      </c>
-      <c r="C65" s="15">
-        <v>12</v>
-      </c>
-      <c r="D65" s="15">
-        <v>15</v>
-      </c>
-      <c r="E65" s="15">
-        <v>16</v>
-      </c>
-      <c r="F65" s="32">
-        <v>16</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K65" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L65" s="20">
-        <v>-5</v>
-      </c>
-      <c r="M65" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N65" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" ht="15" thickBot="1">
-      <c r="B66" s="17">
-        <v>10</v>
-      </c>
-      <c r="C66" s="15">
-        <v>13</v>
-      </c>
-      <c r="D66" s="15">
-        <v>16</v>
-      </c>
-      <c r="E66" s="15">
-        <v>17</v>
-      </c>
-      <c r="F66" s="32">
-        <v>17</v>
-      </c>
-      <c r="G66" s="15">
-        <v>17</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L66" s="20">
-        <v>-6</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N66" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" ht="36">
-      <c r="B67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="60">
-        <v>18</v>
-      </c>
-      <c r="F67" s="61">
-        <v>18</v>
-      </c>
-      <c r="G67" s="60">
-        <v>18</v>
-      </c>
-      <c r="H67" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="I67" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="J67" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K67" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="N67" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="P67" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" ht="24">
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N68" s="70"/>
-    </row>
-    <row r="69" spans="2:16" ht="24">
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="N69" s="70"/>
-    </row>
-    <row r="70" spans="2:16" ht="15" thickBot="1">
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="N70" s="57"/>
-    </row>
-    <row r="71" spans="2:16" ht="24">
-      <c r="B71" s="60">
-        <v>11</v>
-      </c>
-      <c r="C71" s="60">
-        <v>14</v>
-      </c>
-      <c r="D71" s="60">
-        <v>17</v>
-      </c>
-      <c r="E71" s="60">
-        <v>19</v>
-      </c>
-      <c r="F71" s="61">
-        <v>19</v>
-      </c>
-      <c r="G71" s="60">
-        <v>19</v>
-      </c>
-      <c r="H71" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="I71" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="J71" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K71" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="L71" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="N71" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="24">
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="N72" s="70"/>
-    </row>
-    <row r="73" spans="2:16" ht="24">
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="N73" s="70"/>
-    </row>
-    <row r="74" spans="2:16" ht="48.75" thickBot="1">
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="N74" s="57"/>
-    </row>
-    <row r="75" spans="2:16" ht="36.75" thickTop="1">
-      <c r="B75" s="50">
-        <v>12</v>
-      </c>
-      <c r="C75" s="50">
-        <v>15</v>
-      </c>
-      <c r="D75" s="50">
-        <v>18</v>
-      </c>
-      <c r="E75" s="50">
-        <v>20</v>
-      </c>
-      <c r="F75" s="52">
-        <v>20</v>
-      </c>
-      <c r="G75" s="50">
-        <v>20</v>
-      </c>
-      <c r="H75" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="I75" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="J75" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="K75" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="L75" s="77">
-        <v>-7</v>
-      </c>
-      <c r="M75" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N75" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="24">
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="N76" s="70"/>
-    </row>
-    <row r="77" spans="2:16" ht="24">
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="N77" s="70"/>
-    </row>
-    <row r="78" spans="2:16">
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="78"/>
-      <c r="M78" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="N78" s="70"/>
-    </row>
-    <row r="79" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N79" s="57"/>
-    </row>
-    <row r="80" spans="2:16">
-      <c r="B80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="61">
-        <v>21</v>
-      </c>
-      <c r="G80" s="60">
-        <v>21</v>
-      </c>
-      <c r="H80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="J80" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K80" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L80" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M80" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="N80" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" ht="48">
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="70"/>
-      <c r="M81" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="N81" s="70"/>
-    </row>
-    <row r="82" spans="2:19" ht="24">
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="70"/>
-      <c r="M82" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="N82" s="70"/>
-    </row>
-    <row r="83" spans="2:19" ht="48.75" thickBot="1">
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="57"/>
-      <c r="M83" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="N83" s="57"/>
-    </row>
-    <row r="84" spans="2:19">
-      <c r="B84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="61">
-        <v>22</v>
-      </c>
-      <c r="G84" s="60">
-        <v>22</v>
-      </c>
-      <c r="H84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="J84" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K84" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L84" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M84" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N84" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" ht="24">
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N85" s="70"/>
-    </row>
-    <row r="86" spans="2:19" ht="24">
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="70"/>
-      <c r="M86" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="N86" s="70"/>
-      <c r="S86" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" ht="24.75" thickBot="1">
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="57"/>
-      <c r="M87" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="N87" s="57"/>
-    </row>
-    <row r="88" spans="2:19">
-      <c r="B88" s="60">
-        <v>13</v>
-      </c>
-      <c r="C88" s="60">
-        <v>16</v>
-      </c>
-      <c r="D88" s="60">
-        <v>19</v>
-      </c>
-      <c r="E88" s="60">
-        <v>21</v>
-      </c>
-      <c r="F88" s="61">
-        <v>23</v>
-      </c>
-      <c r="G88" s="60">
-        <v>23</v>
-      </c>
-      <c r="H88" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="I88" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="J88" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K88" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="L88" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M88" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="N88" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" ht="24">
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N89" s="70"/>
-    </row>
-    <row r="90" spans="2:19">
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="N90" s="70"/>
-    </row>
-    <row r="91" spans="2:19">
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="N91" s="70"/>
-    </row>
-    <row r="92" spans="2:19" ht="24">
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="N92" s="70"/>
-    </row>
-    <row r="93" spans="2:19" ht="24.75" thickBot="1">
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="57"/>
-      <c r="M93" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="N93" s="57"/>
-    </row>
-    <row r="94" spans="2:19">
-      <c r="B94" s="60">
-        <v>14</v>
-      </c>
-      <c r="C94" s="60">
-        <v>17</v>
-      </c>
-      <c r="D94" s="60">
-        <v>20</v>
-      </c>
-      <c r="E94" s="60">
-        <v>22</v>
-      </c>
-      <c r="F94" s="61">
-        <v>24</v>
-      </c>
-      <c r="G94" s="60">
-        <v>24</v>
-      </c>
-      <c r="H94" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="J94" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K94" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L94" s="80">
-        <v>-7</v>
-      </c>
-      <c r="M94" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="N94" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" ht="24">
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="78"/>
-      <c r="M95" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="N95" s="70"/>
-    </row>
-    <row r="96" spans="2:19" ht="24">
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="78"/>
-      <c r="M96" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N96" s="70"/>
-    </row>
-    <row r="97" spans="2:16" ht="24">
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="78"/>
-      <c r="M97" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="N97" s="70"/>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="N98" s="70"/>
-    </row>
-    <row r="99" spans="2:16" ht="24">
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="78"/>
-      <c r="M99" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="N99" s="70"/>
-    </row>
-    <row r="100" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
-      <c r="L100" s="79"/>
-      <c r="M100" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N100" s="57"/>
-    </row>
-    <row r="101" spans="2:16">
-      <c r="B101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E101" s="60">
-        <v>23</v>
-      </c>
-      <c r="F101" s="61">
-        <v>25</v>
-      </c>
-      <c r="G101" s="60">
-        <v>25</v>
-      </c>
-      <c r="H101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I101" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="J101" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K101" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L101" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M101" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="N101" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16">
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="70"/>
-      <c r="M102" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N102" s="70"/>
-    </row>
-    <row r="103" spans="2:16" ht="24">
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N103" s="70"/>
-    </row>
-    <row r="104" spans="2:16" ht="24">
-      <c r="B104" s="70"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="70"/>
-      <c r="M104" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="N104" s="70"/>
-    </row>
-    <row r="105" spans="2:16" ht="15" thickBot="1">
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="N105" s="57"/>
-    </row>
-    <row r="106" spans="2:16">
-      <c r="B106" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="60">
-        <v>24</v>
-      </c>
-      <c r="F106" s="61">
-        <v>26</v>
-      </c>
-      <c r="G106" s="60">
-        <v>26</v>
-      </c>
-      <c r="H106" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="I106" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="J106" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K106" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L106" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M106" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="N106" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="P106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16">
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="75"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="66"/>
-      <c r="L107" s="70"/>
-      <c r="M107" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="N107" s="70"/>
-    </row>
-    <row r="108" spans="2:16" ht="15" thickBot="1">
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="51"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="N108" s="57"/>
-    </row>
-    <row r="109" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B109" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E109" s="15">
-        <v>25</v>
-      </c>
-      <c r="F109" s="32">
-        <v>27</v>
-      </c>
-      <c r="G109" s="15">
-        <v>27</v>
-      </c>
-      <c r="H109" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I109" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J109" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L109" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M109" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="N109" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="P109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" ht="15" thickTop="1">
-      <c r="B110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="50">
-        <v>26</v>
-      </c>
-      <c r="F110" s="52">
-        <v>28</v>
-      </c>
-      <c r="G110" s="50">
-        <v>28</v>
-      </c>
-      <c r="H110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I110" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="J110" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="K110" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="L110" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="M110" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N110" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="P110" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" ht="24">
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="70"/>
-      <c r="M111" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N111" s="70"/>
-    </row>
-    <row r="112" spans="2:16" ht="24">
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="70"/>
-      <c r="M112" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N112" s="70"/>
-    </row>
-    <row r="113" spans="2:14" ht="15" thickBot="1">
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="57"/>
-      <c r="M113" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="N113" s="57"/>
-    </row>
-    <row r="114" spans="2:14" ht="36">
-      <c r="B114" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="60">
-        <v>18</v>
-      </c>
-      <c r="D114" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E114" s="60">
-        <v>27</v>
-      </c>
-      <c r="F114" s="61">
-        <v>29</v>
-      </c>
-      <c r="G114" s="60">
-        <v>29</v>
-      </c>
-      <c r="H114" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="I114" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="J114" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K114" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="L114" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M114" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="N114" s="68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" ht="24">
-      <c r="B115" s="70"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="70"/>
-      <c r="M115" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N115" s="70"/>
-    </row>
-    <row r="116" spans="2:14">
-      <c r="B116" s="70"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="70"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
-      <c r="L116" s="70"/>
-      <c r="M116" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="N116" s="70"/>
-    </row>
-    <row r="117" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B117" s="57"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="57"/>
-      <c r="J117" s="51"/>
-      <c r="K117" s="51"/>
-      <c r="L117" s="57"/>
-      <c r="M117" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="N117" s="57"/>
-    </row>
-    <row r="118" spans="2:14" ht="36">
-      <c r="B118" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="60">
-        <v>19</v>
-      </c>
-      <c r="D118" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118" s="60">
-        <v>28</v>
-      </c>
-      <c r="F118" s="61">
-        <v>30</v>
-      </c>
-      <c r="G118" s="60">
-        <v>30</v>
-      </c>
-      <c r="H118" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="I118" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="J118" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K118" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="L118" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M118" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="N118" s="68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" ht="36">
-      <c r="B119" s="70"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="69"/>
-      <c r="I119" s="70"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="66"/>
-      <c r="L119" s="70"/>
-      <c r="M119" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="N119" s="70"/>
-    </row>
-    <row r="120" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B120" s="57"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="57"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="57"/>
-      <c r="M120" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N120" s="57"/>
-    </row>
-    <row r="121" spans="2:14" ht="48.75" thickBot="1">
-      <c r="B121" s="17">
-        <v>1</v>
-      </c>
-      <c r="C121" s="15">
-        <v>20</v>
-      </c>
-      <c r="D121" s="15">
-        <v>1</v>
-      </c>
-      <c r="E121" s="15">
-        <v>1</v>
-      </c>
-      <c r="F121" s="32">
-        <v>31</v>
-      </c>
-      <c r="G121" s="15">
-        <v>31</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="I121" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="J121" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K121" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="L121" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M121" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N121" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" ht="24">
-      <c r="B122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F122" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="60">
-        <v>32</v>
-      </c>
-      <c r="H122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I122" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="J122" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K122" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="L122" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="M122" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="N122" s="68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" ht="24">
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="70"/>
-      <c r="M123" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N123" s="70"/>
-    </row>
-    <row r="124" spans="2:14">
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
-      <c r="L124" s="70"/>
-      <c r="M124" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="N124" s="70"/>
-    </row>
-    <row r="125" spans="2:14" ht="15" thickBot="1">
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="84"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
-      <c r="J125" s="51"/>
-      <c r="K125" s="51"/>
-      <c r="L125" s="57"/>
-      <c r="M125" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="N125" s="57"/>
-    </row>
-    <row r="126" spans="2:14" ht="15" thickBot="1">
-      <c r="B126" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F126" s="32">
-        <v>32</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I126" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J126" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K126" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L126" s="20">
-        <v>-5</v>
-      </c>
-      <c r="M126" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N126" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" ht="15" thickBot="1">
-      <c r="B127" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F127" s="32">
-        <v>1</v>
-      </c>
-      <c r="G127" s="15">
-        <v>1</v>
-      </c>
-      <c r="H127" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I127" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J127" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K127" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L127" s="20">
-        <v>-6</v>
-      </c>
-      <c r="M127" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N127" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="298">
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:K120"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="N101:N105"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="L110:L113"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="K94:K100"/>
-    <mergeCell ref="L94:L100"/>
-    <mergeCell ref="N94:N100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="E101:E105"/>
-    <mergeCell ref="F101:F105"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="H101:H105"/>
-    <mergeCell ref="N106:N108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
-    <mergeCell ref="L106:L108"/>
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="E94:E100"/>
-    <mergeCell ref="F94:F100"/>
-    <mergeCell ref="G94:G100"/>
-    <mergeCell ref="H94:H100"/>
-    <mergeCell ref="I94:I100"/>
-    <mergeCell ref="J94:J100"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="N88:N93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
-    <mergeCell ref="I88:I93"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="L88:L93"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="N75:N79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="K75:K79"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="K54:K58"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K32:K38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="K17:K23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Karman Delta Arm/Rocket arming system.xlsx
+++ b/Karman Delta Arm/Rocket arming system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\GitHub\AltiumGithub\Karman Delta Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E214F-9733-4C84-80B4-A113E943FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BDDD3C-B78E-4971-A6FC-2103F6A92FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34695" yWindow="2895" windowWidth="32160" windowHeight="16740" tabRatio="745" activeTab="5" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="31920" tabRatio="745" activeTab="5" xr2:uid="{C397F53C-48EF-47A2-AFE9-4806826F5736}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="465">
   <si>
     <t>Failure Mode</t>
   </si>
@@ -797,9 +797,6 @@
   </si>
   <si>
     <t>Add decouplers to Vsense lines</t>
-  </si>
-  <si>
-    <t>Setup layerstack</t>
   </si>
   <si>
     <t>Check ADC I/P Z</t>
@@ -1262,9 +1259,6 @@
     <t>Investigate CAN</t>
   </si>
   <si>
-    <t>Sort transceiver 3D body shape - currently on layer 1</t>
-  </si>
-  <si>
     <t>Label Inputs &amp; Outputs</t>
   </si>
   <si>
@@ -1467,6 +1461,18 @@
   </si>
   <si>
     <t>Anti-static bags (metalised)</t>
+  </si>
+  <si>
+    <t>Sort route tool path for centre hole</t>
+  </si>
+  <si>
+    <t>Solder Wick</t>
+  </si>
+  <si>
+    <t>Tip Cleaner/Tinner</t>
+  </si>
+  <si>
+    <t>Brass wire tip cleaner</t>
   </si>
 </sst>
 </file>
@@ -1858,85 +1864,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,31 +1948,37 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3172,19 +3178,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>280</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>281</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -3206,7 +3212,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D3" s="7">
         <v>3.7</v>
@@ -3215,21 +3221,21 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57">
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7">
         <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3237,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3245,7 +3251,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3259,7 +3265,7 @@
         <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3267,10 +3273,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3278,18 +3284,18 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -3297,7 +3303,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -3305,7 +3311,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -3313,7 +3319,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
@@ -3324,30 +3330,30 @@
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D14" s="7">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" s="7">
         <v>4000</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H15" s="45"/>
     </row>
@@ -3358,16 +3364,16 @@
     </row>
     <row r="18" spans="2:9" ht="42.75">
       <c r="B18" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="I18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.5">
@@ -3375,10 +3381,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.5">
@@ -3386,10 +3392,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="28.5">
@@ -3397,10 +3403,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -3415,189 +3421,189 @@
     </row>
     <row r="24" spans="2:9" ht="28.5">
       <c r="B24" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.5">
       <c r="B25" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="57">
       <c r="B26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.5">
       <c r="B27" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.5">
       <c r="B28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.5">
       <c r="B29" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.5">
       <c r="B30" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="71.25">
       <c r="B31" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.5">
       <c r="B32" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.5">
       <c r="B33" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="28.5">
       <c r="B35" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="28.5">
       <c r="B36" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="28.5">
       <c r="B37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="28.5">
       <c r="B39" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15">
       <c r="B41" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -3614,7 +3620,7 @@
     </row>
     <row r="52" spans="2:3" ht="15">
       <c r="B52" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="28.5">
@@ -3622,7 +3628,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3647,31 +3653,31 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1"/>
     <row r="3" spans="2:16" ht="15" thickBot="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="83" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="78"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="2:16" ht="96.75" customHeight="1" thickBot="1">
       <c r="B4" s="27" t="s">
@@ -3695,10 +3701,10 @@
       <c r="H4" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="82"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="11" t="s">
         <v>81</v>
       </c>
@@ -3706,51 +3712,51 @@
         <v>82</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" thickTop="1">
-      <c r="B5" s="62">
+      <c r="B5" s="50">
         <v>2</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="50">
         <v>2</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="50">
         <v>2</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="52">
         <v>2</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="50">
         <v>2</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="58" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="61" t="s">
+      <c r="L5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1">
@@ -3758,60 +3764,60 @@
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
-      <c r="F6" s="60"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="15" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="49">
+      <c r="B7" s="60">
         <v>3</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="60">
         <v>2</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="60">
         <v>3</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="60">
         <v>3</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="61">
         <v>3</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="60">
         <v>3</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="62" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="46" t="s">
+      <c r="L7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="68" t="s">
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.75" thickBot="1">
@@ -3819,17 +3825,17 @@
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="60"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="B9" s="17">
@@ -3914,37 +3920,37 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="24">
-      <c r="B11" s="49">
+      <c r="B11" s="60">
         <v>5</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="60">
         <v>5</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="60">
         <v>6</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="60">
         <v>6</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="61">
         <v>6</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="60">
         <v>6</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="29" t="s">
@@ -3954,21 +3960,21 @@
         <v>109</v>
       </c>
       <c r="P11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="24">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="47"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="14" t="s">
         <v>104</v>
       </c>
@@ -3977,17 +3983,17 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="24">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="47"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="14" t="s">
         <v>105</v>
       </c>
@@ -3996,17 +4002,17 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="36">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="47"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="14" t="s">
         <v>106</v>
       </c>
@@ -4015,17 +4021,17 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="24">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="47"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="29" t="s">
         <v>107</v>
       </c>
@@ -4036,50 +4042,50 @@
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="60"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="51"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="21" t="s">
         <v>108</v>
       </c>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="24">
-      <c r="B17" s="49">
+      <c r="B17" s="60">
         <v>6</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="60">
         <v>6</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="60">
         <v>7</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="60">
         <v>7</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="61">
         <v>7</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="60">
         <v>7</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="23" t="s">
@@ -4090,17 +4096,17 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="24">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="47"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="23" t="s">
         <v>116</v>
       </c>
@@ -4109,68 +4115,68 @@
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="47"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="24">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="47"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="23" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="2:16" ht="24">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="47"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="2:16" ht="24">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="47"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="14" t="s">
         <v>120</v>
       </c>
@@ -4181,50 +4187,50 @@
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="60"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="48"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="48"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="40" t="s">
         <v>121</v>
       </c>
       <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:16" ht="36">
-      <c r="B24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="49">
+      <c r="B24" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="60">
         <v>8</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="60">
         <v>8</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="61">
         <v>8</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="60">
         <v>8</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M24" s="14" t="s">
@@ -4235,17 +4241,17 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="24">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="29" t="s">
         <v>125</v>
       </c>
@@ -4253,21 +4259,21 @@
         <v>129</v>
       </c>
       <c r="P25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="24">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="47"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="14" t="s">
         <v>126</v>
       </c>
@@ -4276,17 +4282,17 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="60"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="48"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="48"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="19" t="s">
         <v>127</v>
       </c>
@@ -4295,37 +4301,37 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="24">
-      <c r="B28" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="49">
+      <c r="B28" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="60">
         <v>9</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="60">
         <v>9</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="61">
         <v>9</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="60">
         <v>9</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M28" s="14" t="s">
@@ -4336,17 +4342,17 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="47"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="70"/>
       <c r="M29" s="14" t="s">
         <v>135</v>
       </c>
@@ -4355,71 +4361,71 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="24">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="47"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="29" t="s">
         <v>103</v>
       </c>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="60"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="48"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="48"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="40" t="s">
         <v>136</v>
       </c>
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:16" ht="24">
-      <c r="B32" s="49">
+      <c r="B32" s="60">
         <v>7</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="60">
         <v>7</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="60">
         <v>10</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="60">
         <v>10</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="61">
         <v>10</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="60">
         <v>10</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="J32" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="L32" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M32" s="14" t="s">
@@ -4430,17 +4436,17 @@
       </c>
     </row>
     <row r="33" spans="2:16" ht="24">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="47"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="14" t="s">
         <v>104</v>
       </c>
@@ -4449,17 +4455,17 @@
       </c>
     </row>
     <row r="34" spans="2:16" ht="36">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="47"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
       <c r="M34" s="14" t="s">
         <v>140</v>
       </c>
@@ -4467,55 +4473,55 @@
         <v>143</v>
       </c>
       <c r="P34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="24">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="47"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
       <c r="M35" s="23" t="s">
         <v>141</v>
       </c>
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="47"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
       <c r="M36" s="14" t="s">
         <v>142</v>
       </c>
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:16" ht="24">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="47"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="37" t="s">
         <v>126</v>
       </c>
@@ -4526,50 +4532,50 @@
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="60"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="51"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="48"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="51"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="48"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="57"/>
       <c r="M38" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N38" s="18"/>
     </row>
     <row r="39" spans="2:16" ht="24.75" thickTop="1">
-      <c r="B39" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="62">
+      <c r="B39" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="50">
         <v>8</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="50">
         <v>11</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="50">
         <v>11</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="52">
         <v>11</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="50">
         <v>11</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="62" t="s">
+      <c r="J39" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="L39" s="56" t="s">
         <v>88</v>
       </c>
       <c r="M39" s="14" t="s">
@@ -4580,17 +4586,17 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="24">
-      <c r="B40" s="47"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="47"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="14" t="s">
         <v>116</v>
       </c>
@@ -4599,17 +4605,17 @@
       </c>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="47"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="47"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
       <c r="M41" s="14" t="s">
         <v>142</v>
       </c>
@@ -4617,208 +4623,208 @@
         <v>148</v>
       </c>
       <c r="P41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="15" thickBot="1">
-      <c r="B42" s="48"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
-      <c r="F42" s="60"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="48"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="48"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="57"/>
       <c r="M42" s="19" t="s">
         <v>147</v>
       </c>
       <c r="N42" s="18"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="49">
+      <c r="B43" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="60">
         <v>9</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="60">
         <v>12</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="60">
         <v>12</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="61">
         <v>12</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="60">
         <v>12</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="49" t="s">
+      <c r="J43" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N43" s="70" t="s">
+      <c r="N43" s="74" t="s">
         <v>154</v>
       </c>
       <c r="P43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="24">
-      <c r="B44" s="47"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="47"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="70"/>
       <c r="M44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="65"/>
+      <c r="N44" s="75"/>
     </row>
     <row r="45" spans="2:16" ht="24">
-      <c r="B45" s="47"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="47"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="70"/>
       <c r="M45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N45" s="65"/>
+      <c r="N45" s="75"/>
     </row>
     <row r="46" spans="2:16" ht="24">
-      <c r="B46" s="47"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="47"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="70"/>
       <c r="M46" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N46" s="65"/>
+      <c r="N46" s="75"/>
     </row>
     <row r="47" spans="2:16" ht="24.75" thickBot="1">
-      <c r="B47" s="48"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
       <c r="E47" s="51"/>
-      <c r="F47" s="60"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="51"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="48"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="48"/>
+      <c r="L47" s="57"/>
       <c r="M47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="66"/>
+      <c r="N47" s="76"/>
     </row>
     <row r="48" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B48" s="49">
+      <c r="B48" s="60">
         <v>8</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="60">
         <v>10</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="60">
         <v>13</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="60">
         <v>13</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="61">
         <v>13</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="60">
         <v>13</v>
       </c>
-      <c r="H48" s="55" t="s">
+      <c r="H48" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="J48" s="49" t="s">
+      <c r="J48" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K48" s="49" t="s">
+      <c r="K48" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M48" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N48" s="46" t="s">
+      <c r="N48" s="68" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="24">
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="47"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="70"/>
       <c r="M49" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N49" s="47"/>
+      <c r="N49" s="70"/>
     </row>
     <row r="50" spans="2:16" ht="24">
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="47"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="70"/>
       <c r="M50" s="14" t="s">
         <v>159</v>
       </c>
@@ -4826,38 +4832,38 @@
         <v>242</v>
       </c>
       <c r="P50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="24">
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="47"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="70"/>
       <c r="M51" s="14" t="s">
         <v>120</v>
       </c>
       <c r="N51" s="26"/>
     </row>
     <row r="52" spans="2:16" ht="24">
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="47"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="70"/>
       <c r="M52" s="14" t="s">
         <v>115</v>
       </c>
@@ -4868,50 +4874,50 @@
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="60"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="51"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="48"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="57"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="48"/>
+      <c r="L53" s="57"/>
       <c r="M53" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N53" s="24"/>
     </row>
     <row r="54" spans="2:16" ht="24">
-      <c r="B54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="49">
+      <c r="B54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="60">
         <v>14</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="61">
         <v>14</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="60">
         <v>14</v>
       </c>
-      <c r="H54" s="55" t="s">
+      <c r="H54" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="I54" s="70" t="s">
+      <c r="I54" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="J54" s="49" t="s">
+      <c r="J54" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K54" s="49" t="s">
+      <c r="K54" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="46" t="s">
+      <c r="L54" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M54" s="14" t="s">
@@ -4921,21 +4927,21 @@
         <v>163</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="47"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="70"/>
       <c r="M55" s="14" t="s">
         <v>151</v>
       </c>
@@ -4944,88 +4950,88 @@
       </c>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="47"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="70"/>
       <c r="M56" s="14" t="s">
         <v>117</v>
       </c>
       <c r="N56" s="22"/>
     </row>
     <row r="57" spans="2:16" ht="24">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="47"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="70"/>
       <c r="M57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N57" s="22"/>
     </row>
     <row r="58" spans="2:16" ht="15" thickBot="1">
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="51"/>
-      <c r="F58" s="60"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="51"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="66"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
-      <c r="L58" s="48"/>
+      <c r="L58" s="57"/>
       <c r="M58" s="19" t="s">
         <v>162</v>
       </c>
       <c r="N58" s="18"/>
     </row>
     <row r="59" spans="2:16" ht="24">
-      <c r="B59" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="49">
+      <c r="B59" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="60">
         <v>11</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="60">
         <v>14</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="60">
         <v>15</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="61">
         <v>15</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="60">
         <v>15</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="70" t="s">
+      <c r="I59" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="J59" s="49" t="s">
+      <c r="J59" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K59" s="49" t="s">
+      <c r="K59" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L59" s="46" t="s">
+      <c r="L59" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M59" s="14" t="s">
@@ -5035,21 +5041,21 @@
         <v>169</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="47"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="47"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="70"/>
       <c r="M60" s="14" t="s">
         <v>157</v>
       </c>
@@ -5058,51 +5064,51 @@
       </c>
     </row>
     <row r="61" spans="2:16" ht="24">
-      <c r="B61" s="47"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="47"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="70"/>
       <c r="M61" s="14" t="s">
         <v>104</v>
       </c>
       <c r="N61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="24">
-      <c r="B62" s="47"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="47"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="70"/>
       <c r="M62" s="13" t="s">
         <v>167</v>
       </c>
       <c r="N62" s="22"/>
     </row>
     <row r="63" spans="2:16" ht="15" thickBot="1">
-      <c r="B63" s="48"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
-      <c r="F63" s="60"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="51"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="66"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="51"/>
       <c r="K63" s="51"/>
-      <c r="L63" s="48"/>
+      <c r="L63" s="57"/>
       <c r="M63" s="19" t="s">
         <v>168</v>
       </c>
@@ -5232,943 +5238,943 @@
       </c>
     </row>
     <row r="67" spans="2:16" ht="36">
-      <c r="B67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="49">
+      <c r="B67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="60">
         <v>18</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F67" s="61">
         <v>18</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G67" s="60">
         <v>18</v>
       </c>
-      <c r="H67" s="55" t="s">
+      <c r="H67" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I67" s="70" t="s">
+      <c r="I67" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="J67" s="49" t="s">
+      <c r="J67" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K67" s="49" t="s">
+      <c r="K67" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L67" s="46" t="s">
+      <c r="L67" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="46" t="s">
+      <c r="N67" s="68" t="s">
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="24">
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="47"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="70"/>
       <c r="M68" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="47"/>
+      <c r="N68" s="70"/>
     </row>
     <row r="69" spans="2:16" ht="24">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="47"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="70"/>
       <c r="M69" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="N69" s="47"/>
+      <c r="N69" s="70"/>
     </row>
     <row r="70" spans="2:16" ht="15" thickBot="1">
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="51"/>
-      <c r="F70" s="60"/>
+      <c r="F70" s="53"/>
       <c r="G70" s="51"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="66"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="51"/>
       <c r="K70" s="51"/>
-      <c r="L70" s="48"/>
+      <c r="L70" s="57"/>
       <c r="M70" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N70" s="48"/>
+      <c r="N70" s="57"/>
     </row>
     <row r="71" spans="2:16" ht="24">
-      <c r="B71" s="49">
+      <c r="B71" s="60">
         <v>11</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="60">
         <v>14</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="60">
         <v>17</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="60">
         <v>19</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="61">
         <v>19</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71" s="60">
         <v>19</v>
       </c>
-      <c r="H71" s="55" t="s">
+      <c r="H71" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="I71" s="46" t="s">
+      <c r="I71" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="J71" s="49" t="s">
+      <c r="J71" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="49" t="s">
+      <c r="K71" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="46" t="s">
+      <c r="L71" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="N71" s="46" t="s">
+      <c r="N71" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="24">
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="47"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="70"/>
       <c r="M72" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N72" s="47"/>
+      <c r="N72" s="70"/>
     </row>
     <row r="73" spans="2:16" ht="24">
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="47"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="70"/>
       <c r="M73" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="47"/>
+      <c r="N73" s="70"/>
     </row>
     <row r="74" spans="2:16" ht="48.75" thickBot="1">
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="E74" s="51"/>
-      <c r="F74" s="60"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="51"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="48"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="57"/>
       <c r="J74" s="51"/>
       <c r="K74" s="51"/>
-      <c r="L74" s="48"/>
+      <c r="L74" s="57"/>
       <c r="M74" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N74" s="48"/>
+      <c r="N74" s="57"/>
     </row>
     <row r="75" spans="2:16" ht="36.75" thickTop="1">
-      <c r="B75" s="62">
+      <c r="B75" s="50">
         <v>12</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="50">
         <v>15</v>
       </c>
-      <c r="D75" s="62">
+      <c r="D75" s="50">
         <v>18</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="50">
         <v>20</v>
       </c>
-      <c r="F75" s="63">
+      <c r="F75" s="52">
         <v>20</v>
       </c>
-      <c r="G75" s="62">
+      <c r="G75" s="50">
         <v>20</v>
       </c>
-      <c r="H75" s="71" t="s">
+      <c r="H75" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="61" t="s">
+      <c r="I75" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="J75" s="62" t="s">
+      <c r="J75" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K75" s="62" t="s">
+      <c r="K75" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="72">
+      <c r="L75" s="77">
         <v>-7</v>
       </c>
       <c r="M75" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="N75" s="61" t="s">
+      <c r="N75" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="24">
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="68"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="78"/>
       <c r="M76" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N76" s="47"/>
+      <c r="N76" s="70"/>
     </row>
     <row r="77" spans="2:16" ht="24">
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="68"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="78"/>
       <c r="M77" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="N77" s="47"/>
+      <c r="N77" s="70"/>
     </row>
     <row r="78" spans="2:16">
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="68"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="78"/>
       <c r="M78" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N78" s="47"/>
+      <c r="N78" s="70"/>
     </row>
     <row r="79" spans="2:16" ht="24.75" thickBot="1">
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="51"/>
       <c r="E79" s="51"/>
-      <c r="F79" s="60"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="51"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="48"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="57"/>
       <c r="J79" s="51"/>
       <c r="K79" s="51"/>
-      <c r="L79" s="69"/>
+      <c r="L79" s="79"/>
       <c r="M79" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N79" s="48"/>
+      <c r="N79" s="57"/>
     </row>
     <row r="80" spans="2:16">
-      <c r="B80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="58">
+      <c r="B80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="61">
         <v>21</v>
       </c>
-      <c r="G80" s="49">
+      <c r="G80" s="60">
         <v>21</v>
       </c>
-      <c r="H80" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="46" t="s">
+      <c r="H80" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="J80" s="49" t="s">
+      <c r="J80" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K80" s="49" t="s">
+      <c r="K80" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L80" s="46" t="s">
+      <c r="L80" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M80" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N80" s="46" t="s">
+      <c r="N80" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:19" ht="48">
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="47"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="70"/>
       <c r="M81" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="N81" s="47"/>
+      <c r="N81" s="70"/>
     </row>
     <row r="82" spans="2:19" ht="24">
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="47"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="70"/>
       <c r="M82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N82" s="47"/>
+      <c r="N82" s="70"/>
     </row>
     <row r="83" spans="2:19" ht="48.75" thickBot="1">
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="60"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="53"/>
       <c r="G83" s="51"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
       <c r="J83" s="51"/>
       <c r="K83" s="51"/>
-      <c r="L83" s="48"/>
+      <c r="L83" s="57"/>
       <c r="M83" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N83" s="48"/>
+      <c r="N83" s="57"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="58">
+      <c r="B84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="61">
         <v>22</v>
       </c>
-      <c r="G84" s="49">
+      <c r="G84" s="60">
         <v>22</v>
       </c>
-      <c r="H84" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="46" t="s">
+      <c r="H84" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="J84" s="49" t="s">
+      <c r="J84" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K84" s="49" t="s">
+      <c r="K84" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L84" s="46" t="s">
+      <c r="L84" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N84" s="46" t="s">
+      <c r="N84" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:19" ht="24">
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="47"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="70"/>
       <c r="M85" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N85" s="47"/>
+      <c r="N85" s="70"/>
     </row>
     <row r="86" spans="2:19" ht="24">
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="47"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="70"/>
       <c r="M86" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N86" s="47"/>
+      <c r="N86" s="70"/>
       <c r="S86" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="87" spans="2:19" ht="24.75" thickBot="1">
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="60"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="51"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
       <c r="J87" s="51"/>
       <c r="K87" s="51"/>
-      <c r="L87" s="48"/>
+      <c r="L87" s="57"/>
       <c r="M87" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="N87" s="48"/>
+      <c r="N87" s="57"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="49">
+      <c r="B88" s="60">
         <v>13</v>
       </c>
-      <c r="C88" s="49">
+      <c r="C88" s="60">
         <v>16</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="60">
         <v>19</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="60">
         <v>21</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="61">
         <v>23</v>
       </c>
-      <c r="G88" s="49">
+      <c r="G88" s="60">
         <v>23</v>
       </c>
-      <c r="H88" s="55" t="s">
+      <c r="H88" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="I88" s="46" t="s">
+      <c r="I88" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="J88" s="49" t="s">
+      <c r="J88" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K88" s="49" t="s">
+      <c r="K88" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="46" t="s">
+      <c r="L88" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M88" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="N88" s="46" t="s">
+      <c r="N88" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="2:19" ht="24">
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="47"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="70"/>
       <c r="M89" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N89" s="47"/>
+      <c r="N89" s="70"/>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="47"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="70"/>
       <c r="M90" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N90" s="47"/>
+      <c r="N90" s="70"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="47"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="70"/>
       <c r="M91" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N91" s="47"/>
+      <c r="N91" s="70"/>
     </row>
     <row r="92" spans="2:19" ht="24">
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="47"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="70"/>
       <c r="M92" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="N92" s="47"/>
+      <c r="N92" s="70"/>
     </row>
     <row r="93" spans="2:19" ht="24.75" thickBot="1">
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
       <c r="D93" s="51"/>
       <c r="E93" s="51"/>
-      <c r="F93" s="60"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="51"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="48"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="57"/>
       <c r="J93" s="51"/>
       <c r="K93" s="51"/>
-      <c r="L93" s="48"/>
+      <c r="L93" s="57"/>
       <c r="M93" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N93" s="48"/>
+      <c r="N93" s="57"/>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="49">
+      <c r="B94" s="60">
         <v>14</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="60">
         <v>17</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="60">
         <v>20</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="60">
         <v>22</v>
       </c>
-      <c r="F94" s="58">
+      <c r="F94" s="61">
         <v>24</v>
       </c>
-      <c r="G94" s="49">
+      <c r="G94" s="60">
         <v>24</v>
       </c>
-      <c r="H94" s="55" t="s">
+      <c r="H94" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="46" t="s">
+      <c r="I94" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="J94" s="49" t="s">
+      <c r="J94" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K94" s="49" t="s">
+      <c r="K94" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L94" s="67">
+      <c r="L94" s="80">
         <v>-7</v>
       </c>
       <c r="M94" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="N94" s="46" t="s">
+      <c r="N94" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="95" spans="2:19" ht="24">
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="68"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="70"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="78"/>
       <c r="M95" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N95" s="47"/>
+      <c r="N95" s="70"/>
     </row>
     <row r="96" spans="2:19" ht="24">
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="68"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="78"/>
       <c r="M96" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N96" s="47"/>
+      <c r="N96" s="70"/>
     </row>
     <row r="97" spans="2:16" ht="24">
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="68"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="78"/>
       <c r="M97" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="N97" s="47"/>
+      <c r="N97" s="70"/>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="68"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="78"/>
       <c r="M98" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="N98" s="47"/>
+      <c r="N98" s="70"/>
     </row>
     <row r="99" spans="2:16" ht="24">
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="68"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="78"/>
       <c r="M99" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="N99" s="47"/>
+      <c r="N99" s="70"/>
     </row>
     <row r="100" spans="2:16" ht="24.75" thickBot="1">
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
       <c r="D100" s="51"/>
       <c r="E100" s="51"/>
-      <c r="F100" s="60"/>
+      <c r="F100" s="53"/>
       <c r="G100" s="51"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="48"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="57"/>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
-      <c r="L100" s="69"/>
+      <c r="L100" s="79"/>
       <c r="M100" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="N100" s="48"/>
+      <c r="N100" s="57"/>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E101" s="49">
+      <c r="B101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="60">
         <v>23</v>
       </c>
-      <c r="F101" s="58">
+      <c r="F101" s="61">
         <v>25</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G101" s="60">
         <v>25</v>
       </c>
-      <c r="H101" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I101" s="46" t="s">
+      <c r="H101" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="J101" s="49" t="s">
+      <c r="J101" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K101" s="49" t="s">
+      <c r="K101" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L101" s="46" t="s">
+      <c r="L101" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M101" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="N101" s="46" t="s">
+      <c r="N101" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="47"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="70"/>
       <c r="M102" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N102" s="47"/>
+      <c r="N102" s="70"/>
     </row>
     <row r="103" spans="2:16" ht="24">
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="47"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="70"/>
       <c r="M103" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N103" s="47"/>
+      <c r="N103" s="70"/>
     </row>
     <row r="104" spans="2:16" ht="24">
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="47"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="70"/>
       <c r="M104" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N104" s="47"/>
+      <c r="N104" s="70"/>
     </row>
     <row r="105" spans="2:16" ht="15" thickBot="1">
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
       <c r="E105" s="51"/>
-      <c r="F105" s="60"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="51"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
-      <c r="L105" s="48"/>
+      <c r="L105" s="57"/>
       <c r="M105" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N105" s="48"/>
+      <c r="N105" s="57"/>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="49">
+      <c r="B106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="60">
         <v>24</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="61">
         <v>26</v>
       </c>
-      <c r="G106" s="49">
+      <c r="G106" s="60">
         <v>26</v>
       </c>
-      <c r="H106" s="55" t="s">
+      <c r="H106" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="I106" s="70" t="s">
+      <c r="I106" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="J106" s="49" t="s">
+      <c r="J106" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K106" s="49" t="s">
+      <c r="K106" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L106" s="46" t="s">
+      <c r="L106" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M106" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N106" s="46" t="s">
+      <c r="N106" s="68" t="s">
         <v>203</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="47"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="50"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="47"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="70"/>
       <c r="M107" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="N107" s="47"/>
+      <c r="N107" s="70"/>
     </row>
     <row r="108" spans="2:16" ht="15" thickBot="1">
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="51"/>
-      <c r="F108" s="60"/>
+      <c r="F108" s="53"/>
       <c r="G108" s="51"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="66"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="76"/>
       <c r="J108" s="51"/>
       <c r="K108" s="51"/>
-      <c r="L108" s="48"/>
+      <c r="L108" s="57"/>
       <c r="M108" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="N108" s="48"/>
+      <c r="N108" s="57"/>
     </row>
     <row r="109" spans="2:16" ht="24.75" thickBot="1">
       <c r="B109" s="24" t="s">
@@ -6211,270 +6217,270 @@
         <v>206</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="15" thickTop="1">
-      <c r="B110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="62">
+      <c r="B110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="50">
         <v>26</v>
       </c>
-      <c r="F110" s="63">
+      <c r="F110" s="52">
         <v>28</v>
       </c>
-      <c r="G110" s="62">
+      <c r="G110" s="50">
         <v>28</v>
       </c>
-      <c r="H110" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I110" s="64" t="s">
+      <c r="H110" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I110" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="J110" s="62" t="s">
+      <c r="J110" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K110" s="62" t="s">
+      <c r="K110" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L110" s="61" t="s">
+      <c r="L110" s="56" t="s">
         <v>88</v>
       </c>
       <c r="M110" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N110" s="61" t="s">
+      <c r="N110" s="56" t="s">
         <v>206</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="24">
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="47"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="70"/>
       <c r="M111" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N111" s="47"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="2:16" ht="24">
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="47"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="70"/>
       <c r="M112" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N112" s="47"/>
+      <c r="N112" s="70"/>
     </row>
     <row r="113" spans="2:14" ht="15" thickBot="1">
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="51"/>
-      <c r="F113" s="60"/>
+      <c r="F113" s="53"/>
       <c r="G113" s="51"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="66"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="76"/>
       <c r="J113" s="51"/>
       <c r="K113" s="51"/>
-      <c r="L113" s="48"/>
+      <c r="L113" s="57"/>
       <c r="M113" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="N113" s="48"/>
+      <c r="N113" s="57"/>
     </row>
     <row r="114" spans="2:14" ht="36">
-      <c r="B114" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="49">
+      <c r="B114" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="60">
         <v>18</v>
       </c>
-      <c r="D114" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E114" s="49">
+      <c r="D114" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="60">
         <v>27</v>
       </c>
-      <c r="F114" s="58">
+      <c r="F114" s="61">
         <v>29</v>
       </c>
-      <c r="G114" s="49">
+      <c r="G114" s="60">
         <v>29</v>
       </c>
-      <c r="H114" s="55" t="s">
+      <c r="H114" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="I114" s="46" t="s">
+      <c r="I114" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="J114" s="49" t="s">
+      <c r="J114" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K114" s="49" t="s">
+      <c r="K114" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L114" s="46" t="s">
+      <c r="L114" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M114" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="N114" s="46" t="s">
+      <c r="N114" s="68" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="24">
-      <c r="B115" s="47"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="50"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="47"/>
-      <c r="J115" s="50"/>
-      <c r="K115" s="50"/>
-      <c r="L115" s="47"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="70"/>
       <c r="M115" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N115" s="47"/>
+      <c r="N115" s="70"/>
     </row>
     <row r="116" spans="2:14">
-      <c r="B116" s="47"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="47"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="70"/>
       <c r="M116" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N116" s="47"/>
+      <c r="N116" s="70"/>
     </row>
     <row r="117" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B117" s="48"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="51"/>
-      <c r="D117" s="48"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="51"/>
-      <c r="F117" s="60"/>
+      <c r="F117" s="53"/>
       <c r="G117" s="51"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="48"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="57"/>
       <c r="J117" s="51"/>
       <c r="K117" s="51"/>
-      <c r="L117" s="48"/>
+      <c r="L117" s="57"/>
       <c r="M117" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="N117" s="48"/>
+      <c r="N117" s="57"/>
     </row>
     <row r="118" spans="2:14" ht="36">
-      <c r="B118" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="49">
+      <c r="B118" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="60">
         <v>19</v>
       </c>
-      <c r="D118" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118" s="49">
+      <c r="D118" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="60">
         <v>28</v>
       </c>
-      <c r="F118" s="58">
+      <c r="F118" s="61">
         <v>30</v>
       </c>
-      <c r="G118" s="49">
+      <c r="G118" s="60">
         <v>30</v>
       </c>
-      <c r="H118" s="55" t="s">
+      <c r="H118" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="I118" s="46" t="s">
+      <c r="I118" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="J118" s="49" t="s">
+      <c r="J118" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K118" s="49" t="s">
+      <c r="K118" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L118" s="46" t="s">
+      <c r="L118" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M118" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="N118" s="46" t="s">
+      <c r="N118" s="68" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="119" spans="2:14" ht="36">
-      <c r="B119" s="47"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="47"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="70"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="66"/>
+      <c r="L119" s="70"/>
       <c r="M119" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="N119" s="47"/>
+      <c r="N119" s="70"/>
     </row>
     <row r="120" spans="2:14" ht="24.75" thickBot="1">
-      <c r="B120" s="48"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="51"/>
-      <c r="D120" s="48"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="51"/>
-      <c r="F120" s="60"/>
+      <c r="F120" s="53"/>
       <c r="G120" s="51"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="48"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="57"/>
       <c r="J120" s="51"/>
       <c r="K120" s="51"/>
-      <c r="L120" s="48"/>
+      <c r="L120" s="57"/>
       <c r="M120" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="N120" s="48"/>
+      <c r="N120" s="57"/>
     </row>
     <row r="121" spans="2:14" ht="48.75" thickBot="1">
       <c r="B121" s="17">
@@ -6518,96 +6524,96 @@
       </c>
     </row>
     <row r="122" spans="2:14" ht="24">
-      <c r="B122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F122" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="49">
+      <c r="B122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" s="60">
         <v>32</v>
       </c>
-      <c r="H122" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I122" s="46" t="s">
+      <c r="H122" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="J122" s="49" t="s">
+      <c r="J122" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K122" s="49" t="s">
+      <c r="K122" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="L122" s="46" t="s">
+      <c r="L122" s="68" t="s">
         <v>88</v>
       </c>
       <c r="M122" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="N122" s="46" t="s">
+      <c r="N122" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="24">
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
-      <c r="L123" s="47"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="70"/>
       <c r="M123" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N123" s="47"/>
+      <c r="N123" s="70"/>
     </row>
     <row r="124" spans="2:14">
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="50"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="47"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="66"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="70"/>
       <c r="M124" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="N124" s="47"/>
+      <c r="N124" s="70"/>
     </row>
     <row r="125" spans="2:14" ht="15" thickBot="1">
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="54"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="84"/>
       <c r="G125" s="51"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
       <c r="J125" s="51"/>
       <c r="K125" s="51"/>
-      <c r="L125" s="48"/>
+      <c r="L125" s="57"/>
       <c r="M125" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="N125" s="48"/>
+      <c r="N125" s="57"/>
     </row>
     <row r="126" spans="2:14" ht="15" thickBot="1">
       <c r="B126" s="24" t="s">
@@ -6693,32 +6699,254 @@
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="N118:N120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="N101:N105"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="L110:L113"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="K94:K100"/>
+    <mergeCell ref="L94:L100"/>
+    <mergeCell ref="N94:N100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="H101:H105"/>
+    <mergeCell ref="N106:N108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I94:I100"/>
+    <mergeCell ref="J94:J100"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="N88:N93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="I88:I93"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="L88:L93"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="N75:N79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="L32:L38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B17:B23"/>
     <mergeCell ref="C17:C23"/>
     <mergeCell ref="D17:D23"/>
     <mergeCell ref="E17:E23"/>
@@ -6743,254 +6971,32 @@
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="K11:K16"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K32:K38"/>
-    <mergeCell ref="L32:L38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="K54:K58"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="N75:N79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="K75:K79"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="N88:N93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H88:H93"/>
-    <mergeCell ref="I88:I93"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="L88:L93"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="E94:E100"/>
-    <mergeCell ref="F94:F100"/>
-    <mergeCell ref="G94:G100"/>
-    <mergeCell ref="H94:H100"/>
-    <mergeCell ref="I94:I100"/>
-    <mergeCell ref="J94:J100"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="K94:K100"/>
-    <mergeCell ref="L94:L100"/>
-    <mergeCell ref="N94:N100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="E101:E105"/>
-    <mergeCell ref="F101:F105"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="H101:H105"/>
-    <mergeCell ref="N106:N108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
-    <mergeCell ref="L106:L108"/>
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="N101:N105"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="L110:L113"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:K120"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="N118:N120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7016,36 +7022,36 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -7209,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -7225,7 +7231,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -7242,13 +7248,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -7261,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
@@ -7403,7 +7409,7 @@
     </row>
     <row r="18" spans="4:5" ht="28.5">
       <c r="D18" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -7426,7 +7432,7 @@
     </row>
     <row r="22" spans="4:5" ht="28.5">
       <c r="D22" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -7434,17 +7440,17 @@
     </row>
     <row r="25" spans="4:5">
       <c r="D25" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="D26" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -7469,9 +7475,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E11162-B732-4DE9-8322-FD8094AB6283}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -7539,7 +7545,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7568,7 +7574,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
@@ -7576,7 +7582,7 @@
         <v>243</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7602,7 +7608,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7621,7 +7630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -7629,9 +7638,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>395</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>32</v>
@@ -7639,22 +7648,28 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="30">
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>32</v>
@@ -7665,7 +7680,7 @@
         <v>366</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>32</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7673,18 +7688,18 @@
         <v>367</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>375</v>
       </c>
@@ -7720,6 +7735,9 @@
       <c r="A33" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="B33" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
@@ -7741,14 +7759,14 @@
       <c r="A36" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
@@ -7771,15 +7789,18 @@
         <v>386</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
       <c r="A41" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
+      <c r="B41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>388</v>
       </c>
@@ -7791,16 +7812,16 @@
       <c r="A43" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+    </row>
+    <row r="44" spans="1:2" ht="30">
       <c r="A44" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
+      <c r="B44" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>391</v>
       </c>
@@ -7812,6 +7833,9 @@
       <c r="A46" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="B46" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
@@ -7821,14 +7845,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>394</v>
       </c>
+      <c r="B48" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>32</v>
@@ -7836,12 +7863,10 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>398</v>
+        <v>461</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7851,10 +7876,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062DA91B-8FB1-42E1-8F78-2FA3A3E1477E}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7870,25 +7895,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -7896,33 +7921,33 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -7930,7 +7955,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -7938,7 +7963,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7946,7 +7971,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -7954,7 +7979,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -7962,7 +7987,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -7970,7 +7995,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -7978,7 +8003,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -7986,7 +8011,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7994,222 +8019,237 @@
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="A13" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15">
       <c r="A20" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F21">
         <v>9599568</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F23">
         <v>860414</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F24">
         <v>4668791</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F27">
         <v>2501338</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F28">
         <v>3026838</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E29" t="s">
         <v>438</v>
-      </c>
-      <c r="C29" t="s">
-        <v>441</v>
-      </c>
-      <c r="D29" t="s">
-        <v>442</v>
-      </c>
-      <c r="E29" t="s">
-        <v>440</v>
       </c>
       <c r="F29">
         <v>537056</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="5" t="s">
-        <v>426</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>427</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="D33" t="s">
-        <v>460</v>
-      </c>
-      <c r="E33" t="s">
-        <v>440</v>
-      </c>
-      <c r="F33">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15">
+      <c r="A35" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D36" t="s">
+        <v>458</v>
+      </c>
+      <c r="E36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36">
         <v>1014356</v>
       </c>
-      <c r="G33" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="H33" t="s">
-        <v>459</v>
+      <c r="G36" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="H36" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8221,8 +8261,8 @@
     <hyperlink ref="G29" r:id="rId5" xr:uid="{941E74FF-2356-4A7D-8B65-A589D7839EB8}"/>
     <hyperlink ref="G21" r:id="rId6" xr:uid="{86A28CA9-935E-4116-A8B7-E2D4F282CADE}"/>
     <hyperlink ref="G24" r:id="rId7" xr:uid="{1EF97BBF-089A-430A-8FE3-449902852987}"/>
-    <hyperlink ref="G33" r:id="rId8" xr:uid="{DE4C2826-E46B-4367-AEEB-F0D92150305C}"/>
-    <hyperlink ref="C33" r:id="rId9" display="https://uk.farnell.com/c/tools-production-supplies/tools-hand-workholding/tweezers?brand=weller-erem" xr:uid="{917B40B0-07FF-440B-9D2C-F8AF28993DED}"/>
+    <hyperlink ref="G36" r:id="rId8" xr:uid="{DE4C2826-E46B-4367-AEEB-F0D92150305C}"/>
+    <hyperlink ref="C36" r:id="rId9" display="https://uk.farnell.com/c/tools-production-supplies/tools-hand-workholding/tweezers?brand=weller-erem" xr:uid="{917B40B0-07FF-440B-9D2C-F8AF28993DED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
